--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\denekra\youdo\2019-01-26_visa_django\downloaded\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Мои документы\на отправку\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B45540-A1ED-4839-8520-3F7EF0BF8D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="11340" windowHeight="5985"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -137,9 +138,6 @@
     <t>вого отдела)</t>
   </si>
   <si>
-    <t>Реестровый № 000286</t>
-  </si>
-  <si>
     <t>предоставляется  размещение и питание  на борту теплохода</t>
   </si>
   <si>
@@ -161,9 +159,6 @@
     <t>Москва, Санкт-Петербург</t>
   </si>
   <si>
-    <t>визовое приглашение № 0693</t>
-  </si>
-  <si>
     <t>Санкт-Петербург, улица Большая Морская 31-23</t>
   </si>
   <si>
@@ -173,19 +168,112 @@
     <t xml:space="preserve">"АКУН", трансферы и экскурсионное обслуживание в городе  </t>
   </si>
   <si>
-    <t>130319 -               USA 06/07</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
-  </si>
-  <si>
-    <t>18/07/2018</t>
+    <t>Реестровый №</t>
+  </si>
+  <si>
+    <t>130319 -               USA 20/05</t>
+  </si>
+  <si>
+    <t>20/05/2019</t>
+  </si>
+  <si>
+    <t>01/06/2019</t>
+  </si>
+  <si>
+    <t>визовое приглашение № 0307</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>575334768</t>
+  </si>
+  <si>
+    <t>560358473</t>
+  </si>
+  <si>
+    <t>519468568</t>
+  </si>
+  <si>
+    <t>519468567</t>
+  </si>
+  <si>
+    <t>563530709</t>
+  </si>
+  <si>
+    <t>560076234</t>
+  </si>
+  <si>
+    <t>ДЕСКИ/</t>
+  </si>
+  <si>
+    <t>ГУСТАФСОН/</t>
+  </si>
+  <si>
+    <t>ДЖОРДАН/</t>
+  </si>
+  <si>
+    <t>ДЖОРДАН МЛ/</t>
+  </si>
+  <si>
+    <t>НЬЮБЕРГ/</t>
+  </si>
+  <si>
+    <t>МАЙКЛ СТИВЕН/</t>
+  </si>
+  <si>
+    <t>МЭРИ ПАТРИСИЯ/</t>
+  </si>
+  <si>
+    <t>ПАТРИСИЯ КАРР/</t>
+  </si>
+  <si>
+    <t>ТАРСТОН КАРР/</t>
+  </si>
+  <si>
+    <t>ЛОРИ ЭЛЛЕН/</t>
+  </si>
+  <si>
+    <t>РИЧАРД Х/</t>
+  </si>
+  <si>
+    <t>MICHAEL STEVEN</t>
+  </si>
+  <si>
+    <t>MARY PATRICIA</t>
+  </si>
+  <si>
+    <t>PATRICIA CARR</t>
+  </si>
+  <si>
+    <t>THURSTON CARR</t>
+  </si>
+  <si>
+    <t>LORI ELLEN</t>
+  </si>
+  <si>
+    <t>RICHARD H</t>
+  </si>
+  <si>
+    <t>DESKY</t>
+  </si>
+  <si>
+    <t>GUSTAFSON</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>JORDAN JR</t>
+  </si>
+  <si>
+    <t>NEWBERG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -624,91 +712,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -719,23 +729,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -744,34 +807,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -811,7 +899,7 @@
         <xdr:cNvPr id="1104" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +951,7 @@
         <xdr:cNvPr id="1105" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +1003,7 @@
         <xdr:cNvPr id="1106" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +1055,7 @@
         <xdr:cNvPr id="1107" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1107,7 @@
         <xdr:cNvPr id="1108" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1159,7 @@
         <xdr:cNvPr id="1109" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1211,7 @@
         <xdr:cNvPr id="1110" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1263,7 @@
         <xdr:cNvPr id="1111" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,6 +1376,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1323,6 +1428,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1498,11 +1620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1543,13 +1665,13 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="115"/>
       <c r="S1" s="7"/>
       <c r="T1" s="8"/>
     </row>
@@ -1578,30 +1700,30 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="84" t="str">
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="118" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 06/07</v>
-      </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+        <v>130319 -               USA 20/05</v>
+      </c>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
       <c r="R3" s="12" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1612,25 +1734,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="82" t="str">
+      <c r="L4" s="116" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="11"/>
@@ -1660,24 +1782,24 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
       <c r="J6" s="65"/>
-      <c r="K6" s="86" t="str">
+      <c r="K6" s="120" t="str">
         <f>REPT(B6,1)</f>
-        <v>визовое приглашение № 0693</v>
-      </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+        <v>визовое приглашение № 0307</v>
+      </c>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="63"/>
@@ -1708,29 +1830,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="74" t="str">
+      <c r="L8" s="88"/>
+      <c r="M8" s="109" t="str">
         <f>REPT(D8,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
@@ -1761,29 +1883,29 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="74" t="str">
+      <c r="L10" s="88"/>
+      <c r="M10" s="109" t="str">
         <f>REPT(D10,1)</f>
         <v>США</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
@@ -1817,36 +1939,36 @@
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="91"/>
+      <c r="C12" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="113"/>
       <c r="E12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="91"/>
+      <c r="F12" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="113"/>
       <c r="H12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="75" t="str">
+      <c r="L12" s="123" t="str">
         <f>REPT(C12,1)</f>
-        <v>06/07/2018</v>
-      </c>
-      <c r="M12" s="75"/>
+        <v>20/05/2019</v>
+      </c>
+      <c r="M12" s="123"/>
       <c r="N12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="74" t="str">
+      <c r="O12" s="109" t="str">
         <f>REPT(F12,1)</f>
-        <v>18/07/2018</v>
-      </c>
-      <c r="P12" s="74"/>
+        <v>01/06/2019</v>
+      </c>
+      <c r="P12" s="109"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1876,14 +1998,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="72" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="18" t="s">
         <v>16</v>
       </c>
@@ -1895,14 +2017,14 @@
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="72" t="s">
+      <c r="L14" s="115"/>
+      <c r="M14" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="115"/>
       <c r="O14" s="18" t="s">
         <v>16</v>
       </c>
@@ -1918,10 +2040,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="19" t="s">
         <v>19</v>
       </c>
@@ -1931,10 +2053,10 @@
       <c r="H15" s="19"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="71"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="19" t="s">
         <v>19</v>
       </c>
@@ -1948,19 +2070,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -1970,67 +2092,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="78" t="s">
+      <c r="K17" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -2062,12 +2184,12 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="59" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="59" t="s">
-        <v>40</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="10"/>
@@ -2075,12 +2197,12 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="89" t="s">
+      <c r="K21" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="111"/>
+      <c r="M21" s="59" t="s">
         <v>39</v>
-      </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="59" t="s">
-        <v>40</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="10"/>
@@ -2114,25 +2236,25 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="87"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="87" t="str">
         <f>REPT(F23,1)</f>
         <v>Москва,Санкт-Петербург</v>
@@ -2167,56 +2289,56 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="90"/>
-      <c r="M25" s="88" t="str">
+      <c r="L25" s="112"/>
+      <c r="M25" s="86" t="str">
         <f>REPT(D25,1)</f>
         <v>на борту теплохода "АКУН" (Viking Akun)</v>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2225,7 +2347,7 @@
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="87"/>
       <c r="D27" s="87"/>
@@ -2252,7 +2374,7 @@
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="87"/>
       <c r="D28" s="87"/>
@@ -2279,11 +2401,11 @@
     <row r="29" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="53" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -2292,11 +2414,11 @@
       <c r="I29" s="56"/>
       <c r="J29" s="57"/>
       <c r="K29" s="53" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L29" s="54"/>
       <c r="M29" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
@@ -2330,31 +2452,31 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="125" t="s">
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="76" t="s">
+      <c r="K31" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="125" t="str">
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="89" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="8"/>
@@ -2362,7 +2484,7 @@
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="87"/>
       <c r="D32" s="87"/>
@@ -2389,7 +2511,7 @@
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" s="87"/>
       <c r="D33" s="87"/>
@@ -2416,7 +2538,7 @@
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="87"/>
@@ -2548,12 +2670,12 @@
       <c r="C39" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="76" t="s">
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="76"/>
+      <c r="G39" s="88"/>
       <c r="H39" s="10" t="s">
         <v>33</v>
       </c>
@@ -2563,13 +2685,13 @@
       <c r="L39" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127" t="str">
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="91" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="127"/>
+      <c r="P39" s="91"/>
       <c r="Q39" s="10" t="s">
         <v>33</v>
       </c>
@@ -2609,11 +2731,11 @@
       <c r="C41" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="111">
+      <c r="D41" s="94">
         <f ca="1">TODAY()</f>
-        <v>43494</v>
-      </c>
-      <c r="E41" s="112"/>
+        <v>43503</v>
+      </c>
+      <c r="E41" s="95"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2623,11 +2745,11 @@
       <c r="L41" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="111">
+      <c r="M41" s="94">
         <f ca="1">TODAY()</f>
-        <v>43494</v>
-      </c>
-      <c r="N41" s="112"/>
+        <v>43503</v>
+      </c>
+      <c r="N41" s="95"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -2703,8 +2825,8 @@
     </row>
     <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="68">
-        <v>1028</v>
+      <c r="B45" s="68" t="s">
+        <v>52</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2716,16 +2838,16 @@
       <c r="J45" s="31"/>
       <c r="K45" s="67" t="str">
         <f>REPT(B45,1)</f>
-        <v>1028</v>
+        <v>0307</v>
       </c>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="115" t="s">
+      <c r="P45" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="Q45" s="116"/>
+      <c r="Q45" s="105"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2746,56 +2868,56 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="114" t="s">
+      <c r="P46" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="117"/>
+      <c r="Q46" s="106"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="124" t="str">
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 06/07</v>
-      </c>
-      <c r="H47" s="124"/>
+        <v>130319 -               USA 20/05</v>
+      </c>
+      <c r="H47" s="98"/>
       <c r="I47" s="26"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="118" t="s">
+      <c r="K47" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="120" t="str">
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="107" t="str">
         <f>REPT(O3,1)</f>
-        <v>130319 -               USA 06/07</v>
-      </c>
-      <c r="Q47" s="121"/>
+        <v>130319 -               USA 20/05</v>
+      </c>
+      <c r="Q47" s="108"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="107" t="s">
+      <c r="C48" s="74"/>
+      <c r="D48" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="108"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="34" t="s">
         <v>16</v>
       </c>
@@ -2807,14 +2929,14 @@
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="103" t="s">
+      <c r="K48" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="104"/>
-      <c r="M48" s="107" t="s">
+      <c r="L48" s="74"/>
+      <c r="M48" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="108"/>
+      <c r="N48" s="93"/>
       <c r="O48" s="34" t="s">
         <v>16</v>
       </c>
@@ -2830,10 +2952,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="104"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="36" t="s">
         <v>19</v>
       </c>
@@ -2843,10 +2965,10 @@
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="104"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="74"/>
       <c r="O49" s="36" t="s">
         <v>19</v>
       </c>
@@ -2860,24 +2982,40 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="96" t="s">
+      <c r="B50" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="78">
+        <v>13699</v>
+      </c>
+      <c r="G50" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="99"/>
+      <c r="I50" s="84"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="96" t="s">
+      <c r="K50" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50" s="71"/>
+      <c r="M50" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50" s="72"/>
+      <c r="O50" s="78">
+        <v>13699</v>
+      </c>
+      <c r="P50" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="82" t="s">
         <v>29</v>
       </c>
       <c r="R50" s="1"/>
@@ -2886,46 +3024,70 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="100"/>
+      <c r="B51" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="77"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="85"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="97"/>
+      <c r="K51" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="76"/>
+      <c r="M51" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="N51" s="77"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="83"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="96" t="s">
+      <c r="B52" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="72"/>
+      <c r="F52" s="78">
+        <v>13466</v>
+      </c>
+      <c r="G52" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="99"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="96" t="s">
+      <c r="K52" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="71"/>
+      <c r="M52" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="72"/>
+      <c r="O52" s="78">
+        <v>13466</v>
+      </c>
+      <c r="P52" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q52" s="82" t="s">
         <v>29</v>
       </c>
       <c r="R52" s="1"/>
@@ -2934,46 +3096,70 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="100"/>
+      <c r="B53" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="85"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="97"/>
+      <c r="K53" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="N53" s="77"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="83"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="96" t="s">
+      <c r="B54" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="78">
+        <v>14764</v>
+      </c>
+      <c r="G54" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="99"/>
+      <c r="I54" s="84"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="98"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="96" t="s">
+      <c r="K54" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" s="71"/>
+      <c r="M54" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="N54" s="72"/>
+      <c r="O54" s="78">
+        <v>14764</v>
+      </c>
+      <c r="P54" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="82" t="s">
         <v>29</v>
       </c>
       <c r="R54" s="1"/>
@@ -2982,46 +3168,70 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="100"/>
+      <c r="B55" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="77"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="85"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="109"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="97"/>
+      <c r="K55" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="N55" s="77"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="83"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="96" t="s">
+      <c r="B56" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="72"/>
+      <c r="F56" s="78">
+        <v>14954</v>
+      </c>
+      <c r="G56" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="99"/>
+      <c r="I56" s="84"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="102"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="92"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="96" t="s">
+      <c r="K56" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="71"/>
+      <c r="M56" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="72"/>
+      <c r="O56" s="78">
+        <v>14954</v>
+      </c>
+      <c r="P56" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q56" s="82" t="s">
         <v>29</v>
       </c>
       <c r="R56" s="1"/>
@@ -3030,22 +3240,30 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="100"/>
+      <c r="B57" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="77"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="85"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="109"/>
-      <c r="N57" s="109"/>
-      <c r="O57" s="93"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="97"/>
+      <c r="K57" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" s="76"/>
+      <c r="M57" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="N57" s="77"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="83"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3054,24 +3272,40 @@
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="101"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="96" t="s">
+      <c r="B58" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="72"/>
+      <c r="F58" s="78">
+        <v>20108</v>
+      </c>
+      <c r="G58" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="99"/>
+      <c r="I58" s="84"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="102"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="96" t="s">
+      <c r="K58" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" s="71"/>
+      <c r="M58" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="N58" s="72"/>
+      <c r="O58" s="78">
+        <v>20108</v>
+      </c>
+      <c r="P58" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q58" s="82" t="s">
         <v>29</v>
       </c>
       <c r="R58" s="1"/>
@@ -3082,46 +3316,70 @@
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="100"/>
+      <c r="B59" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="77"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="85"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="105"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="109"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="97"/>
+      <c r="K59" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="N59" s="77"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="83"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="96" t="s">
+      <c r="B60" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="72"/>
+      <c r="F60" s="78">
+        <v>17240</v>
+      </c>
+      <c r="G60" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="99"/>
+      <c r="I60" s="84"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="102"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="96" t="s">
+      <c r="K60" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" s="71"/>
+      <c r="M60" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="N60" s="72"/>
+      <c r="O60" s="78">
+        <v>17240</v>
+      </c>
+      <c r="P60" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="82" t="s">
         <v>29</v>
       </c>
       <c r="R60" s="1"/>
@@ -3130,114 +3388,118 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="100"/>
+      <c r="B61" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="77"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="85"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="105"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="95"/>
-      <c r="Q61" s="97"/>
+      <c r="K61" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" s="77"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="83"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="99"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="84"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="98"/>
-      <c r="N62" s="98"/>
-      <c r="O62" s="92"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="96" t="s">
-        <v>29</v>
-      </c>
+      <c r="K62" s="70"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="82"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="100"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="85"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="105"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="109"/>
-      <c r="N63" s="109"/>
-      <c r="O63" s="93"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="97"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="83"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="99"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="84"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="98"/>
-      <c r="N64" s="98"/>
-      <c r="O64" s="92"/>
-      <c r="P64" s="94"/>
-      <c r="Q64" s="96"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="82"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="100"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="85"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="105"/>
-      <c r="L65" s="106"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="93"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="97"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="83"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3246,22 +3508,22 @@
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="99"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="84"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="101"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
-      <c r="O66" s="92"/>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="96"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="82"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -3270,85 +3532,85 @@
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="100"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="85"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="105"/>
-      <c r="L67" s="106"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="93"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="97"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="76"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="83"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="99"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="84"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="101"/>
-      <c r="L68" s="102"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="98"/>
-      <c r="O68" s="92"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="96"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="82"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="100"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="85"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="93"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="97"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="83"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="110"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="49"/>
       <c r="H70" s="51"/>
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="110"/>
-      <c r="M70" s="110"/>
-      <c r="N70" s="110"/>
+      <c r="K70" s="101"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="101"/>
+      <c r="N70" s="101"/>
       <c r="O70" s="48"/>
       <c r="P70" s="49"/>
       <c r="Q70" s="41"/>
@@ -3384,12 +3646,12 @@
       <c r="C72" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="114" t="s">
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="114"/>
+      <c r="G72" s="103"/>
       <c r="H72" s="4" t="s">
         <v>35</v>
       </c>
@@ -3399,12 +3661,12 @@
       <c r="L72" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="114" t="s">
+      <c r="M72" s="102"/>
+      <c r="N72" s="102"/>
+      <c r="O72" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="P72" s="114"/>
+      <c r="P72" s="103"/>
       <c r="Q72" s="4" t="s">
         <v>35</v>
       </c>
@@ -3444,11 +3706,11 @@
       <c r="C74" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="111">
+      <c r="D74" s="94">
         <f ca="1">TODAY()</f>
-        <v>43494</v>
-      </c>
-      <c r="E74" s="112"/>
+        <v>43503</v>
+      </c>
+      <c r="E74" s="95"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="11"/>
@@ -3458,11 +3720,11 @@
       <c r="L74" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="M74" s="111">
+      <c r="M74" s="94">
         <f ca="1">TODAY()</f>
-        <v>43494</v>
-      </c>
-      <c r="N74" s="112"/>
+        <v>43503</v>
+      </c>
+      <c r="N74" s="95"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="11"/>
@@ -3746,7 +4008,7 @@
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="122"/>
+      <c r="I101" s="99"/>
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="R101" s="1"/>
@@ -3756,7 +4018,7 @@
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="122"/>
+      <c r="I102" s="99"/>
       <c r="J102" s="46"/>
       <c r="K102" s="47"/>
       <c r="R102" s="1"/>
@@ -4285,28 +4547,206 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="O52:O53"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="K52:L52"/>
@@ -4331,208 +4771,30 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="M52:N52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4553,7 +4815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4567,7 +4829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Мои документы\на отправку\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\denekra\youdo\2019-01-26_visa_django\visa_app\static\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B45540-A1ED-4839-8520-3F7EF0BF8D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -36,9 +35,6 @@
     <t>Кратность визы</t>
   </si>
   <si>
-    <t>ОДНОКРАТНАЯ</t>
-  </si>
-  <si>
     <t>Гражданство</t>
   </si>
   <si>
@@ -114,9 +110,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>США</t>
-  </si>
-  <si>
     <t>Васив Д.М.</t>
   </si>
   <si>
@@ -144,9 +137,6 @@
     <t>Цель поездки</t>
   </si>
   <si>
-    <t>ТУРИЗМ</t>
-  </si>
-  <si>
     <t>016290</t>
   </si>
   <si>
@@ -171,109 +161,16 @@
     <t>Реестровый №</t>
   </si>
   <si>
-    <t>130319 -               USA 20/05</t>
-  </si>
-  <si>
-    <t>20/05/2019</t>
-  </si>
-  <si>
-    <t>01/06/2019</t>
-  </si>
-  <si>
     <t>визовое приглашение № 0307</t>
   </si>
   <si>
     <t>0307</t>
-  </si>
-  <si>
-    <t>575334768</t>
-  </si>
-  <si>
-    <t>560358473</t>
-  </si>
-  <si>
-    <t>519468568</t>
-  </si>
-  <si>
-    <t>519468567</t>
-  </si>
-  <si>
-    <t>563530709</t>
-  </si>
-  <si>
-    <t>560076234</t>
-  </si>
-  <si>
-    <t>ДЕСКИ/</t>
-  </si>
-  <si>
-    <t>ГУСТАФСОН/</t>
-  </si>
-  <si>
-    <t>ДЖОРДАН/</t>
-  </si>
-  <si>
-    <t>ДЖОРДАН МЛ/</t>
-  </si>
-  <si>
-    <t>НЬЮБЕРГ/</t>
-  </si>
-  <si>
-    <t>МАЙКЛ СТИВЕН/</t>
-  </si>
-  <si>
-    <t>МЭРИ ПАТРИСИЯ/</t>
-  </si>
-  <si>
-    <t>ПАТРИСИЯ КАРР/</t>
-  </si>
-  <si>
-    <t>ТАРСТОН КАРР/</t>
-  </si>
-  <si>
-    <t>ЛОРИ ЭЛЛЕН/</t>
-  </si>
-  <si>
-    <t>РИЧАРД Х/</t>
-  </si>
-  <si>
-    <t>MICHAEL STEVEN</t>
-  </si>
-  <si>
-    <t>MARY PATRICIA</t>
-  </si>
-  <si>
-    <t>PATRICIA CARR</t>
-  </si>
-  <si>
-    <t>THURSTON CARR</t>
-  </si>
-  <si>
-    <t>LORI ELLEN</t>
-  </si>
-  <si>
-    <t>RICHARD H</t>
-  </si>
-  <si>
-    <t>DESKY</t>
-  </si>
-  <si>
-    <t>GUSTAFSON</t>
-  </si>
-  <si>
-    <t>JORDAN</t>
-  </si>
-  <si>
-    <t>JORDAN JR</t>
-  </si>
-  <si>
-    <t>NEWBERG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -712,15 +609,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,6 +618,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -899,7 +796,7 @@
         <xdr:cNvPr id="1104" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -951,7 +848,7 @@
         <xdr:cNvPr id="1105" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +900,7 @@
         <xdr:cNvPr id="1106" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +952,7 @@
         <xdr:cNvPr id="1107" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1004,7 @@
         <xdr:cNvPr id="1108" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1056,7 @@
         <xdr:cNvPr id="1109" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1108,7 @@
         <xdr:cNvPr id="1110" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1160,7 @@
         <xdr:cNvPr id="1111" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,23 +1273,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1428,23 +1308,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1620,11 +1483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1705,22 +1568,20 @@
       </c>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
-      <c r="F3" s="118" t="s">
-        <v>48</v>
-      </c>
+      <c r="F3" s="118"/>
       <c r="G3" s="118"/>
       <c r="H3" s="118"/>
       <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="116"/>
       <c r="N3" s="116"/>
       <c r="O3" s="118" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 20/05</v>
+        <v/>
       </c>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
@@ -1735,7 +1596,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="116"/>
       <c r="E4" s="116"/>
@@ -1783,7 +1644,7 @@
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="119" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="119"/>
       <c r="D6" s="119"/>
@@ -1834,9 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="88"/>
-      <c r="D8" s="109" t="s">
-        <v>3</v>
-      </c>
+      <c r="D8" s="109"/>
       <c r="E8" s="109"/>
       <c r="F8" s="109"/>
       <c r="G8" s="10"/>
@@ -1849,7 +1708,7 @@
       <c r="L8" s="88"/>
       <c r="M8" s="109" t="str">
         <f>REPT(D8,1)</f>
-        <v>ОДНОКРАТНАЯ</v>
+        <v/>
       </c>
       <c r="N8" s="109"/>
       <c r="O8" s="109"/>
@@ -1884,12 +1743,10 @@
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="88"/>
-      <c r="D10" s="109" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="109"/>
       <c r="E10" s="109"/>
       <c r="F10" s="109"/>
       <c r="G10" s="10"/>
@@ -1897,12 +1754,12 @@
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
       <c r="K10" s="88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="88"/>
       <c r="M10" s="109" t="str">
         <f>REPT(D10,1)</f>
-        <v>США</v>
+        <v/>
       </c>
       <c r="N10" s="109"/>
       <c r="O10" s="109"/>
@@ -1937,36 +1794,32 @@
     <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>49</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C12" s="113"/>
       <c r="D12" s="113"/>
       <c r="E12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="113" t="s">
-        <v>50</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F12" s="113"/>
       <c r="G12" s="113"/>
       <c r="H12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="123" t="str">
         <f>REPT(C12,1)</f>
-        <v>20/05/2019</v>
+        <v/>
       </c>
       <c r="M12" s="123"/>
       <c r="N12" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" s="109" t="str">
         <f>REPT(F12,1)</f>
-        <v>01/06/2019</v>
+        <v/>
       </c>
       <c r="P12" s="109"/>
       <c r="Q12" s="16"/>
@@ -1999,40 +1852,40 @@
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="115"/>
       <c r="D14" s="114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="115"/>
       <c r="F14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="115"/>
       <c r="M14" s="114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="115"/>
       <c r="O14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2045,10 +1898,10 @@
       <c r="D15" s="121"/>
       <c r="E15" s="122"/>
       <c r="F15" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14"/>
@@ -2058,10 +1911,10 @@
       <c r="M15" s="121"/>
       <c r="N15" s="122"/>
       <c r="O15" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="11"/>
@@ -2079,13 +1932,28 @@
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="126"/>
+      <c r="K16" s="126" t="str">
+        <f>REPT(B16,1)</f>
+        <v/>
+      </c>
       <c r="L16" s="127"/>
-      <c r="M16" s="126"/>
+      <c r="M16" s="126" t="str">
+        <f>REPT(D16,1)</f>
+        <v/>
+      </c>
       <c r="N16" s="127"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="O16" s="21" t="str">
+        <f>REPT(F16,1)</f>
+        <v/>
+      </c>
+      <c r="P16" s="21" t="str">
+        <f>REPT(G16,1)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="21" t="str">
+        <f>REPT(H16,1)</f>
+        <v/>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="8"/>
@@ -2093,7 +1961,7 @@
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="125"/>
       <c r="D17" s="125"/>
@@ -2104,7 +1972,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
       <c r="K17" s="125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" s="125"/>
       <c r="M17" s="125"/>
@@ -2149,12 +2017,24 @@
       <c r="H19" s="20"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="110"/>
+      <c r="K19" s="110" t="str">
+        <f>REPT(B19,1)</f>
+        <v/>
+      </c>
       <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
+      <c r="M19" s="110" t="str">
+        <f>REPT(D19,1)</f>
+        <v/>
+      </c>
       <c r="N19" s="110"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="O19" s="20" t="str">
+        <f>REPT(F19,1)</f>
+        <v/>
+      </c>
+      <c r="P19" s="20" t="str">
+        <f>REPT(G19,1)</f>
+        <v/>
+      </c>
       <c r="Q19" s="20"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -2185,12 +2065,10 @@
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="111"/>
-      <c r="D21" s="59" t="s">
-        <v>39</v>
-      </c>
+      <c r="D21" s="59"/>
       <c r="E21" s="13"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -2198,11 +2076,12 @@
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
       <c r="K21" s="111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L21" s="111"/>
-      <c r="M21" s="59" t="s">
-        <v>39</v>
+      <c r="M21" s="59" t="str">
+        <f>REPT(D21,1)</f>
+        <v/>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="10"/>
@@ -2237,20 +2116,20 @@
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
       <c r="E23" s="88"/>
       <c r="F23" s="87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="87"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
       <c r="K23" s="88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" s="88"/>
       <c r="M23" s="88"/>
@@ -2290,11 +2169,11 @@
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="112"/>
       <c r="D25" s="86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="86"/>
       <c r="F25" s="86"/>
@@ -2303,7 +2182,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
       <c r="K25" s="112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" s="112"/>
       <c r="M25" s="86" t="str">
@@ -2321,7 +2200,7 @@
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
@@ -2332,7 +2211,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
       <c r="K26" s="88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" s="88"/>
       <c r="M26" s="88"/>
@@ -2347,7 +2226,7 @@
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="87"/>
       <c r="D27" s="87"/>
@@ -2374,7 +2253,7 @@
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="87"/>
       <c r="D28" s="87"/>
@@ -2401,11 +2280,11 @@
     <row r="29" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -2414,11 +2293,11 @@
       <c r="I29" s="56"/>
       <c r="J29" s="57"/>
       <c r="K29" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L29" s="54"/>
       <c r="M29" s="69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
@@ -2453,12 +2332,12 @@
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
       <c r="E31" s="89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="89"/>
       <c r="G31" s="89"/>
@@ -2466,7 +2345,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
       <c r="K31" s="88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="88"/>
       <c r="M31" s="88"/>
@@ -2484,7 +2363,7 @@
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="87"/>
       <c r="D32" s="87"/>
@@ -2511,7 +2390,7 @@
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="87" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="87"/>
       <c r="D33" s="87"/>
@@ -2538,7 +2417,7 @@
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="87"/>
@@ -2565,7 +2444,7 @@
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
@@ -2592,7 +2471,7 @@
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="87"/>
       <c r="D36" s="87"/>
@@ -2641,7 +2520,7 @@
     <row r="38" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2652,7 +2531,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="9"/>
       <c r="K38" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2668,22 +2547,22 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="90"/>
       <c r="E39" s="90"/>
       <c r="F39" s="88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G39" s="88"/>
       <c r="H39" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
       <c r="L39" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M39" s="90"/>
       <c r="N39" s="90"/>
@@ -2693,7 +2572,7 @@
       </c>
       <c r="P39" s="91"/>
       <c r="Q39" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -2708,7 +2587,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="9"/>
@@ -2719,7 +2598,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -2729,11 +2608,11 @@
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="94">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
+        <v>43515</v>
       </c>
       <c r="E41" s="95"/>
       <c r="F41" s="10"/>
@@ -2743,11 +2622,11 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
       <c r="L41" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41" s="94">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
+        <v>43515</v>
       </c>
       <c r="N41" s="95"/>
       <c r="O41" s="10"/>
@@ -2826,7 +2705,7 @@
     <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2845,7 +2724,7 @@
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
       <c r="P45" s="104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="105"/>
       <c r="R45" s="1"/>
@@ -2869,7 +2748,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q46" s="106"/>
       <c r="R46" s="1"/>
@@ -2879,7 +2758,7 @@
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="97"/>
@@ -2887,13 +2766,13 @@
       <c r="F47" s="97"/>
       <c r="G47" s="98" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 20/05</v>
+        <v/>
       </c>
       <c r="H47" s="98"/>
       <c r="I47" s="26"/>
       <c r="J47" s="25"/>
       <c r="K47" s="96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L47" s="97"/>
       <c r="M47" s="97"/>
@@ -2901,7 +2780,7 @@
       <c r="O47" s="97"/>
       <c r="P47" s="107" t="str">
         <f>REPT(O3,1)</f>
-        <v>130319 -               USA 20/05</v>
+        <v/>
       </c>
       <c r="Q47" s="108"/>
       <c r="R47" s="1"/>
@@ -2910,41 +2789,41 @@
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="74"/>
+      <c r="B48" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="71"/>
       <c r="D48" s="92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="93"/>
       <c r="F48" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="74"/>
+      <c r="K48" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="71"/>
       <c r="M48" s="92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48" s="93"/>
       <c r="O48" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -2952,28 +2831,28 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="74"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="71"/>
       <c r="O49" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="1"/>
@@ -2982,69 +2861,41 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="78">
-        <v>13699</v>
-      </c>
-      <c r="G50" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="82"/>
       <c r="I50" s="84"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="L50" s="71"/>
-      <c r="M50" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="N50" s="72"/>
-      <c r="O50" s="78">
-        <v>13699</v>
-      </c>
-      <c r="P50" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="K50" s="75"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="82"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="77"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="79"/>
       <c r="G51" s="81"/>
       <c r="H51" s="83"/>
       <c r="I51" s="85"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" s="76"/>
-      <c r="M51" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" s="77"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
       <c r="O51" s="79"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="83"/>
@@ -3054,69 +2905,41 @@
     </row>
     <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="78">
-        <v>13466</v>
-      </c>
-      <c r="G52" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="84"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" s="72"/>
-      <c r="O52" s="78">
-        <v>13466</v>
-      </c>
-      <c r="P52" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q52" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="K52" s="75"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="82"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="77"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="79"/>
       <c r="G53" s="81"/>
       <c r="H53" s="83"/>
       <c r="I53" s="85"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="N53" s="77"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
       <c r="O53" s="79"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="83"/>
@@ -3126,69 +2949,41 @@
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="78">
-        <v>14764</v>
-      </c>
-      <c r="G54" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="82"/>
       <c r="I54" s="84"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="N54" s="72"/>
-      <c r="O54" s="78">
-        <v>14764</v>
-      </c>
-      <c r="P54" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q54" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="K54" s="75"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="82"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="77"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="79"/>
       <c r="G55" s="81"/>
       <c r="H55" s="83"/>
       <c r="I55" s="85"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="N55" s="77"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
       <c r="O55" s="79"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="83"/>
@@ -3198,69 +2993,41 @@
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="78">
-        <v>14954</v>
-      </c>
-      <c r="G56" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="82"/>
       <c r="I56" s="84"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" s="71"/>
-      <c r="M56" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="N56" s="72"/>
-      <c r="O56" s="78">
-        <v>14954</v>
-      </c>
-      <c r="P56" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="K56" s="75"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="82"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="77"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="79"/>
       <c r="G57" s="81"/>
       <c r="H57" s="83"/>
       <c r="I57" s="85"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="L57" s="76"/>
-      <c r="M57" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="N57" s="77"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
       <c r="O57" s="79"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="83"/>
@@ -3270,73 +3037,45 @@
     </row>
     <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="78">
-        <v>20108</v>
-      </c>
-      <c r="G58" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="82" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="82"/>
       <c r="I58" s="84"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="L58" s="71"/>
-      <c r="M58" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="N58" s="72"/>
-      <c r="O58" s="78">
-        <v>20108</v>
-      </c>
-      <c r="P58" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q58" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="K58" s="75"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="82"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="77"/>
+        <v>27</v>
+      </c>
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="79"/>
       <c r="G59" s="81"/>
       <c r="H59" s="83"/>
       <c r="I59" s="85"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="N59" s="77"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
       <c r="O59" s="79"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="83"/>
@@ -3346,69 +3085,41 @@
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="78">
-        <v>17240</v>
-      </c>
-      <c r="G60" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="82"/>
       <c r="I60" s="84"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="L60" s="71"/>
-      <c r="M60" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="N60" s="72"/>
-      <c r="O60" s="78">
-        <v>17240</v>
-      </c>
-      <c r="P60" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q60" s="82" t="s">
-        <v>29</v>
-      </c>
+      <c r="K60" s="75"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="82"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="77"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="79"/>
       <c r="G61" s="81"/>
       <c r="H61" s="83"/>
       <c r="I61" s="85"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="N61" s="77"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
       <c r="O61" s="79"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="83"/>
@@ -3418,19 +3129,19 @@
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
       <c r="F62" s="78"/>
       <c r="G62" s="80"/>
       <c r="H62" s="82"/>
       <c r="I62" s="84"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
       <c r="O62" s="78"/>
       <c r="P62" s="80"/>
       <c r="Q62" s="82"/>
@@ -3440,19 +3151,19 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="79"/>
       <c r="G63" s="81"/>
       <c r="H63" s="83"/>
       <c r="I63" s="85"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
       <c r="O63" s="79"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="83"/>
@@ -3462,19 +3173,19 @@
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="78"/>
       <c r="G64" s="80"/>
       <c r="H64" s="82"/>
       <c r="I64" s="84"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
       <c r="O64" s="78"/>
       <c r="P64" s="80"/>
       <c r="Q64" s="82"/>
@@ -3484,19 +3195,19 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="79"/>
       <c r="G65" s="81"/>
       <c r="H65" s="83"/>
       <c r="I65" s="85"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="74"/>
       <c r="O65" s="79"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="83"/>
@@ -3506,21 +3217,21 @@
     </row>
     <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
+        <v>27</v>
+      </c>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="82"/>
       <c r="I66" s="84"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="72"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
       <c r="O66" s="78"/>
       <c r="P66" s="80"/>
       <c r="Q66" s="82"/>
@@ -3530,21 +3241,21 @@
     </row>
     <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
+        <v>27</v>
+      </c>
+      <c r="B67" s="72"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="79"/>
       <c r="G67" s="81"/>
       <c r="H67" s="83"/>
       <c r="I67" s="85"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="77"/>
-      <c r="N67" s="77"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
       <c r="O67" s="79"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="83"/>
@@ -3554,19 +3265,19 @@
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
       <c r="F68" s="78"/>
       <c r="G68" s="80"/>
       <c r="H68" s="82"/>
       <c r="I68" s="84"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
       <c r="O68" s="78"/>
       <c r="P68" s="80"/>
       <c r="Q68" s="82"/>
@@ -3576,19 +3287,19 @@
     </row>
     <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="79"/>
       <c r="G69" s="81"/>
       <c r="H69" s="83"/>
       <c r="I69" s="85"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
       <c r="O69" s="79"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="83"/>
@@ -3644,31 +3355,31 @@
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="102"/>
       <c r="E72" s="102"/>
       <c r="F72" s="103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G72" s="103"/>
       <c r="H72" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="3"/>
       <c r="L72" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M72" s="102"/>
       <c r="N72" s="102"/>
       <c r="O72" s="103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P72" s="103"/>
       <c r="Q72" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -3683,7 +3394,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I73" s="46"/>
       <c r="J73" s="46"/>
@@ -3694,7 +3405,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -3704,11 +3415,11 @@
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="94">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
+        <v>43515</v>
       </c>
       <c r="E74" s="95"/>
       <c r="F74" s="3"/>
@@ -3718,11 +3429,11 @@
       <c r="J74" s="46"/>
       <c r="K74" s="3"/>
       <c r="L74" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M74" s="94">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
+        <v>43515</v>
       </c>
       <c r="N74" s="95"/>
       <c r="O74" s="3"/>
@@ -4615,6 +4326,8 @@
     <mergeCell ref="Q56:Q57"/>
     <mergeCell ref="M61:N61"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="Q58:Q59"/>
@@ -4735,7 +4448,6 @@
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K54:L54"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="H54:H55"/>
@@ -4747,9 +4459,16 @@
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="K33:Q33"/>
@@ -4763,16 +4482,6 @@
     <mergeCell ref="K36:Q36"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="B57:C57"/>
@@ -4795,6 +4504,8 @@
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4815,7 +4526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4829,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -16,9 +16,6 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -609,6 +606,96 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,85 +704,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -704,59 +726,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -796,7 +793,7 @@
         <xdr:cNvPr id="1104" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +845,7 @@
         <xdr:cNvPr id="1105" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -900,7 +897,7 @@
         <xdr:cNvPr id="1106" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -952,7 +949,7 @@
         <xdr:cNvPr id="1107" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +1001,7 @@
         <xdr:cNvPr id="1108" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1053,7 @@
         <xdr:cNvPr id="1109" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1105,7 @@
         <xdr:cNvPr id="1110" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1157,7 @@
         <xdr:cNvPr id="1111" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1528,13 +1525,13 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="117" t="s">
+      <c r="N1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="115"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="7"/>
       <c r="T1" s="8"/>
     </row>
@@ -1563,28 +1560,28 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="118" t="str">
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="84" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
       <c r="R3" s="12" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1595,25 +1592,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="116" t="str">
+      <c r="L4" s="82" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="11"/>
@@ -1643,24 +1640,24 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
       <c r="J6" s="65"/>
-      <c r="K6" s="120" t="str">
+      <c r="K6" s="86" t="str">
         <f>REPT(B6,1)</f>
         <v>визовое приглашение № 0307</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="63"/>
@@ -1691,27 +1688,27 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="109" t="str">
+      <c r="L8" s="76"/>
+      <c r="M8" s="74" t="str">
         <f>REPT(D8,1)</f>
         <v/>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
@@ -1742,27 +1739,27 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="109" t="str">
+      <c r="L10" s="76"/>
+      <c r="M10" s="74" t="str">
         <f>REPT(D10,1)</f>
         <v/>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
@@ -1796,32 +1793,32 @@
       <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="123" t="str">
+      <c r="L12" s="75" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="123"/>
+      <c r="M12" s="75"/>
       <c r="N12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="109" t="str">
+      <c r="O12" s="74" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="109"/>
+      <c r="P12" s="74"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1851,14 +1848,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="114" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="115"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="18" t="s">
         <v>15</v>
       </c>
@@ -1870,14 +1867,14 @@
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="114" t="s">
+      <c r="K14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="114" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="115"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18" t="s">
         <v>15</v>
       </c>
@@ -1893,10 +1890,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="19" t="s">
         <v>18</v>
       </c>
@@ -1906,10 +1903,10 @@
       <c r="H15" s="19"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="19" t="s">
         <v>18</v>
       </c>
@@ -1923,25 +1920,25 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="126" t="str">
+      <c r="K16" s="80" t="str">
         <f>REPT(B16,1)</f>
         <v/>
       </c>
-      <c r="L16" s="127"/>
-      <c r="M16" s="126" t="str">
+      <c r="L16" s="81"/>
+      <c r="M16" s="80" t="str">
         <f>REPT(D16,1)</f>
         <v/>
       </c>
-      <c r="N16" s="127"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="21" t="str">
         <f>REPT(F16,1)</f>
         <v/>
@@ -1960,73 +1957,73 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="125" t="s">
+      <c r="K17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="110" t="str">
+      <c r="K19" s="79" t="str">
         <f>REPT(B19,1)</f>
         <v/>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110" t="str">
+      <c r="L19" s="79"/>
+      <c r="M19" s="79" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="20" t="str">
         <f>REPT(F19,1)</f>
         <v/>
@@ -2064,10 +2061,10 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="59"/>
       <c r="E21" s="13"/>
       <c r="F21" s="10"/>
@@ -2075,10 +2072,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="111"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="59" t="str">
         <f>REPT(D21,1)</f>
         <v/>
@@ -2115,12 +2112,12 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="87" t="s">
         <v>39</v>
       </c>
@@ -2128,12 +2125,12 @@
       <c r="H23" s="87"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="88" t="s">
+      <c r="K23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
       <c r="O23" s="87" t="str">
         <f>REPT(F23,1)</f>
         <v>Москва,Санкт-Петербург</v>
@@ -2168,56 +2165,56 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="86" t="s">
+      <c r="C25" s="90"/>
+      <c r="D25" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="112" t="s">
+      <c r="K25" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="86" t="str">
+      <c r="L25" s="90"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
         <v>на борту теплохода "АКУН" (Viking Akun)</v>
       </c>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="88" t="s">
+      <c r="K26" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2331,31 +2328,31 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="88" t="s">
+      <c r="K31" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="89" t="str">
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="125" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="8"/>
@@ -2549,12 +2546,12 @@
       <c r="C39" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="88" t="s">
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="88"/>
+      <c r="G39" s="76"/>
       <c r="H39" s="10" t="s">
         <v>31</v>
       </c>
@@ -2564,13 +2561,13 @@
       <c r="L39" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="91" t="str">
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="127" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="91"/>
+      <c r="P39" s="127"/>
       <c r="Q39" s="10" t="s">
         <v>31</v>
       </c>
@@ -2610,11 +2607,11 @@
       <c r="C41" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="111">
         <f ca="1">TODAY()</f>
         <v>43515</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="112"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2624,11 +2621,11 @@
       <c r="L41" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="111">
         <f ca="1">TODAY()</f>
         <v>43515</v>
       </c>
-      <c r="N41" s="95"/>
+      <c r="N41" s="112"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -2723,10 +2720,10 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="104" t="s">
+      <c r="P45" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="105"/>
+      <c r="Q45" s="116"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2747,56 +2744,56 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="103" t="s">
+      <c r="P46" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="Q46" s="106"/>
+      <c r="Q46" s="117"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98" t="str">
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="124" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="98"/>
+      <c r="H47" s="124"/>
       <c r="I47" s="26"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="96" t="s">
+      <c r="K47" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="107" t="str">
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="120" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="108"/>
+      <c r="Q47" s="121"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="92" t="s">
+      <c r="C48" s="105"/>
+      <c r="D48" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="93"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="34" t="s">
         <v>15</v>
       </c>
@@ -2808,14 +2805,14 @@
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="70" t="s">
+      <c r="K48" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="92" t="s">
+      <c r="L48" s="105"/>
+      <c r="M48" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="93"/>
+      <c r="N48" s="109"/>
       <c r="O48" s="34" t="s">
         <v>15</v>
       </c>
@@ -2831,10 +2828,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="36" t="s">
         <v>18</v>
       </c>
@@ -2844,10 +2841,10 @@
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="71"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="105"/>
       <c r="O49" s="36" t="s">
         <v>18</v>
       </c>
@@ -2861,176 +2858,176 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="84"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="82"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="96"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="85"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="101"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="83"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="97"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="84"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="100"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="82"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="96"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="85"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="101"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="83"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="97"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="84"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="100"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="82"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="92"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="96"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="85"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="101"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="83"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="97"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="84"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="100"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="82"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="103"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="96"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="85"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="101"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="83"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="107"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="97"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3039,22 +3036,22 @@
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="84"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="100"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="82"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="96"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -3063,154 +3060,154 @@
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="85"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="101"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="83"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="97"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="84"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="100"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="82"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="96"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="85"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="101"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="83"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="97"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="84"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="100"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="82"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="98"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="96"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="85"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="101"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="83"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="97"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="84"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="100"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="78"/>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="82"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="103"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="96"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="85"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="101"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="81"/>
-      <c r="Q65" s="83"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="97"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3219,22 +3216,22 @@
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="84"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="100"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="82"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="96"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -3243,85 +3240,85 @@
       <c r="A67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="85"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="101"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="83"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="97"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="84"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="100"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="82"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="103"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="92"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="96"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="85"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="101"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="74"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="81"/>
-      <c r="Q69" s="83"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="97"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
       <c r="G70" s="49"/>
       <c r="H70" s="51"/>
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="101"/>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
-      <c r="N70" s="101"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="110"/>
+      <c r="M70" s="110"/>
+      <c r="N70" s="110"/>
       <c r="O70" s="48"/>
       <c r="P70" s="49"/>
       <c r="Q70" s="41"/>
@@ -3357,12 +3354,12 @@
       <c r="C72" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="103" t="s">
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="103"/>
+      <c r="G72" s="114"/>
       <c r="H72" s="4" t="s">
         <v>33</v>
       </c>
@@ -3372,12 +3369,12 @@
       <c r="L72" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="103" t="s">
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="103"/>
+      <c r="P72" s="114"/>
       <c r="Q72" s="4" t="s">
         <v>33</v>
       </c>
@@ -3417,11 +3414,11 @@
       <c r="C74" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="94">
+      <c r="D74" s="111">
         <f ca="1">TODAY()</f>
         <v>43515</v>
       </c>
-      <c r="E74" s="95"/>
+      <c r="E74" s="112"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="11"/>
@@ -3431,11 +3428,11 @@
       <c r="L74" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="94">
+      <c r="M74" s="111">
         <f ca="1">TODAY()</f>
         <v>43515</v>
       </c>
-      <c r="N74" s="95"/>
+      <c r="N74" s="112"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="11"/>
@@ -3719,7 +3716,7 @@
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="99"/>
+      <c r="I101" s="122"/>
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="R101" s="1"/>
@@ -3729,7 +3726,7 @@
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="99"/>
+      <c r="I102" s="122"/>
       <c r="J102" s="46"/>
       <c r="K102" s="47"/>
       <c r="R102" s="1"/>
@@ -4258,35 +4255,201 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="K10:L10"/>
@@ -4311,201 +4474,35 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4513,7 +4510,7 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="43" max="17" man="1"/>
+    <brk id="43" max="16383" man="1"/>
     <brk id="105" max="17" man="1"/>
     <brk id="122" max="17" man="1"/>
     <brk id="166" max="17" man="1"/>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\denekra\youdo\2019-01-26_visa_django\visa_app\static\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamiski\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{363294F1-F4DE-48D2-ABAD-109910D0F3B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -32,6 +36,9 @@
     <t>Кратность визы</t>
   </si>
   <si>
+    <t>ОДНОКРАТНАЯ</t>
+  </si>
+  <si>
     <t>Гражданство</t>
   </si>
   <si>
@@ -107,6 +114,9 @@
     <t>.</t>
   </si>
   <si>
+    <t>США</t>
+  </si>
+  <si>
     <t>Васив Д.М.</t>
   </si>
   <si>
@@ -134,40 +144,49 @@
     <t>Цель поездки</t>
   </si>
   <si>
+    <t>ТУРИЗМ</t>
+  </si>
+  <si>
     <t>016290</t>
   </si>
   <si>
     <t>Туристическая компания "МИР", 190000, Россия,</t>
   </si>
   <si>
+    <t>Санкт-Петербург, улица Большая Морская 31</t>
+  </si>
+  <si>
     <t>Москва,Санкт-Петербург</t>
   </si>
   <si>
     <t>Москва, Санкт-Петербург</t>
   </si>
   <si>
-    <t>Санкт-Петербург, улица Большая Морская 31-23</t>
-  </si>
-  <si>
-    <t>на борту теплохода "АКУН" (Viking Akun)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"АКУН", трансферы и экскурсионное обслуживание в городе  </t>
+    <t>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </t>
+  </si>
+  <si>
+    <t>визовое приглашение № 0302</t>
+  </si>
+  <si>
+    <t>130319 -               USA 09/06</t>
+  </si>
+  <si>
+    <t>09/06/2019</t>
+  </si>
+  <si>
+    <t>21/06/2019</t>
   </si>
   <si>
     <t>Реестровый №</t>
-  </si>
-  <si>
-    <t>визовое приглашение № 0307</t>
-  </si>
-  <si>
-    <t>0307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -606,61 +625,92 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -670,90 +720,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,6 +790,427 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1104" name="Изображение 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1752600" y="16230600"/>
+          <a:ext cx="2076450" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1105" name="Изображение 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9372600" y="16230600"/>
+          <a:ext cx="2085975" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1106" name="Изображение 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9420225" y="8610600"/>
+          <a:ext cx="2085975" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1107" name="Изображение 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1962150" y="8591550"/>
+          <a:ext cx="2076450" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1108" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="15497175"/>
+          <a:ext cx="2390775" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1109" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7134225" y="15497175"/>
+          <a:ext cx="2409825" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1110" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8172450"/>
+          <a:ext cx="2390775" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1111" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6991350" y="8191500"/>
+          <a:ext cx="2400300" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -849,6 +1289,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -884,6 +1341,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1059,11 +1533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:H32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1104,13 +1578,13 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="117" t="s">
+      <c r="N1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="115"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="7"/>
       <c r="T1" s="8"/>
     </row>
@@ -1139,28 +1613,30 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="118" t="str">
+      <c r="L3" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="84" t="str">
         <f>REPT(F3,1)</f>
-        <v/>
-      </c>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+        <v>130319 -               USA 09/06</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
       <c r="R3" s="12" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1171,25 +1647,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
+      <c r="C4" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="116" t="str">
+      <c r="L4" s="82" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="11"/>
@@ -1219,24 +1695,24 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="B6" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
       <c r="J6" s="65"/>
-      <c r="K6" s="120" t="str">
+      <c r="K6" s="86" t="str">
         <f>REPT(B6,1)</f>
-        <v>визовое приглашение № 0307</v>
-      </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
+        <v>визовое приглашение № 0302</v>
+      </c>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="63"/>
@@ -1267,27 +1743,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="109" t="str">
+      <c r="L8" s="76"/>
+      <c r="M8" s="74" t="str">
         <f>REPT(D8,1)</f>
-        <v/>
-      </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
+        <v>ОДНОКРАТНАЯ</v>
+      </c>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
@@ -1318,27 +1796,29 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="109" t="str">
+      <c r="K10" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="74" t="str">
         <f>REPT(D10,1)</f>
-        <v/>
-      </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
+        <v>США</v>
+      </c>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
@@ -1370,34 +1850,38 @@
     <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="91"/>
       <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="91"/>
       <c r="H12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="123" t="str">
+        <v>5</v>
+      </c>
+      <c r="L12" s="75" t="str">
         <f>REPT(C12,1)</f>
-        <v/>
-      </c>
-      <c r="M12" s="123"/>
+        <v>09/06/2019</v>
+      </c>
+      <c r="M12" s="75"/>
       <c r="N12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="109" t="str">
+        <v>6</v>
+      </c>
+      <c r="O12" s="74" t="str">
         <f>REPT(F12,1)</f>
-        <v/>
-      </c>
-      <c r="P12" s="109"/>
+        <v>21/06/2019</v>
+      </c>
+      <c r="P12" s="74"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1427,41 +1911,41 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="115"/>
+      <c r="B14" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="73"/>
       <c r="F14" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="115"/>
+      <c r="K14" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="73"/>
+      <c r="M14" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="73"/>
       <c r="O14" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -1469,28 +1953,28 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="11"/>
@@ -1499,118 +1983,91 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="126" t="str">
-        <f>REPT(B16,1)</f>
-        <v/>
-      </c>
-      <c r="L16" s="127"/>
-      <c r="M16" s="126" t="str">
-        <f>REPT(D16,1)</f>
-        <v/>
-      </c>
-      <c r="N16" s="127"/>
-      <c r="O16" s="21" t="str">
-        <f>REPT(F16,1)</f>
-        <v/>
-      </c>
-      <c r="P16" s="21" t="str">
-        <f>REPT(G16,1)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="21" t="str">
-        <f>REPT(H16,1)</f>
-        <v/>
-      </c>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="B17" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
+      <c r="K17" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="110" t="str">
-        <f>REPT(B19,1)</f>
-        <v/>
-      </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110" t="str">
-        <f>REPT(D19,1)</f>
-        <v/>
-      </c>
-      <c r="N19" s="110"/>
-      <c r="O19" s="20" t="str">
-        <f>REPT(F19,1)</f>
-        <v/>
-      </c>
-      <c r="P19" s="20" t="str">
-        <f>REPT(G19,1)</f>
-        <v/>
-      </c>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -1640,24 +2097,25 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="E21" s="13"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="111"/>
-      <c r="M21" s="59" t="str">
-        <f>REPT(D21,1)</f>
-        <v/>
+      <c r="K21" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="89"/>
+      <c r="M21" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="10"/>
@@ -1691,31 +2149,31 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
+      <c r="B23" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="85" t="str">
+      <c r="K23" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="87" t="str">
         <f>REPT(F23,1)</f>
         <v>Москва,Санкт-Петербург</v>
       </c>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="8"/>
@@ -1744,56 +2202,56 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
+      <c r="B25" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="84" t="str">
+      <c r="K25" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="90"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
-        <v>на борту теплохода "АКУН" (Viking Akun)</v>
-      </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+        <v>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</v>
+      </c>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
+      <c r="B26" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
+      <c r="K26" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -1801,26 +2259,26 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
+      <c r="B27" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="85" t="str">
+      <c r="K27" s="87" t="str">
         <f>REPT(B27,1)</f>
         <v>Туристическая компания "МИР", 190000, Россия,</v>
       </c>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -1828,26 +2286,26 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="B28" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="85" t="str">
+      <c r="K28" s="87" t="str">
         <f>REPT(B28,1)</f>
-        <v>Санкт-Петербург, улица Большая Морская 31-23</v>
-      </c>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
+        <v>Санкт-Петербург, улица Большая Морская 31</v>
+      </c>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -1856,11 +2314,11 @@
     <row r="29" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -1869,11 +2327,11 @@
       <c r="I29" s="56"/>
       <c r="J29" s="57"/>
       <c r="K29" s="53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L29" s="54"/>
       <c r="M29" s="69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
@@ -1907,166 +2365,166 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87" t="s">
+      <c r="B31" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="87" t="str">
+      <c r="K31" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="125" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+      <c r="B32" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="85" t="str">
+      <c r="K32" s="87" t="str">
         <f>REPT(B32,1)</f>
         <v>предоставляется  размещение и питание  на борту теплохода</v>
       </c>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="8"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
+      <c r="B33" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="85" t="str">
+      <c r="K33" s="87" t="str">
         <f>REPT(B33,1)</f>
-        <v xml:space="preserve">"АКУН", трансферы и экскурсионное обслуживание в городе  </v>
-      </c>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
+        <v xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </v>
+      </c>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="8"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
+      <c r="B34" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="85" t="str">
+      <c r="K34" s="87" t="str">
         <f>REPT(B34,1)</f>
         <v>Москва, Санкт-Петербург</v>
       </c>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
       <c r="I35" s="11"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="85" t="str">
+      <c r="K35" s="87" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
+      <c r="B36" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="11"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="85" t="str">
+      <c r="K36" s="87" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="8"/>
@@ -2096,7 +2554,7 @@
     <row r="38" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2107,7 +2565,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="9"/>
       <c r="K38" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2123,32 +2581,32 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="86"/>
+        <v>15</v>
+      </c>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="76"/>
       <c r="H39" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
       <c r="L39" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="89" t="str">
+        <v>15</v>
+      </c>
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="127" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="89"/>
+      <c r="P39" s="127"/>
       <c r="Q39" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -2163,7 +2621,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="9"/>
@@ -2174,7 +2632,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -2184,13 +2642,13 @@
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="94">
+        <v>16</v>
+      </c>
+      <c r="D41" s="119">
         <f ca="1">TODAY()</f>
         <v>43516</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="120"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2198,13 +2656,13 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
       <c r="L41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="94">
+        <v>16</v>
+      </c>
+      <c r="M41" s="119">
         <f ca="1">TODAY()</f>
         <v>43516</v>
       </c>
-      <c r="N41" s="95"/>
+      <c r="N41" s="120"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -2280,8 +2738,8 @@
     </row>
     <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="68" t="s">
-        <v>46</v>
+      <c r="B45" s="68">
+        <v>1028</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2293,16 +2751,16 @@
       <c r="J45" s="31"/>
       <c r="K45" s="67" t="str">
         <f>REPT(B45,1)</f>
-        <v>0307</v>
+        <v>1028</v>
       </c>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="105"/>
+      <c r="P45" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" s="110"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2323,83 +2781,83 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q46" s="106"/>
+      <c r="P46" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="111"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98" t="str">
+      <c r="B47" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="124" t="str">
         <f>REPT(F3,1)</f>
-        <v/>
-      </c>
-      <c r="H47" s="98"/>
+        <v>130319 -               USA 09/06</v>
+      </c>
+      <c r="H47" s="124"/>
       <c r="I47" s="26"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="107" t="str">
+      <c r="K47" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="114" t="str">
         <f>REPT(O3,1)</f>
-        <v/>
-      </c>
-      <c r="Q47" s="108"/>
+        <v>130319 -               USA 09/06</v>
+      </c>
+      <c r="Q47" s="115"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="93"/>
+      <c r="B48" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="106"/>
       <c r="F48" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="L48" s="91"/>
-      <c r="M48" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="93"/>
+      <c r="K48" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="104"/>
+      <c r="M48" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="106"/>
       <c r="O48" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -2407,28 +2865,28 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="91"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="91"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="104"/>
       <c r="O49" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="1"/>
@@ -2437,467 +2895,495 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="82"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="116"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="80"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="83"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="117"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="81"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="93"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="82"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="116"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="80"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="117"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="81"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="93"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="82"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="116"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="80"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="83"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="117"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="81"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="93"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="82"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="116"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="80"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="83"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="117"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="81"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="107"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="93"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="B58" s="99"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="116"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="80"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="83"/>
+        <v>28</v>
+      </c>
+      <c r="B59" s="101"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="117"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="81"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="93"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="82"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="116"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="80"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="83"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="117"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="81"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="97"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="93"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="82"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="116"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="76"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="80"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="98"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="83"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="117"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="81"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="93"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="82"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="116"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="80"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="92"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="83"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="117"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="81"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="93"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="116"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="80"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="92"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="83"/>
+        <v>28</v>
+      </c>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="117"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="81"/>
+      <c r="K67" s="101"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="97"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="93"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="82"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="116"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="80"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="92"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="83"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="117"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="81"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="97"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="93"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
       <c r="G70" s="49"/>
       <c r="H70" s="51"/>
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="101"/>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
-      <c r="N70" s="101"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="118"/>
+      <c r="M70" s="118"/>
+      <c r="N70" s="118"/>
       <c r="O70" s="48"/>
       <c r="P70" s="49"/>
       <c r="Q70" s="41"/>
@@ -2931,31 +3417,31 @@
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="103"/>
+        <v>15</v>
+      </c>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="108"/>
       <c r="H72" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="3"/>
       <c r="L72" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="P72" s="103"/>
+        <v>15</v>
+      </c>
+      <c r="M72" s="121"/>
+      <c r="N72" s="121"/>
+      <c r="O72" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" s="108"/>
       <c r="Q72" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -2970,7 +3456,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I73" s="46"/>
       <c r="J73" s="46"/>
@@ -2981,7 +3467,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -2991,13 +3477,13 @@
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="94">
+        <v>16</v>
+      </c>
+      <c r="D74" s="119">
         <f ca="1">TODAY()</f>
         <v>43516</v>
       </c>
-      <c r="E74" s="95"/>
+      <c r="E74" s="120"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="11"/>
@@ -3005,13 +3491,13 @@
       <c r="J74" s="46"/>
       <c r="K74" s="3"/>
       <c r="L74" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="M74" s="94">
+        <v>16</v>
+      </c>
+      <c r="M74" s="119">
         <f ca="1">TODAY()</f>
         <v>43516</v>
       </c>
-      <c r="N74" s="95"/>
+      <c r="N74" s="120"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="11"/>
@@ -3295,7 +3781,7 @@
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="99"/>
+      <c r="I101" s="122"/>
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="R101" s="1"/>
@@ -3305,7 +3791,7 @@
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="99"/>
+      <c r="I102" s="122"/>
       <c r="J102" s="46"/>
       <c r="K102" s="47"/>
       <c r="R102" s="1"/>
@@ -3834,35 +4320,201 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="K10:L10"/>
@@ -3887,201 +4539,35 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4089,7 +4575,7 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="43" max="17" man="1"/>
     <brk id="105" max="17" man="1"/>
     <brk id="122" max="17" man="1"/>
     <brk id="166" max="17" man="1"/>
@@ -4097,11 +4583,12 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="93" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4115,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamiski\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\denekra\youdo\2019-01-26_visa_django\visa_app\static\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363294F1-F4DE-48D2-ABAD-109910D0F3B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -34,9 +33,6 @@
   </si>
   <si>
     <t>Кратность визы</t>
-  </si>
-  <si>
-    <t>ОДНОКРАТНАЯ</t>
   </si>
   <si>
     <t>Гражданство</t>
@@ -64,9 +60,6 @@
   </si>
   <si>
     <t>Дополнительные сведения:</t>
-  </si>
-  <si>
-    <t>Вышеуказанному туристу</t>
   </si>
   <si>
     <t>М.П.</t>
@@ -138,46 +131,13 @@
     <t>вого отдела)</t>
   </si>
   <si>
-    <t>предоставляется  размещение и питание  на борту теплохода</t>
-  </si>
-  <si>
     <t>Цель поездки</t>
-  </si>
-  <si>
-    <t>ТУРИЗМ</t>
   </si>
   <si>
     <t>016290</t>
   </si>
   <si>
-    <t>Туристическая компания "МИР", 190000, Россия,</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург, улица Большая Морская 31</t>
-  </si>
-  <si>
     <t>Москва,Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Москва, Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </t>
-  </si>
-  <si>
-    <t>визовое приглашение № 0302</t>
-  </si>
-  <si>
-    <t>130319 -               USA 09/06</t>
-  </si>
-  <si>
-    <t>09/06/2019</t>
-  </si>
-  <si>
-    <t>21/06/2019</t>
   </si>
   <si>
     <t>Реестровый №</t>
@@ -186,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -625,59 +585,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,31 +621,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -720,59 +635,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,427 +750,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1104" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1752600" y="16230600"/>
-          <a:ext cx="2076450" cy="1695450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1105" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9372600" y="16230600"/>
-          <a:ext cx="2085975" cy="1695450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1106" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9420225" y="8610600"/>
-          <a:ext cx="2085975" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1107" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1962150" y="8591550"/>
-          <a:ext cx="2076450" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1108" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="76200" y="15497175"/>
-          <a:ext cx="2390775" cy="2600325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1109" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7134225" y="15497175"/>
-          <a:ext cx="2409825" cy="2600325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1110" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8172450"/>
-          <a:ext cx="2390775" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1111" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6991350" y="8191500"/>
-          <a:ext cx="2400300" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1289,23 +828,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1341,23 +863,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1533,11 +1038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:H35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1578,13 +1083,13 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="115"/>
       <c r="S1" s="7"/>
       <c r="T1" s="8"/>
     </row>
@@ -1613,30 +1118,28 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="84" t="str">
+      <c r="L3" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="118" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 09/06</v>
-      </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+        <v/>
+      </c>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
       <c r="R3" s="12" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1647,25 +1150,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="C4" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="82" t="str">
+      <c r="L4" s="116" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="11"/>
@@ -1695,24 +1198,22 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
       <c r="J6" s="65"/>
-      <c r="K6" s="86" t="str">
+      <c r="K6" s="120" t="str">
         <f>REPT(B6,1)</f>
-        <v>визовое приглашение № 0302</v>
-      </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+        <v/>
+      </c>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="63"/>
@@ -1743,29 +1244,27 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="74" t="str">
+      <c r="L8" s="90"/>
+      <c r="M8" s="109" t="str">
         <f>REPT(D8,1)</f>
-        <v>ОДНОКРАТНАЯ</v>
-      </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+        <v/>
+      </c>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
@@ -1796,29 +1295,27 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="B10" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="74" t="str">
+      <c r="K10" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="90"/>
+      <c r="M10" s="109" t="str">
         <f>REPT(D10,1)</f>
-        <v>США</v>
-      </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
+        <v/>
+      </c>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
@@ -1850,38 +1347,34 @@
     <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="91"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
       <c r="H12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="123" t="str">
+        <f>REPT(C12,1)</f>
+        <v/>
+      </c>
+      <c r="M12" s="123"/>
+      <c r="N12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="75" t="str">
-        <f>REPT(C12,1)</f>
-        <v>09/06/2019</v>
-      </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="74" t="str">
+      <c r="O12" s="109" t="str">
         <f>REPT(F12,1)</f>
-        <v>21/06/2019</v>
-      </c>
-      <c r="P12" s="74"/>
+        <v/>
+      </c>
+      <c r="P12" s="109"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1911,41 +1404,41 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="72" t="s">
+      <c r="B14" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="115"/>
+      <c r="F14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="72" t="s">
+      <c r="K14" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="115"/>
+      <c r="M14" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="115"/>
+      <c r="O14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="73"/>
-      <c r="O14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="18" t="s">
+      <c r="Q14" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -1953,28 +1446,28 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="71"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="11"/>
@@ -1983,19 +1476,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -2005,67 +1498,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="B17" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
+      <c r="K17" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -2097,25 +1590,24 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="59" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="13"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="59" t="s">
-        <v>39</v>
+      <c r="K21" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="111"/>
+      <c r="M21" s="59" t="str">
+        <f>REPT(D21,1)</f>
+        <v/>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="10"/>
@@ -2149,31 +1641,31 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
+      <c r="B23" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="87" t="str">
+      <c r="K23" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="88" t="str">
         <f>REPT(F23,1)</f>
         <v>Москва,Санкт-Петербург</v>
       </c>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="8"/>
@@ -2202,56 +1694,54 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="B25" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="90"/>
-      <c r="M25" s="88" t="str">
+      <c r="K25" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="112"/>
+      <c r="M25" s="89" t="str">
         <f>REPT(D25,1)</f>
-        <v>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</v>
-      </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+        <v/>
+      </c>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
+      <c r="B26" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
+      <c r="K26" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2259,26 +1749,24 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="87" t="str">
+      <c r="K27" s="88" t="str">
         <f>REPT(B27,1)</f>
-        <v>Туристическая компания "МИР", 190000, Россия,</v>
-      </c>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
+        <v/>
+      </c>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -2286,26 +1774,24 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="87" t="str">
+      <c r="K28" s="88" t="str">
         <f>REPT(B28,1)</f>
-        <v>Санкт-Петербург, улица Большая Морская 31</v>
-      </c>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
+        <v/>
+      </c>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -2314,11 +1800,11 @@
     <row r="29" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="53" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="69" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -2327,11 +1813,11 @@
       <c r="I29" s="56"/>
       <c r="J29" s="57"/>
       <c r="K29" s="53" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L29" s="54"/>
       <c r="M29" s="69" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
@@ -2365,166 +1851,158 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
+      <c r="B31" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="125" t="str">
+      <c r="K31" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="91" t="str">
         <f>REPT(E31,1)</f>
-        <v>Вышеуказанному туристу</v>
-      </c>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
+        <v/>
+      </c>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="87" t="str">
+      <c r="K32" s="88" t="str">
         <f>REPT(B32,1)</f>
-        <v>предоставляется  размещение и питание  на борту теплохода</v>
-      </c>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
+        <v/>
+      </c>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="8"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="87" t="str">
+      <c r="K33" s="88" t="str">
         <f>REPT(B33,1)</f>
-        <v xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </v>
-      </c>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
+        <v/>
+      </c>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="8"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="87" t="str">
+      <c r="K34" s="88" t="str">
         <f>REPT(B34,1)</f>
-        <v>Москва, Санкт-Петербург</v>
-      </c>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
+        <v/>
+      </c>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
+      <c r="B35" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
       <c r="I35" s="11"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="87" t="str">
+      <c r="K35" s="88" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
+      <c r="B36" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
       <c r="I36" s="11"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="87" t="str">
+      <c r="K36" s="88" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="8"/>
@@ -2554,7 +2032,7 @@
     <row r="38" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2565,7 +2043,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="9"/>
       <c r="K38" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2581,32 +2059,32 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="76"/>
+        <v>13</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="90"/>
       <c r="H39" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
       <c r="L39" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127" t="str">
+        <v>13</v>
+      </c>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="93" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="127"/>
+      <c r="P39" s="93"/>
       <c r="Q39" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -2621,7 +2099,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="9"/>
@@ -2632,7 +2110,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -2642,13 +2120,13 @@
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="119">
+        <v>14</v>
+      </c>
+      <c r="D41" s="94">
         <f ca="1">TODAY()</f>
-        <v>43516</v>
-      </c>
-      <c r="E41" s="120"/>
+        <v>43517</v>
+      </c>
+      <c r="E41" s="95"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2656,13 +2134,13 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
       <c r="L41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="119">
+        <v>14</v>
+      </c>
+      <c r="M41" s="94">
         <f ca="1">TODAY()</f>
-        <v>43516</v>
-      </c>
-      <c r="N41" s="120"/>
+        <v>43517</v>
+      </c>
+      <c r="N41" s="95"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -2757,10 +2235,10 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" s="110"/>
+      <c r="P45" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="105"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2781,83 +2259,83 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="111"/>
+      <c r="P46" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="106"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="124" t="str">
+      <c r="B47" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 09/06</v>
-      </c>
-      <c r="H47" s="124"/>
+        <v/>
+      </c>
+      <c r="H47" s="98"/>
       <c r="I47" s="26"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="114" t="str">
+      <c r="K47" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="107" t="str">
         <f>REPT(O3,1)</f>
-        <v>130319 -               USA 09/06</v>
-      </c>
-      <c r="Q47" s="115"/>
+        <v/>
+      </c>
+      <c r="Q47" s="108"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="105" t="s">
+      <c r="B48" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="85"/>
+      <c r="D48" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="87"/>
+      <c r="F48" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="35" t="s">
+      <c r="H48" s="35" t="s">
         <v>20</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>22</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="104"/>
-      <c r="M48" s="105" t="s">
+      <c r="K48" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="85"/>
+      <c r="M48" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="87"/>
+      <c r="O48" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="106"/>
-      <c r="O48" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P48" s="36" t="s">
+      <c r="Q48" s="36" t="s">
         <v>20</v>
-      </c>
-      <c r="Q48" s="36" t="s">
-        <v>22</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -2865,28 +2343,28 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="104"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="39" t="s">
         <v>19</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>21</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="104"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="85"/>
       <c r="O49" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="36" t="s">
         <v>19</v>
-      </c>
-      <c r="P49" s="36" t="s">
-        <v>21</v>
       </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="1"/>
@@ -2895,25 +2373,25 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="116"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="82"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="92" t="s">
-        <v>29</v>
+      <c r="K50" s="73"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -2921,47 +2399,47 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="117"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="83"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="93"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="81"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="116"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="82"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="92" t="s">
-        <v>29</v>
+      <c r="K52" s="73"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -2969,47 +2447,47 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="117"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="93"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="81"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="116"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="82"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="100"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="98"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="92" t="s">
-        <v>29</v>
+      <c r="K54" s="73"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -3017,47 +2495,47 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="117"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="83"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="93"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="81"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="116"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="82"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="92" t="s">
-        <v>29</v>
+      <c r="K56" s="73"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -3065,49 +2543,49 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="117"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="93"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="81"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="99"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="116"/>
+        <v>26</v>
+      </c>
+      <c r="B58" s="73"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="82"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="100"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="92" t="s">
-        <v>29</v>
+      <c r="K58" s="73"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -3115,49 +2593,49 @@
     </row>
     <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="101"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="117"/>
+        <v>26</v>
+      </c>
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="83"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="102"/>
-      <c r="M59" s="107"/>
-      <c r="N59" s="107"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="93"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="81"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="116"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="82"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="92" t="s">
-        <v>29</v>
+      <c r="K60" s="73"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -3165,47 +2643,47 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="117"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="83"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="95"/>
-      <c r="Q61" s="93"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="81"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="116"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="82"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="98"/>
-      <c r="N62" s="98"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="92" t="s">
-        <v>29</v>
+      <c r="K62" s="73"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -3213,177 +2691,177 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="117"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="97"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="93"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="81"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="116"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="82"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="100"/>
-      <c r="M64" s="98"/>
-      <c r="N64" s="98"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="94"/>
-      <c r="Q64" s="92"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="76"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="80"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="117"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="97"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="93"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="81"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="116"/>
+        <v>26</v>
+      </c>
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="82"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="100"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="92"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="76"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="80"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="117"/>
+        <v>26</v>
+      </c>
+      <c r="B67" s="70"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="107"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="97"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="93"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="81"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="116"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="82"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="99"/>
-      <c r="L68" s="100"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="98"/>
-      <c r="O68" s="96"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="92"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="76"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="80"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="117"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="83"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="101"/>
-      <c r="L69" s="102"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="107"/>
-      <c r="O69" s="97"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="93"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="72"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="81"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="49"/>
       <c r="H70" s="51"/>
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
+      <c r="K70" s="101"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="101"/>
+      <c r="N70" s="101"/>
       <c r="O70" s="48"/>
       <c r="P70" s="49"/>
       <c r="Q70" s="41"/>
@@ -3417,31 +2895,31 @@
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
-      <c r="F72" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="103"/>
       <c r="H72" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="3"/>
       <c r="L72" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="M72" s="121"/>
-      <c r="N72" s="121"/>
-      <c r="O72" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="P72" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="M72" s="102"/>
+      <c r="N72" s="102"/>
+      <c r="O72" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="103"/>
       <c r="Q72" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -3456,7 +2934,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I73" s="46"/>
       <c r="J73" s="46"/>
@@ -3467,7 +2945,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -3477,13 +2955,13 @@
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="119">
+        <v>14</v>
+      </c>
+      <c r="D74" s="94">
         <f ca="1">TODAY()</f>
-        <v>43516</v>
-      </c>
-      <c r="E74" s="120"/>
+        <v>43517</v>
+      </c>
+      <c r="E74" s="95"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="11"/>
@@ -3491,13 +2969,13 @@
       <c r="J74" s="46"/>
       <c r="K74" s="3"/>
       <c r="L74" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="119">
+        <v>14</v>
+      </c>
+      <c r="M74" s="94">
         <f ca="1">TODAY()</f>
-        <v>43516</v>
-      </c>
-      <c r="N74" s="120"/>
+        <v>43517</v>
+      </c>
+      <c r="N74" s="95"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="11"/>
@@ -3781,7 +3259,7 @@
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="122"/>
+      <c r="I101" s="99"/>
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="R101" s="1"/>
@@ -3791,7 +3269,7 @@
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="122"/>
+      <c r="I102" s="99"/>
       <c r="J102" s="46"/>
       <c r="K102" s="47"/>
       <c r="R102" s="1"/>
@@ -4320,66 +3798,168 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="I64:I65"/>
     <mergeCell ref="K64:L64"/>
@@ -4404,170 +3984,68 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
     <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4583,12 +4061,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="93" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4602,7 +4079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -585,93 +585,118 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -680,59 +705,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1083,13 +1083,13 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="117" t="s">
+      <c r="N1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="115"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="7"/>
       <c r="T1" s="8"/>
     </row>
@@ -1118,28 +1118,28 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="118" t="str">
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="84" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
       <c r="R3" s="12" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1150,25 +1150,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="116" t="str">
+      <c r="L4" s="82" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="11"/>
@@ -1198,22 +1198,22 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
       <c r="J6" s="65"/>
-      <c r="K6" s="120" t="str">
+      <c r="K6" s="86" t="str">
         <f>REPT(B6,1)</f>
         <v/>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="63"/>
@@ -1244,27 +1244,27 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="109" t="str">
+      <c r="L8" s="76"/>
+      <c r="M8" s="74" t="str">
         <f>REPT(D8,1)</f>
         <v/>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
@@ -1295,27 +1295,27 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="90"/>
-      <c r="M10" s="109" t="str">
+      <c r="L10" s="76"/>
+      <c r="M10" s="74" t="str">
         <f>REPT(D10,1)</f>
         <v/>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
@@ -1349,32 +1349,32 @@
       <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="123" t="str">
+      <c r="L12" s="75" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="123"/>
+      <c r="M12" s="75"/>
       <c r="N12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="109" t="str">
+      <c r="O12" s="74" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="109"/>
+      <c r="P12" s="74"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1404,14 +1404,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="114" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="115"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="18" t="s">
         <v>14</v>
       </c>
@@ -1423,14 +1423,14 @@
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="114" t="s">
+      <c r="K14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="114" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="115"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18" t="s">
         <v>14</v>
       </c>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="19" t="s">
         <v>17</v>
       </c>
@@ -1459,10 +1459,10 @@
       <c r="H15" s="19"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="19" t="s">
         <v>17</v>
       </c>
@@ -1476,19 +1476,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -1498,67 +1498,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="125" t="s">
+      <c r="K17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="59"/>
       <c r="E21" s="13"/>
       <c r="F21" s="10"/>
@@ -1601,10 +1601,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="111"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="59" t="str">
         <f>REPT(D21,1)</f>
         <v/>
@@ -1641,31 +1641,31 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="88" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="90" t="s">
+      <c r="K23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="88" t="str">
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="87" t="str">
         <f>REPT(F23,1)</f>
         <v>Москва,Санкт-Петербург</v>
       </c>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="8"/>
@@ -1694,54 +1694,54 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="112" t="s">
+      <c r="K25" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="89" t="str">
+      <c r="L25" s="90"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -1749,24 +1749,24 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="88" t="str">
+      <c r="K27" s="87" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -1774,24 +1774,24 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="88" t="str">
+      <c r="K28" s="87" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -1851,158 +1851,158 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="91" t="str">
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="125" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="88" t="str">
+      <c r="K32" s="87" t="str">
         <f>REPT(B32,1)</f>
         <v/>
       </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="8"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="88" t="str">
+      <c r="K33" s="87" t="str">
         <f>REPT(B33,1)</f>
         <v/>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="8"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="88" t="str">
+      <c r="K34" s="87" t="str">
         <f>REPT(B34,1)</f>
         <v/>
       </c>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
       <c r="I35" s="11"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="88" t="str">
+      <c r="K35" s="87" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="11"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="88" t="str">
+      <c r="K36" s="87" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="8"/>
@@ -2061,12 +2061,12 @@
       <c r="C39" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="90" t="s">
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="90"/>
+      <c r="G39" s="76"/>
       <c r="H39" s="10" t="s">
         <v>31</v>
       </c>
@@ -2076,13 +2076,13 @@
       <c r="L39" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="93" t="str">
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="127" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="93"/>
+      <c r="P39" s="127"/>
       <c r="Q39" s="10" t="s">
         <v>31</v>
       </c>
@@ -2122,11 +2122,11 @@
       <c r="C41" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="111">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="112"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2136,11 +2136,11 @@
       <c r="L41" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="111">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="N41" s="95"/>
+      <c r="N41" s="112"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -2235,10 +2235,10 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="104" t="s">
+      <c r="P45" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="105"/>
+      <c r="Q45" s="116"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2259,56 +2259,56 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="103" t="s">
+      <c r="P46" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="Q46" s="106"/>
+      <c r="Q46" s="117"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98" t="str">
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="124" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="98"/>
+      <c r="H47" s="124"/>
       <c r="I47" s="26"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="96" t="s">
+      <c r="K47" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="107" t="str">
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="120" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="108"/>
+      <c r="Q47" s="121"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="86" t="s">
+      <c r="C48" s="104"/>
+      <c r="D48" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="87"/>
+      <c r="E48" s="108"/>
       <c r="F48" s="34" t="s">
         <v>14</v>
       </c>
@@ -2320,14 +2320,14 @@
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="84" t="s">
+      <c r="K48" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="85"/>
-      <c r="M48" s="86" t="s">
+      <c r="L48" s="104"/>
+      <c r="M48" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="108"/>
       <c r="O48" s="34" t="s">
         <v>14</v>
       </c>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="85"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="36" t="s">
         <v>17</v>
       </c>
@@ -2356,10 +2356,10 @@
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="85"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="104"/>
       <c r="O49" s="36" t="s">
         <v>17</v>
       </c>
@@ -2373,24 +2373,24 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="80" t="s">
+      <c r="B50" s="101"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="82"/>
+      <c r="I50" s="99"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="80" t="s">
+      <c r="K50" s="101"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R50" s="1"/>
@@ -2399,46 +2399,46 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="83"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="100"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="81"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="97"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="80" t="s">
+      <c r="B52" s="101"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="82"/>
+      <c r="I52" s="99"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="80" t="s">
+      <c r="K52" s="101"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R52" s="1"/>
@@ -2447,46 +2447,46 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="100"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="81"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="109"/>
+      <c r="N53" s="109"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="97"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="80" t="s">
+      <c r="B54" s="101"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="82"/>
+      <c r="I54" s="99"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="80" t="s">
+      <c r="K54" s="101"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="92"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R54" s="1"/>
@@ -2495,46 +2495,46 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="83"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="100"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="81"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="97"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="80" t="s">
+      <c r="B56" s="101"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="82"/>
+      <c r="I56" s="99"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="80" t="s">
+      <c r="K56" s="101"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R56" s="1"/>
@@ -2543,22 +2543,22 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="83"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="100"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="81"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="109"/>
+      <c r="N57" s="109"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="97"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -2567,24 +2567,24 @@
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="80" t="s">
+      <c r="B58" s="101"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="82"/>
+      <c r="I58" s="99"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="80" t="s">
+      <c r="K58" s="101"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R58" s="1"/>
@@ -2595,46 +2595,46 @@
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="83"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="100"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="81"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="97"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="80" t="s">
+      <c r="B60" s="101"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I60" s="82"/>
+      <c r="I60" s="99"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="80" t="s">
+      <c r="K60" s="101"/>
+      <c r="L60" s="102"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R60" s="1"/>
@@ -2643,46 +2643,46 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="83"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="100"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="81"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="109"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="97"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="80" t="s">
+      <c r="B62" s="101"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I62" s="82"/>
+      <c r="I62" s="99"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="76"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="80" t="s">
+      <c r="K62" s="101"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="98"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="96" t="s">
         <v>27</v>
       </c>
       <c r="R62" s="1"/>
@@ -2691,66 +2691,66 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="83"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="100"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="81"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="109"/>
+      <c r="N63" s="109"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="97"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="82"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="99"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="80"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="96"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="83"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="100"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="81"/>
+      <c r="K65" s="105"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="97"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -2759,22 +2759,22 @@
       <c r="A66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="82"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="99"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="80"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="96"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -2783,85 +2783,85 @@
       <c r="A67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="83"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="100"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="81"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="109"/>
+      <c r="N67" s="109"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="97"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="82"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="99"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="80"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="92"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="96"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="83"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="100"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="81"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="109"/>
+      <c r="N69" s="109"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="97"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
       <c r="G70" s="49"/>
       <c r="H70" s="51"/>
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="101"/>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
-      <c r="N70" s="101"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="110"/>
+      <c r="M70" s="110"/>
+      <c r="N70" s="110"/>
       <c r="O70" s="48"/>
       <c r="P70" s="49"/>
       <c r="Q70" s="41"/>
@@ -2897,12 +2897,12 @@
       <c r="C72" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="103" t="s">
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="103"/>
+      <c r="G72" s="114"/>
       <c r="H72" s="4" t="s">
         <v>33</v>
       </c>
@@ -2912,12 +2912,12 @@
       <c r="L72" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="103" t="s">
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="103"/>
+      <c r="P72" s="114"/>
       <c r="Q72" s="4" t="s">
         <v>33</v>
       </c>
@@ -2957,11 +2957,11 @@
       <c r="C74" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="94">
+      <c r="D74" s="111">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="E74" s="95"/>
+      <c r="E74" s="112"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="11"/>
@@ -2971,11 +2971,11 @@
       <c r="L74" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M74" s="94">
+      <c r="M74" s="111">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="N74" s="95"/>
+      <c r="N74" s="112"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="11"/>
@@ -3259,7 +3259,7 @@
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="99"/>
+      <c r="I101" s="122"/>
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="R101" s="1"/>
@@ -3269,7 +3269,7 @@
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="99"/>
+      <c r="I102" s="122"/>
       <c r="J102" s="46"/>
       <c r="K102" s="47"/>
       <c r="R102" s="1"/>
@@ -3798,35 +3798,201 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M53:N53"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="K10:L10"/>
@@ -3851,201 +4017,35 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="33" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
@@ -3356,5 +3356,9 @@
     <mergeCell ref="L4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="43" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$75</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -571,84 +574,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -658,71 +649,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="33" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="82" zoomScaleNormal="35" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,13 +1075,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1105,25 +1108,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1133,25 +1136,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="74" t="str">
+      <c r="L4" s="125" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1179,10 +1182,10 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1190,11 +1193,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="69" t="str">
+      <c r="K6" s="123" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1226,27 +1229,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71">
+      <c r="L8" s="105"/>
+      <c r="M8" s="120">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1275,27 +1278,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71">
+      <c r="L10" s="105"/>
+      <c r="M10" s="120">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1327,32 +1330,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="120" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="71" t="str">
+      <c r="O12" s="120" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="71"/>
+      <c r="P12" s="120"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1380,14 +1383,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="117"/>
+      <c r="D14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1399,14 +1402,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="76" t="s">
+      <c r="L14" s="117"/>
+      <c r="M14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1421,10 +1424,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1434,10 +1437,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1450,25 +1453,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="83">
+      <c r="K16" s="113">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83">
+      <c r="L16" s="114"/>
+      <c r="M16" s="113">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="84"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1477,71 +1480,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="80">
+      <c r="K19" s="110">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80">
+      <c r="L19" s="110"/>
+      <c r="M19" s="110">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="80"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1571,10 +1574,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1582,10 +1585,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1620,29 +1623,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="86">
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="103">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1669,101 +1672,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88" t="str">
+      <c r="L25" s="108"/>
+      <c r="M25" s="109" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="86" t="str">
+      <c r="K27" s="103" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="86" t="str">
+      <c r="K28" s="103" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1816,153 +1819,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="89">
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="107">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="86">
+      <c r="K32" s="103">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="86">
+      <c r="K33" s="103">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="86">
+      <c r="K34" s="103">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="86" t="str">
+      <c r="K35" s="103" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="86" t="str">
+      <c r="K36" s="103" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2018,12 +2021,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="70" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2033,13 +2036,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100" t="str">
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="106" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="100"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2077,11 +2080,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2091,11 +2094,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="105">
+      <c r="M41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="106"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2187,10 +2190,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="90" t="s">
+      <c r="P45" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="91"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2210,54 +2213,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="92" t="s">
+      <c r="P46" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="93"/>
+      <c r="Q46" s="97"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96" t="str">
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="94" t="s">
+      <c r="K47" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="97" t="str">
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="101" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="98"/>
+      <c r="Q47" s="102"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="104"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2269,14 +2272,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="101" t="s">
+      <c r="K48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="103" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2291,10 +2294,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2304,10 +2307,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="102"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="92"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2320,34 +2323,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="120"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="107" t="str">
+      <c r="K50" s="75" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="107" t="str">
+      <c r="L50" s="89"/>
+      <c r="M50" s="75" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="109"/>
-      <c r="O50" s="110" t="str">
+      <c r="N50" s="76"/>
+      <c r="O50" s="77" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="110" t="str">
+      <c r="P50" s="77" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="112" t="str">
+      <c r="Q50" s="79" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2356,61 +2359,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="121"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="116" t="str">
+      <c r="K51" s="87" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="117"/>
-      <c r="M51" s="114" t="str">
+      <c r="L51" s="90"/>
+      <c r="M51" s="81" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="115"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="113"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="120"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="107" t="str">
+      <c r="K52" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="109"/>
-      <c r="M52" s="107" t="str">
+      <c r="L52" s="76"/>
+      <c r="M52" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="109"/>
-      <c r="O52" s="110" t="str">
+      <c r="N52" s="76"/>
+      <c r="O52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="110" t="str">
+      <c r="P52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="112" t="str">
+      <c r="Q52" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2419,61 +2422,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="121"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="114" t="str">
+      <c r="K53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="115"/>
-      <c r="M53" s="114" t="str">
+      <c r="L53" s="82"/>
+      <c r="M53" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="115"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="113"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="120"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="107" t="str">
+      <c r="K54" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="109"/>
-      <c r="M54" s="107" t="str">
+      <c r="L54" s="76"/>
+      <c r="M54" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="109"/>
-      <c r="O54" s="110" t="str">
+      <c r="N54" s="76"/>
+      <c r="O54" s="77" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="110" t="str">
+      <c r="P54" s="77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="112" t="str">
+      <c r="Q54" s="79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2482,61 +2485,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="121"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="86"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="114" t="str">
+      <c r="K55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116" t="str">
+      <c r="L55" s="82"/>
+      <c r="M55" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="122"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="113"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="120"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="85"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="107" t="str">
+      <c r="K56" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="107" t="str">
+      <c r="L56" s="89"/>
+      <c r="M56" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="109"/>
-      <c r="O56" s="110" t="str">
+      <c r="N56" s="76"/>
+      <c r="O56" s="77" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="110" t="str">
+      <c r="P56" s="77" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="112" t="str">
+      <c r="Q56" s="79" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2545,28 +2548,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="121"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="116" t="str">
+      <c r="K57" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="117"/>
-      <c r="M57" s="114" t="str">
+      <c r="L57" s="90"/>
+      <c r="M57" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="115"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="113"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2574,34 +2577,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="120"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="107" t="str">
+      <c r="K58" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="109"/>
-      <c r="M58" s="107" t="str">
+      <c r="L58" s="76"/>
+      <c r="M58" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="109"/>
-      <c r="O58" s="110" t="str">
+      <c r="N58" s="76"/>
+      <c r="O58" s="77" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="110" t="str">
+      <c r="P58" s="77" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="112" t="str">
+      <c r="Q58" s="79" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2612,61 +2615,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="121"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="86"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="114" t="str">
+      <c r="K59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="115"/>
-      <c r="M59" s="114" t="str">
+      <c r="L59" s="82"/>
+      <c r="M59" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="115"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="113"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="120"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="85"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="107" t="str">
+      <c r="K60" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="109"/>
-      <c r="M60" s="107" t="str">
+      <c r="L60" s="76"/>
+      <c r="M60" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="109"/>
-      <c r="O60" s="110" t="str">
+      <c r="N60" s="76"/>
+      <c r="O60" s="77" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="110" t="str">
+      <c r="P60" s="77" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="112" t="str">
+      <c r="Q60" s="79" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2675,61 +2678,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="114" t="str">
+      <c r="K61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="115"/>
-      <c r="M61" s="114" t="str">
+      <c r="L61" s="82"/>
+      <c r="M61" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="115"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="113"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="120"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="107" t="str">
+      <c r="K62" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="109"/>
-      <c r="M62" s="107" t="str">
+      <c r="L62" s="76"/>
+      <c r="M62" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="109"/>
-      <c r="O62" s="110" t="str">
+      <c r="N62" s="76"/>
+      <c r="O62" s="77" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="110" t="str">
+      <c r="P62" s="77" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="112" t="str">
+      <c r="Q62" s="79" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2738,61 +2741,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="121"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="116" t="str">
+      <c r="K63" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="122"/>
-      <c r="M63" s="116" t="str">
+      <c r="L63" s="88"/>
+      <c r="M63" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="122"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="113"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="120"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="107" t="str">
+      <c r="K64" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="109"/>
-      <c r="M64" s="107" t="str">
+      <c r="L64" s="76"/>
+      <c r="M64" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="109"/>
-      <c r="O64" s="110" t="str">
+      <c r="N64" s="76"/>
+      <c r="O64" s="77" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="110" t="str">
+      <c r="P64" s="77" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="112" t="str">
+      <c r="Q64" s="79" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2801,28 +2804,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="121"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="114" t="str">
+      <c r="K65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="115"/>
-      <c r="M65" s="114" t="str">
+      <c r="L65" s="82"/>
+      <c r="M65" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="115"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="113"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2830,34 +2833,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="120"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="85"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="107" t="str">
+      <c r="K66" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="109"/>
-      <c r="M66" s="107" t="str">
+      <c r="L66" s="76"/>
+      <c r="M66" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="109"/>
-      <c r="O66" s="110" t="str">
+      <c r="N66" s="76"/>
+      <c r="O66" s="77" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="110" t="str">
+      <c r="P66" s="77" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="112" t="str">
+      <c r="Q66" s="79" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2868,61 +2871,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="121"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="114" t="str">
+      <c r="K67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="115"/>
-      <c r="M67" s="114" t="str">
+      <c r="L67" s="82"/>
+      <c r="M67" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="113"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="120"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="107" t="str">
+      <c r="K68" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="109"/>
-      <c r="M68" s="107" t="str">
+      <c r="L68" s="76"/>
+      <c r="M68" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="109"/>
-      <c r="O68" s="110" t="str">
+      <c r="N68" s="76"/>
+      <c r="O68" s="77" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="110" t="str">
+      <c r="P68" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="112" t="str">
+      <c r="Q68" s="79" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2931,43 +2934,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="121"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="114" t="str">
+      <c r="K69" s="81"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="113"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
-      <c r="N70" s="125"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3001,12 +3004,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="92" t="s">
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="92"/>
+      <c r="G72" s="74"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3016,12 +3019,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="92" t="s">
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="92"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3059,11 +3062,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="106"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3073,11 +3076,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="105">
+      <c r="M74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="106"/>
+      <c r="N74" s="69"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3107,224 +3110,19 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3341,24 +3139,226 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -574,72 +574,84 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,83 +661,71 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,29 +1033,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="82" zoomScaleNormal="35" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="26" zoomScaleNormal="35" zoomScaleSheetLayoutView="26" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
     <col min="18" max="18" width="0.7109375" customWidth="1"/>
     <col min="19" max="19" width="0.5703125" customWidth="1"/>
     <col min="20" max="20" width="0.42578125" customWidth="1"/>
@@ -1075,13 +1074,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="124" t="s">
+      <c r="N1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="117"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1108,25 +1107,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1136,25 +1135,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="125" t="str">
+      <c r="L4" s="74" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1182,10 +1181,10 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1193,11 +1192,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="123" t="str">
+      <c r="K6" s="69" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="123"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1229,27 +1228,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="120">
+      <c r="L8" s="70"/>
+      <c r="M8" s="71">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1278,27 +1277,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="120">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1330,32 +1329,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="120" t="str">
+      <c r="L12" s="71" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="120"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="120" t="str">
+      <c r="O12" s="71" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="120"/>
+      <c r="P12" s="71"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1383,14 +1382,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="116" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1402,14 +1401,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="116" t="s">
+      <c r="K14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1424,10 +1423,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1437,10 +1436,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1453,25 +1452,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="113">
+      <c r="K16" s="83">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="113">
+      <c r="L16" s="84"/>
+      <c r="M16" s="83">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="114"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1480,71 +1479,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="115" t="s">
+      <c r="K17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="110">
+      <c r="K19" s="80">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110">
+      <c r="L19" s="80"/>
+      <c r="M19" s="80">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="80"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1574,10 +1573,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1585,10 +1584,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="111"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1623,29 +1622,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="105" t="s">
+      <c r="K23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="103">
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="86">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1672,101 +1671,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109" t="str">
+      <c r="L25" s="87"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="105" t="s">
+      <c r="K26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="103" t="str">
+      <c r="K27" s="86" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="86" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1819,153 +1818,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="107">
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="89">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="103">
+      <c r="K32" s="86">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="103">
+      <c r="K33" s="86">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="103">
+      <c r="K34" s="86">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="103" t="str">
+      <c r="K35" s="86" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="103" t="str">
+      <c r="K36" s="86" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2021,12 +2020,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105" t="s">
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="70"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2036,13 +2035,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="106" t="str">
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="100" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="106"/>
+      <c r="P39" s="100"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2080,11 +2079,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2094,11 +2093,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="69"/>
+      <c r="N41" s="106"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2190,10 +2189,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="95" t="s">
+      <c r="P45" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="96"/>
+      <c r="Q45" s="91"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2213,54 +2212,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="74" t="s">
+      <c r="P46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="97"/>
+      <c r="Q46" s="93"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100" t="str">
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="100"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="98" t="s">
+      <c r="K47" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="101" t="str">
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="97" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="102"/>
+      <c r="Q47" s="98"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2272,14 +2271,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="91" t="s">
+      <c r="K48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="92"/>
-      <c r="M48" s="93" t="s">
+      <c r="L48" s="102"/>
+      <c r="M48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="94"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2294,10 +2293,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2307,10 +2306,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="92"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2323,34 +2322,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="85"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="120"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="75" t="str">
+      <c r="K50" s="107" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="89"/>
-      <c r="M50" s="75" t="str">
+      <c r="L50" s="108"/>
+      <c r="M50" s="107" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="77" t="str">
+      <c r="N50" s="109"/>
+      <c r="O50" s="110" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="77" t="str">
+      <c r="P50" s="110" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="79" t="str">
+      <c r="Q50" s="112" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2359,61 +2358,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="86"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="121"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="87" t="str">
+      <c r="K51" s="116" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="90"/>
-      <c r="M51" s="81" t="str">
+      <c r="L51" s="117"/>
+      <c r="M51" s="114" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="82"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="80"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="113"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="85"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="120"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="75" t="str">
+      <c r="K52" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="76"/>
-      <c r="M52" s="75" t="str">
+      <c r="L52" s="109"/>
+      <c r="M52" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="76"/>
-      <c r="O52" s="77" t="str">
+      <c r="N52" s="109"/>
+      <c r="O52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="77" t="str">
+      <c r="P52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="79" t="str">
+      <c r="Q52" s="112" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2422,61 +2421,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="86"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="121"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="81" t="str">
+      <c r="K53" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="82"/>
-      <c r="M53" s="81" t="str">
+      <c r="L53" s="115"/>
+      <c r="M53" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="82"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="80"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="113"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="85"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="120"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="75" t="str">
+      <c r="K54" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="76"/>
-      <c r="M54" s="75" t="str">
+      <c r="L54" s="109"/>
+      <c r="M54" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="76"/>
-      <c r="O54" s="77" t="str">
+      <c r="N54" s="109"/>
+      <c r="O54" s="110" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="77" t="str">
+      <c r="P54" s="110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="79" t="str">
+      <c r="Q54" s="112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2485,61 +2484,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="86"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="121"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="81" t="str">
+      <c r="K55" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="82"/>
-      <c r="M55" s="87" t="str">
+      <c r="L55" s="115"/>
+      <c r="M55" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="88"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="80"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="113"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="85"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="120"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="75" t="str">
+      <c r="K56" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="89"/>
-      <c r="M56" s="75" t="str">
+      <c r="L56" s="108"/>
+      <c r="M56" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="77" t="str">
+      <c r="N56" s="109"/>
+      <c r="O56" s="110" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="77" t="str">
+      <c r="P56" s="110" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="79" t="str">
+      <c r="Q56" s="112" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2548,28 +2547,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="86"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="121"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="87" t="str">
+      <c r="K57" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="90"/>
-      <c r="M57" s="81" t="str">
+      <c r="L57" s="117"/>
+      <c r="M57" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="82"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="80"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="113"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2577,34 +2576,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="85"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="120"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="75" t="str">
+      <c r="K58" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="75" t="str">
+      <c r="L58" s="109"/>
+      <c r="M58" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="76"/>
-      <c r="O58" s="77" t="str">
+      <c r="N58" s="109"/>
+      <c r="O58" s="110" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="77" t="str">
+      <c r="P58" s="110" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="79" t="str">
+      <c r="Q58" s="112" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2615,61 +2614,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="86"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="121"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="81" t="str">
+      <c r="K59" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="81" t="str">
+      <c r="L59" s="115"/>
+      <c r="M59" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="82"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="80"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="113"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="85"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="120"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="75" t="str">
+      <c r="K60" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="76"/>
-      <c r="M60" s="75" t="str">
+      <c r="L60" s="109"/>
+      <c r="M60" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="76"/>
-      <c r="O60" s="77" t="str">
+      <c r="N60" s="109"/>
+      <c r="O60" s="110" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="77" t="str">
+      <c r="P60" s="110" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="79" t="str">
+      <c r="Q60" s="112" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2678,61 +2677,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="86"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="121"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="81" t="str">
+      <c r="K61" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="82"/>
-      <c r="M61" s="81" t="str">
+      <c r="L61" s="115"/>
+      <c r="M61" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="82"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="80"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="85"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="120"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="75" t="str">
+      <c r="K62" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="76"/>
-      <c r="M62" s="75" t="str">
+      <c r="L62" s="109"/>
+      <c r="M62" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="76"/>
-      <c r="O62" s="77" t="str">
+      <c r="N62" s="109"/>
+      <c r="O62" s="110" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="77" t="str">
+      <c r="P62" s="110" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="79" t="str">
+      <c r="Q62" s="112" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2741,61 +2740,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="86"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="121"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="87" t="str">
+      <c r="K63" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="87" t="str">
+      <c r="L63" s="122"/>
+      <c r="M63" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="88"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="80"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="85"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="120"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="75" t="str">
+      <c r="K64" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="76"/>
-      <c r="M64" s="75" t="str">
+      <c r="L64" s="109"/>
+      <c r="M64" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="76"/>
-      <c r="O64" s="77" t="str">
+      <c r="N64" s="109"/>
+      <c r="O64" s="110" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="77" t="str">
+      <c r="P64" s="110" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="79" t="str">
+      <c r="Q64" s="112" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2804,28 +2803,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="86"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="121"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="81" t="str">
+      <c r="K65" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="82"/>
-      <c r="M65" s="81" t="str">
+      <c r="L65" s="115"/>
+      <c r="M65" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="82"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="80"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2833,34 +2832,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="85"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="120"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="75" t="str">
+      <c r="K66" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="76"/>
-      <c r="M66" s="75" t="str">
+      <c r="L66" s="109"/>
+      <c r="M66" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="76"/>
-      <c r="O66" s="77" t="str">
+      <c r="N66" s="109"/>
+      <c r="O66" s="110" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="77" t="str">
+      <c r="P66" s="110" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="79" t="str">
+      <c r="Q66" s="112" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2871,61 +2870,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="86"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="121"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="81" t="str">
+      <c r="K67" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="82"/>
-      <c r="M67" s="81" t="str">
+      <c r="L67" s="115"/>
+      <c r="M67" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="82"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="80"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="85"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="120"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="75" t="str">
+      <c r="K68" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="76"/>
-      <c r="M68" s="75" t="str">
+      <c r="L68" s="109"/>
+      <c r="M68" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="76"/>
-      <c r="O68" s="77" t="str">
+      <c r="N68" s="109"/>
+      <c r="O68" s="110" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="77" t="str">
+      <c r="P68" s="110" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="79" t="str">
+      <c r="Q68" s="112" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2934,43 +2933,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="81"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="86"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="121"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="81" t="str">
+      <c r="K69" s="114"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="82"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="80"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="113"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="125"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3004,12 +3003,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="74" t="s">
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="74"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3019,12 +3018,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="74" t="s">
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="74"/>
+      <c r="P72" s="92"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3062,11 +3061,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="68">
+      <c r="D74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3076,11 +3075,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="69"/>
+      <c r="N74" s="106"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3110,19 +3109,224 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3139,226 +3343,24 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="18" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$75</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -574,84 +571,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -661,71 +646,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,28 +1030,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="26" zoomScaleNormal="35" zoomScaleSheetLayoutView="26" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="24" zoomScaleNormal="48" zoomScaleSheetLayoutView="24" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
     <col min="18" max="18" width="0.7109375" customWidth="1"/>
     <col min="19" max="19" width="0.5703125" customWidth="1"/>
     <col min="20" max="20" width="0.42578125" customWidth="1"/>
@@ -1074,13 +1072,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1107,25 +1105,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1135,25 +1133,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="74" t="str">
+      <c r="L4" s="125" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1181,10 +1179,10 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1192,11 +1190,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="69" t="str">
+      <c r="K6" s="123" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1228,27 +1226,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71">
+      <c r="L8" s="105"/>
+      <c r="M8" s="120">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1277,27 +1275,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71">
+      <c r="L10" s="105"/>
+      <c r="M10" s="120">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1329,32 +1327,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="120" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="71" t="str">
+      <c r="O12" s="120" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="71"/>
+      <c r="P12" s="120"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1382,14 +1380,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="117"/>
+      <c r="D14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1401,14 +1399,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="76" t="s">
+      <c r="L14" s="117"/>
+      <c r="M14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1423,10 +1421,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1436,10 +1434,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1452,25 +1450,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="83">
+      <c r="K16" s="113">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83">
+      <c r="L16" s="114"/>
+      <c r="M16" s="113">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="84"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1479,71 +1477,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="80">
+      <c r="K19" s="110">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80">
+      <c r="L19" s="110"/>
+      <c r="M19" s="110">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="80"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1573,10 +1571,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1584,10 +1582,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1622,29 +1620,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="86">
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="103">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1671,101 +1669,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88" t="str">
+      <c r="L25" s="108"/>
+      <c r="M25" s="109" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="86" t="str">
+      <c r="K27" s="103" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="86" t="str">
+      <c r="K28" s="103" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1818,153 +1816,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="89">
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="107">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="86">
+      <c r="K32" s="103">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="86">
+      <c r="K33" s="103">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="86">
+      <c r="K34" s="103">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="86" t="str">
+      <c r="K35" s="103" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="86" t="str">
+      <c r="K36" s="103" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2020,12 +2018,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="70" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2035,13 +2033,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100" t="str">
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="106" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="100"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2079,11 +2077,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2093,11 +2091,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="105">
+      <c r="M41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="106"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2189,10 +2187,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="90" t="s">
+      <c r="P45" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="91"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2212,54 +2210,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="92" t="s">
+      <c r="P46" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="93"/>
+      <c r="Q46" s="97"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96" t="str">
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="94" t="s">
+      <c r="K47" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="97" t="str">
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="101" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="98"/>
+      <c r="Q47" s="102"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="104"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2271,14 +2269,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="101" t="s">
+      <c r="K48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="103" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2293,10 +2291,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2306,10 +2304,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="102"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="92"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2322,34 +2320,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="120"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="107" t="str">
+      <c r="K50" s="75" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="107" t="str">
+      <c r="L50" s="89"/>
+      <c r="M50" s="75" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="109"/>
-      <c r="O50" s="110" t="str">
+      <c r="N50" s="76"/>
+      <c r="O50" s="77" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="110" t="str">
+      <c r="P50" s="77" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="112" t="str">
+      <c r="Q50" s="79" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2358,61 +2356,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="121"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="116" t="str">
+      <c r="K51" s="87" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="117"/>
-      <c r="M51" s="114" t="str">
+      <c r="L51" s="90"/>
+      <c r="M51" s="81" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="115"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="113"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="120"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="107" t="str">
+      <c r="K52" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="109"/>
-      <c r="M52" s="107" t="str">
+      <c r="L52" s="76"/>
+      <c r="M52" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="109"/>
-      <c r="O52" s="110" t="str">
+      <c r="N52" s="76"/>
+      <c r="O52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="110" t="str">
+      <c r="P52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="112" t="str">
+      <c r="Q52" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2421,61 +2419,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="121"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="114" t="str">
+      <c r="K53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="115"/>
-      <c r="M53" s="114" t="str">
+      <c r="L53" s="82"/>
+      <c r="M53" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="115"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="113"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="120"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="107" t="str">
+      <c r="K54" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="109"/>
-      <c r="M54" s="107" t="str">
+      <c r="L54" s="76"/>
+      <c r="M54" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="109"/>
-      <c r="O54" s="110" t="str">
+      <c r="N54" s="76"/>
+      <c r="O54" s="77" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="110" t="str">
+      <c r="P54" s="77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="112" t="str">
+      <c r="Q54" s="79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2484,61 +2482,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="121"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="86"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="114" t="str">
+      <c r="K55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116" t="str">
+      <c r="L55" s="82"/>
+      <c r="M55" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="122"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="113"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="120"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="85"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="107" t="str">
+      <c r="K56" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="107" t="str">
+      <c r="L56" s="89"/>
+      <c r="M56" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="109"/>
-      <c r="O56" s="110" t="str">
+      <c r="N56" s="76"/>
+      <c r="O56" s="77" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="110" t="str">
+      <c r="P56" s="77" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="112" t="str">
+      <c r="Q56" s="79" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2547,28 +2545,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="121"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="116" t="str">
+      <c r="K57" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="117"/>
-      <c r="M57" s="114" t="str">
+      <c r="L57" s="90"/>
+      <c r="M57" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="115"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="113"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2576,34 +2574,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="120"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="107" t="str">
+      <c r="K58" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="109"/>
-      <c r="M58" s="107" t="str">
+      <c r="L58" s="76"/>
+      <c r="M58" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="109"/>
-      <c r="O58" s="110" t="str">
+      <c r="N58" s="76"/>
+      <c r="O58" s="77" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="110" t="str">
+      <c r="P58" s="77" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="112" t="str">
+      <c r="Q58" s="79" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2614,61 +2612,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="121"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="86"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="114" t="str">
+      <c r="K59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="115"/>
-      <c r="M59" s="114" t="str">
+      <c r="L59" s="82"/>
+      <c r="M59" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="115"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="113"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="120"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="85"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="107" t="str">
+      <c r="K60" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="109"/>
-      <c r="M60" s="107" t="str">
+      <c r="L60" s="76"/>
+      <c r="M60" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="109"/>
-      <c r="O60" s="110" t="str">
+      <c r="N60" s="76"/>
+      <c r="O60" s="77" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="110" t="str">
+      <c r="P60" s="77" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="112" t="str">
+      <c r="Q60" s="79" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2677,61 +2675,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="114" t="str">
+      <c r="K61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="115"/>
-      <c r="M61" s="114" t="str">
+      <c r="L61" s="82"/>
+      <c r="M61" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="115"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="113"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="120"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="107" t="str">
+      <c r="K62" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="109"/>
-      <c r="M62" s="107" t="str">
+      <c r="L62" s="76"/>
+      <c r="M62" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="109"/>
-      <c r="O62" s="110" t="str">
+      <c r="N62" s="76"/>
+      <c r="O62" s="77" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="110" t="str">
+      <c r="P62" s="77" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="112" t="str">
+      <c r="Q62" s="79" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2740,61 +2738,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="121"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="116" t="str">
+      <c r="K63" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="122"/>
-      <c r="M63" s="116" t="str">
+      <c r="L63" s="88"/>
+      <c r="M63" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="122"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="113"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="120"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="107" t="str">
+      <c r="K64" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="109"/>
-      <c r="M64" s="107" t="str">
+      <c r="L64" s="76"/>
+      <c r="M64" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="109"/>
-      <c r="O64" s="110" t="str">
+      <c r="N64" s="76"/>
+      <c r="O64" s="77" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="110" t="str">
+      <c r="P64" s="77" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="112" t="str">
+      <c r="Q64" s="79" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2803,28 +2801,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="121"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="114" t="str">
+      <c r="K65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="115"/>
-      <c r="M65" s="114" t="str">
+      <c r="L65" s="82"/>
+      <c r="M65" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="115"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="113"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2832,34 +2830,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="120"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="85"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="107" t="str">
+      <c r="K66" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="109"/>
-      <c r="M66" s="107" t="str">
+      <c r="L66" s="76"/>
+      <c r="M66" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="109"/>
-      <c r="O66" s="110" t="str">
+      <c r="N66" s="76"/>
+      <c r="O66" s="77" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="110" t="str">
+      <c r="P66" s="77" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="112" t="str">
+      <c r="Q66" s="79" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2870,61 +2868,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="121"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="114" t="str">
+      <c r="K67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="115"/>
-      <c r="M67" s="114" t="str">
+      <c r="L67" s="82"/>
+      <c r="M67" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="113"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="120"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="107" t="str">
+      <c r="K68" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="109"/>
-      <c r="M68" s="107" t="str">
+      <c r="L68" s="76"/>
+      <c r="M68" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="109"/>
-      <c r="O68" s="110" t="str">
+      <c r="N68" s="76"/>
+      <c r="O68" s="77" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="110" t="str">
+      <c r="P68" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="112" t="str">
+      <c r="Q68" s="79" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2933,43 +2931,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="121"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="114" t="str">
+      <c r="K69" s="81"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="113"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
-      <c r="N70" s="125"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3003,12 +3001,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="92" t="s">
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="92"/>
+      <c r="G72" s="74"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3018,12 +3016,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="92" t="s">
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="92"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3061,11 +3059,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="106"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3075,11 +3073,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="105">
+      <c r="M74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="106"/>
+      <c r="N74" s="69"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3109,224 +3107,19 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3343,24 +3136,226 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="18" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$75</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -571,72 +574,84 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -646,83 +661,71 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,7 +1034,7 @@
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="24" zoomScaleNormal="48" zoomScaleSheetLayoutView="24" workbookViewId="0">
-      <selection activeCell="AC35" sqref="AC35"/>
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,13 +1075,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="124" t="s">
+      <c r="N1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="117"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1105,25 +1108,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1133,25 +1136,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="125" t="str">
+      <c r="L4" s="74" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1179,10 +1182,10 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1190,11 +1193,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="123" t="str">
+      <c r="K6" s="69" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="123"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1226,27 +1229,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="120">
+      <c r="L8" s="70"/>
+      <c r="M8" s="71">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1275,27 +1278,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="120">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1327,32 +1330,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="120" t="str">
+      <c r="L12" s="71" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="120"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="120" t="str">
+      <c r="O12" s="71" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="120"/>
+      <c r="P12" s="71"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1380,14 +1383,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="116" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1399,14 +1402,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="116" t="s">
+      <c r="K14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1421,10 +1424,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1434,10 +1437,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1450,25 +1453,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="113">
+      <c r="K16" s="83">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="113">
+      <c r="L16" s="84"/>
+      <c r="M16" s="83">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="114"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1477,71 +1480,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="115" t="s">
+      <c r="K17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="110">
+      <c r="K19" s="80">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110">
+      <c r="L19" s="80"/>
+      <c r="M19" s="80">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="80"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1571,10 +1574,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1582,10 +1585,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="111"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1620,29 +1623,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="105" t="s">
+      <c r="K23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="103">
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="86">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1669,101 +1672,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109" t="str">
+      <c r="L25" s="87"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="105" t="s">
+      <c r="K26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="103" t="str">
+      <c r="K27" s="86" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="86" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1816,153 +1819,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="107">
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="89">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="103">
+      <c r="K32" s="86">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="103">
+      <c r="K33" s="86">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="103">
+      <c r="K34" s="86">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="103" t="str">
+      <c r="K35" s="86" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="103" t="str">
+      <c r="K36" s="86" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2018,12 +2021,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105" t="s">
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="70"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2033,13 +2036,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="106" t="str">
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="100" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="106"/>
+      <c r="P39" s="100"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2077,11 +2080,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2091,11 +2094,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="69"/>
+      <c r="N41" s="106"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2187,10 +2190,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="95" t="s">
+      <c r="P45" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="96"/>
+      <c r="Q45" s="91"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2210,54 +2213,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="74" t="s">
+      <c r="P46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="97"/>
+      <c r="Q46" s="93"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100" t="str">
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="100"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="98" t="s">
+      <c r="K47" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="101" t="str">
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="97" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="102"/>
+      <c r="Q47" s="98"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2269,14 +2272,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="91" t="s">
+      <c r="K48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="92"/>
-      <c r="M48" s="93" t="s">
+      <c r="L48" s="102"/>
+      <c r="M48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="94"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2291,10 +2294,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2304,10 +2307,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="92"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2320,34 +2323,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="85"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="120"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="75" t="str">
+      <c r="K50" s="107" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="89"/>
-      <c r="M50" s="75" t="str">
+      <c r="L50" s="108"/>
+      <c r="M50" s="107" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="77" t="str">
+      <c r="N50" s="109"/>
+      <c r="O50" s="110" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="77" t="str">
+      <c r="P50" s="110" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="79" t="str">
+      <c r="Q50" s="112" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2356,61 +2359,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="86"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="121"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="87" t="str">
+      <c r="K51" s="116" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="90"/>
-      <c r="M51" s="81" t="str">
+      <c r="L51" s="117"/>
+      <c r="M51" s="114" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="82"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="80"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="113"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="85"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="120"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="75" t="str">
+      <c r="K52" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="76"/>
-      <c r="M52" s="75" t="str">
+      <c r="L52" s="109"/>
+      <c r="M52" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="76"/>
-      <c r="O52" s="77" t="str">
+      <c r="N52" s="109"/>
+      <c r="O52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="77" t="str">
+      <c r="P52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="79" t="str">
+      <c r="Q52" s="112" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2419,61 +2422,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="86"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="121"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="81" t="str">
+      <c r="K53" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="82"/>
-      <c r="M53" s="81" t="str">
+      <c r="L53" s="115"/>
+      <c r="M53" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="82"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="80"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="113"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="85"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="120"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="75" t="str">
+      <c r="K54" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="76"/>
-      <c r="M54" s="75" t="str">
+      <c r="L54" s="109"/>
+      <c r="M54" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="76"/>
-      <c r="O54" s="77" t="str">
+      <c r="N54" s="109"/>
+      <c r="O54" s="110" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="77" t="str">
+      <c r="P54" s="110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="79" t="str">
+      <c r="Q54" s="112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2482,61 +2485,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="86"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="121"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="81" t="str">
+      <c r="K55" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="82"/>
-      <c r="M55" s="87" t="str">
+      <c r="L55" s="115"/>
+      <c r="M55" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="88"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="80"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="113"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="85"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="120"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="75" t="str">
+      <c r="K56" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="89"/>
-      <c r="M56" s="75" t="str">
+      <c r="L56" s="108"/>
+      <c r="M56" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="77" t="str">
+      <c r="N56" s="109"/>
+      <c r="O56" s="110" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="77" t="str">
+      <c r="P56" s="110" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="79" t="str">
+      <c r="Q56" s="112" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2545,28 +2548,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="86"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="121"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="87" t="str">
+      <c r="K57" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="90"/>
-      <c r="M57" s="81" t="str">
+      <c r="L57" s="117"/>
+      <c r="M57" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="82"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="80"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="113"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2574,34 +2577,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="85"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="120"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="75" t="str">
+      <c r="K58" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="75" t="str">
+      <c r="L58" s="109"/>
+      <c r="M58" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="76"/>
-      <c r="O58" s="77" t="str">
+      <c r="N58" s="109"/>
+      <c r="O58" s="110" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="77" t="str">
+      <c r="P58" s="110" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="79" t="str">
+      <c r="Q58" s="112" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2612,61 +2615,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="86"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="121"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="81" t="str">
+      <c r="K59" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="81" t="str">
+      <c r="L59" s="115"/>
+      <c r="M59" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="82"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="80"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="113"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="85"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="120"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="75" t="str">
+      <c r="K60" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="76"/>
-      <c r="M60" s="75" t="str">
+      <c r="L60" s="109"/>
+      <c r="M60" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="76"/>
-      <c r="O60" s="77" t="str">
+      <c r="N60" s="109"/>
+      <c r="O60" s="110" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="77" t="str">
+      <c r="P60" s="110" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="79" t="str">
+      <c r="Q60" s="112" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2675,61 +2678,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="86"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="121"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="81" t="str">
+      <c r="K61" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="82"/>
-      <c r="M61" s="81" t="str">
+      <c r="L61" s="115"/>
+      <c r="M61" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="82"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="80"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="85"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="120"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="75" t="str">
+      <c r="K62" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="76"/>
-      <c r="M62" s="75" t="str">
+      <c r="L62" s="109"/>
+      <c r="M62" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="76"/>
-      <c r="O62" s="77" t="str">
+      <c r="N62" s="109"/>
+      <c r="O62" s="110" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="77" t="str">
+      <c r="P62" s="110" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="79" t="str">
+      <c r="Q62" s="112" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2738,61 +2741,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="86"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="121"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="87" t="str">
+      <c r="K63" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="87" t="str">
+      <c r="L63" s="122"/>
+      <c r="M63" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="88"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="80"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="85"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="120"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="75" t="str">
+      <c r="K64" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="76"/>
-      <c r="M64" s="75" t="str">
+      <c r="L64" s="109"/>
+      <c r="M64" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="76"/>
-      <c r="O64" s="77" t="str">
+      <c r="N64" s="109"/>
+      <c r="O64" s="110" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="77" t="str">
+      <c r="P64" s="110" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="79" t="str">
+      <c r="Q64" s="112" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2801,28 +2804,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="86"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="121"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="81" t="str">
+      <c r="K65" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="82"/>
-      <c r="M65" s="81" t="str">
+      <c r="L65" s="115"/>
+      <c r="M65" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="82"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="80"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2830,34 +2833,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="85"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="120"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="75" t="str">
+      <c r="K66" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="76"/>
-      <c r="M66" s="75" t="str">
+      <c r="L66" s="109"/>
+      <c r="M66" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="76"/>
-      <c r="O66" s="77" t="str">
+      <c r="N66" s="109"/>
+      <c r="O66" s="110" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="77" t="str">
+      <c r="P66" s="110" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="79" t="str">
+      <c r="Q66" s="112" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2868,61 +2871,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="86"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="121"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="81" t="str">
+      <c r="K67" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="82"/>
-      <c r="M67" s="81" t="str">
+      <c r="L67" s="115"/>
+      <c r="M67" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="82"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="80"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="85"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="120"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="75" t="str">
+      <c r="K68" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="76"/>
-      <c r="M68" s="75" t="str">
+      <c r="L68" s="109"/>
+      <c r="M68" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="76"/>
-      <c r="O68" s="77" t="str">
+      <c r="N68" s="109"/>
+      <c r="O68" s="110" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="77" t="str">
+      <c r="P68" s="110" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="79" t="str">
+      <c r="Q68" s="112" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2931,43 +2934,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="81"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="86"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="121"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="81" t="str">
+      <c r="K69" s="114"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="82"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="80"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="113"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="125"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3001,12 +3004,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="74" t="s">
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="74"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3016,12 +3019,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="74" t="s">
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="74"/>
+      <c r="P72" s="92"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3059,11 +3062,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="68">
+      <c r="D74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3073,11 +3076,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="69"/>
+      <c r="N74" s="106"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3107,19 +3110,224 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3136,226 +3344,21 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -574,84 +574,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -661,71 +649,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="24" zoomScaleNormal="48" zoomScaleSheetLayoutView="24" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="51" zoomScaleNormal="48" zoomScaleSheetLayoutView="51" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,20 +1045,21 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
     <col min="18" max="18" width="0.7109375" customWidth="1"/>
-    <col min="19" max="19" width="0.5703125" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" customWidth="1"/>
+    <col min="19" max="19" width="0.140625" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1075,13 +1076,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1108,25 +1109,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1136,30 +1137,30 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="74" t="str">
+      <c r="L4" s="125" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="11"/>
@@ -1180,12 +1181,12 @@
       <c r="R5" s="9"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1193,11 +1194,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="69" t="str">
+      <c r="K6" s="123" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1229,27 +1230,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71">
+      <c r="L8" s="105"/>
+      <c r="M8" s="120">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1278,27 +1279,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71">
+      <c r="L10" s="105"/>
+      <c r="M10" s="120">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1330,32 +1331,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="120" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="71" t="str">
+      <c r="O12" s="120" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="71"/>
+      <c r="P12" s="120"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1383,14 +1384,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="117"/>
+      <c r="D14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1402,14 +1403,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="76" t="s">
+      <c r="L14" s="117"/>
+      <c r="M14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1424,10 +1425,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1437,10 +1438,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1453,25 +1454,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="83">
+      <c r="K16" s="113">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83">
+      <c r="L16" s="114"/>
+      <c r="M16" s="113">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="84"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1480,71 +1481,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="80">
+      <c r="K19" s="110">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80">
+      <c r="L19" s="110"/>
+      <c r="M19" s="110">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="80"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1574,10 +1575,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1585,10 +1586,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1623,29 +1624,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="86">
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="103">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1672,101 +1673,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88" t="str">
+      <c r="L25" s="108"/>
+      <c r="M25" s="109" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="86" t="str">
+      <c r="K27" s="103" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="86" t="str">
+      <c r="K28" s="103" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1819,153 +1820,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="89">
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="107">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="86">
+      <c r="K32" s="103">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="86">
+      <c r="K33" s="103">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="86">
+      <c r="K34" s="103">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="86" t="str">
+      <c r="K35" s="103" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="86" t="str">
+      <c r="K36" s="103" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2021,12 +2022,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="70" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2036,13 +2037,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100" t="str">
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="106" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="100"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2080,11 +2081,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2094,11 +2095,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="105">
+      <c r="M41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="106"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2190,10 +2191,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="90" t="s">
+      <c r="P45" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="91"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2213,54 +2214,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="92" t="s">
+      <c r="P46" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="93"/>
+      <c r="Q46" s="97"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96" t="str">
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="94" t="s">
+      <c r="K47" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="97" t="str">
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="101" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="98"/>
+      <c r="Q47" s="102"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="104"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2272,14 +2273,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="101" t="s">
+      <c r="K48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="103" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2294,10 +2295,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2307,10 +2308,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="102"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="92"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2323,34 +2324,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="120"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="107" t="str">
+      <c r="K50" s="75" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="107" t="str">
+      <c r="L50" s="89"/>
+      <c r="M50" s="75" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="109"/>
-      <c r="O50" s="110" t="str">
+      <c r="N50" s="76"/>
+      <c r="O50" s="77" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="110" t="str">
+      <c r="P50" s="77" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="112" t="str">
+      <c r="Q50" s="79" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2359,61 +2360,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="121"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="116" t="str">
+      <c r="K51" s="87" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="117"/>
-      <c r="M51" s="114" t="str">
+      <c r="L51" s="90"/>
+      <c r="M51" s="81" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="115"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="113"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="120"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="107" t="str">
+      <c r="K52" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="109"/>
-      <c r="M52" s="107" t="str">
+      <c r="L52" s="76"/>
+      <c r="M52" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="109"/>
-      <c r="O52" s="110" t="str">
+      <c r="N52" s="76"/>
+      <c r="O52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="110" t="str">
+      <c r="P52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="112" t="str">
+      <c r="Q52" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2422,61 +2423,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="121"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="114" t="str">
+      <c r="K53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="115"/>
-      <c r="M53" s="114" t="str">
+      <c r="L53" s="82"/>
+      <c r="M53" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="115"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="113"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="120"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="107" t="str">
+      <c r="K54" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="109"/>
-      <c r="M54" s="107" t="str">
+      <c r="L54" s="76"/>
+      <c r="M54" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="109"/>
-      <c r="O54" s="110" t="str">
+      <c r="N54" s="76"/>
+      <c r="O54" s="77" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="110" t="str">
+      <c r="P54" s="77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="112" t="str">
+      <c r="Q54" s="79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2485,61 +2486,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="121"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="86"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="114" t="str">
+      <c r="K55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116" t="str">
+      <c r="L55" s="82"/>
+      <c r="M55" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="122"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="113"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="120"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="85"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="107" t="str">
+      <c r="K56" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="107" t="str">
+      <c r="L56" s="89"/>
+      <c r="M56" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="109"/>
-      <c r="O56" s="110" t="str">
+      <c r="N56" s="76"/>
+      <c r="O56" s="77" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="110" t="str">
+      <c r="P56" s="77" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="112" t="str">
+      <c r="Q56" s="79" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2548,28 +2549,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="121"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="116" t="str">
+      <c r="K57" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="117"/>
-      <c r="M57" s="114" t="str">
+      <c r="L57" s="90"/>
+      <c r="M57" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="115"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="113"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2577,34 +2578,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="120"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="107" t="str">
+      <c r="K58" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="109"/>
-      <c r="M58" s="107" t="str">
+      <c r="L58" s="76"/>
+      <c r="M58" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="109"/>
-      <c r="O58" s="110" t="str">
+      <c r="N58" s="76"/>
+      <c r="O58" s="77" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="110" t="str">
+      <c r="P58" s="77" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="112" t="str">
+      <c r="Q58" s="79" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2615,61 +2616,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="121"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="86"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="114" t="str">
+      <c r="K59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="115"/>
-      <c r="M59" s="114" t="str">
+      <c r="L59" s="82"/>
+      <c r="M59" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="115"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="113"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="120"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="85"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="107" t="str">
+      <c r="K60" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="109"/>
-      <c r="M60" s="107" t="str">
+      <c r="L60" s="76"/>
+      <c r="M60" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="109"/>
-      <c r="O60" s="110" t="str">
+      <c r="N60" s="76"/>
+      <c r="O60" s="77" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="110" t="str">
+      <c r="P60" s="77" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="112" t="str">
+      <c r="Q60" s="79" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2678,61 +2679,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="114" t="str">
+      <c r="K61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="115"/>
-      <c r="M61" s="114" t="str">
+      <c r="L61" s="82"/>
+      <c r="M61" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="115"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="113"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="120"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="107" t="str">
+      <c r="K62" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="109"/>
-      <c r="M62" s="107" t="str">
+      <c r="L62" s="76"/>
+      <c r="M62" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="109"/>
-      <c r="O62" s="110" t="str">
+      <c r="N62" s="76"/>
+      <c r="O62" s="77" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="110" t="str">
+      <c r="P62" s="77" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="112" t="str">
+      <c r="Q62" s="79" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2741,61 +2742,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="121"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="116" t="str">
+      <c r="K63" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="122"/>
-      <c r="M63" s="116" t="str">
+      <c r="L63" s="88"/>
+      <c r="M63" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="122"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="113"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="120"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="107" t="str">
+      <c r="K64" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="109"/>
-      <c r="M64" s="107" t="str">
+      <c r="L64" s="76"/>
+      <c r="M64" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="109"/>
-      <c r="O64" s="110" t="str">
+      <c r="N64" s="76"/>
+      <c r="O64" s="77" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="110" t="str">
+      <c r="P64" s="77" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="112" t="str">
+      <c r="Q64" s="79" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2804,28 +2805,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="121"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="114" t="str">
+      <c r="K65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="115"/>
-      <c r="M65" s="114" t="str">
+      <c r="L65" s="82"/>
+      <c r="M65" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="115"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="113"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2833,34 +2834,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="120"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="85"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="107" t="str">
+      <c r="K66" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="109"/>
-      <c r="M66" s="107" t="str">
+      <c r="L66" s="76"/>
+      <c r="M66" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="109"/>
-      <c r="O66" s="110" t="str">
+      <c r="N66" s="76"/>
+      <c r="O66" s="77" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="110" t="str">
+      <c r="P66" s="77" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="112" t="str">
+      <c r="Q66" s="79" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2871,61 +2872,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="121"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="114" t="str">
+      <c r="K67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="115"/>
-      <c r="M67" s="114" t="str">
+      <c r="L67" s="82"/>
+      <c r="M67" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="113"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="120"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="107" t="str">
+      <c r="K68" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="109"/>
-      <c r="M68" s="107" t="str">
+      <c r="L68" s="76"/>
+      <c r="M68" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="109"/>
-      <c r="O68" s="110" t="str">
+      <c r="N68" s="76"/>
+      <c r="O68" s="77" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="110" t="str">
+      <c r="P68" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="112" t="str">
+      <c r="Q68" s="79" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2934,43 +2935,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="121"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="114" t="str">
+      <c r="K69" s="81"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="113"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
-      <c r="N70" s="125"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3004,12 +3005,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="92" t="s">
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="92"/>
+      <c r="G72" s="74"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3019,12 +3020,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="92" t="s">
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="92"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3062,11 +3063,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="106"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3076,11 +3077,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="105">
+      <c r="M74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="106"/>
+      <c r="N74" s="69"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3110,224 +3111,19 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3344,21 +3140,226 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -574,72 +574,84 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,83 +661,71 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="51" zoomScaleNormal="48" zoomScaleSheetLayoutView="51" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="51" zoomScaleNormal="48" zoomScaleSheetLayoutView="51" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,13 +1076,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="124" t="s">
+      <c r="N1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="117"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
@@ -1109,25 +1109,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1137,25 +1137,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="125" t="str">
+      <c r="L4" s="74" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1194,11 +1194,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="123" t="str">
+      <c r="K6" s="69" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="123"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1230,27 +1230,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="120">
+      <c r="L8" s="70"/>
+      <c r="M8" s="71">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1279,27 +1279,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="120">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1331,32 +1331,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="120" t="str">
+      <c r="L12" s="71" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="120"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="120" t="str">
+      <c r="O12" s="71" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="120"/>
+      <c r="P12" s="71"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1384,14 +1384,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="116" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1403,14 +1403,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="116" t="s">
+      <c r="K14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1438,10 +1438,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1454,25 +1454,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="113">
+      <c r="K16" s="83">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="113">
+      <c r="L16" s="84"/>
+      <c r="M16" s="83">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="114"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1481,71 +1481,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="115" t="s">
+      <c r="K17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="110">
+      <c r="K19" s="80">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110">
+      <c r="L19" s="80"/>
+      <c r="M19" s="80">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="80"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1586,10 +1586,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="111"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1624,29 +1624,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="105" t="s">
+      <c r="K23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="103">
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="86">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1673,101 +1673,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109" t="str">
+      <c r="L25" s="87"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="105" t="s">
+      <c r="K26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="103" t="str">
+      <c r="K27" s="86" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="86" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1820,153 +1820,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="107">
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="89">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="103">
+      <c r="K32" s="86">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="103">
+      <c r="K33" s="86">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="103">
+      <c r="K34" s="86">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="103" t="str">
+      <c r="K35" s="86" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="103" t="str">
+      <c r="K36" s="86" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2022,12 +2022,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105" t="s">
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="70"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2037,13 +2037,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="106" t="str">
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="100" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="106"/>
+      <c r="P39" s="100"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2081,11 +2081,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2095,11 +2095,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="69"/>
+      <c r="N41" s="106"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2191,10 +2191,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="95" t="s">
+      <c r="P45" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="96"/>
+      <c r="Q45" s="91"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2214,54 +2214,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="74" t="s">
+      <c r="P46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="97"/>
+      <c r="Q46" s="93"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100" t="str">
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="100"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="98" t="s">
+      <c r="K47" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="101" t="str">
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="97" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="102"/>
+      <c r="Q47" s="98"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2273,14 +2273,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="91" t="s">
+      <c r="K48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="92"/>
-      <c r="M48" s="93" t="s">
+      <c r="L48" s="102"/>
+      <c r="M48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="94"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2308,10 +2308,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="92"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2324,34 +2324,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="85"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="120"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="75" t="str">
+      <c r="K50" s="107" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="89"/>
-      <c r="M50" s="75" t="str">
+      <c r="L50" s="108"/>
+      <c r="M50" s="107" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="77" t="str">
+      <c r="N50" s="109"/>
+      <c r="O50" s="110" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="77" t="str">
+      <c r="P50" s="110" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="79" t="str">
+      <c r="Q50" s="112" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2360,61 +2360,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="86"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="121"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="87" t="str">
+      <c r="K51" s="116" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="90"/>
-      <c r="M51" s="81" t="str">
+      <c r="L51" s="117"/>
+      <c r="M51" s="114" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="82"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="80"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="113"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="85"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="120"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="75" t="str">
+      <c r="K52" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="76"/>
-      <c r="M52" s="75" t="str">
+      <c r="L52" s="109"/>
+      <c r="M52" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="76"/>
-      <c r="O52" s="77" t="str">
+      <c r="N52" s="109"/>
+      <c r="O52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="77" t="str">
+      <c r="P52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="79" t="str">
+      <c r="Q52" s="112" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2423,61 +2423,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="86"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="121"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="81" t="str">
+      <c r="K53" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="82"/>
-      <c r="M53" s="81" t="str">
+      <c r="L53" s="115"/>
+      <c r="M53" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="82"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="80"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="113"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="85"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="120"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="75" t="str">
+      <c r="K54" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="76"/>
-      <c r="M54" s="75" t="str">
+      <c r="L54" s="109"/>
+      <c r="M54" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="76"/>
-      <c r="O54" s="77" t="str">
+      <c r="N54" s="109"/>
+      <c r="O54" s="110" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="77" t="str">
+      <c r="P54" s="110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="79" t="str">
+      <c r="Q54" s="112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2486,61 +2486,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="86"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="121"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="81" t="str">
+      <c r="K55" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="82"/>
-      <c r="M55" s="87" t="str">
+      <c r="L55" s="115"/>
+      <c r="M55" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="88"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="80"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="113"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="85"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="120"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="75" t="str">
+      <c r="K56" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="89"/>
-      <c r="M56" s="75" t="str">
+      <c r="L56" s="108"/>
+      <c r="M56" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="77" t="str">
+      <c r="N56" s="109"/>
+      <c r="O56" s="110" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="77" t="str">
+      <c r="P56" s="110" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="79" t="str">
+      <c r="Q56" s="112" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2549,28 +2549,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="86"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="121"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="87" t="str">
+      <c r="K57" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="90"/>
-      <c r="M57" s="81" t="str">
+      <c r="L57" s="117"/>
+      <c r="M57" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="82"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="80"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="113"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2578,34 +2578,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="85"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="120"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="75" t="str">
+      <c r="K58" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="75" t="str">
+      <c r="L58" s="109"/>
+      <c r="M58" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="76"/>
-      <c r="O58" s="77" t="str">
+      <c r="N58" s="109"/>
+      <c r="O58" s="110" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="77" t="str">
+      <c r="P58" s="110" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="79" t="str">
+      <c r="Q58" s="112" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2616,61 +2616,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="86"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="121"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="81" t="str">
+      <c r="K59" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="81" t="str">
+      <c r="L59" s="115"/>
+      <c r="M59" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="82"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="80"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="113"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="85"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="120"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="75" t="str">
+      <c r="K60" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="76"/>
-      <c r="M60" s="75" t="str">
+      <c r="L60" s="109"/>
+      <c r="M60" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="76"/>
-      <c r="O60" s="77" t="str">
+      <c r="N60" s="109"/>
+      <c r="O60" s="110" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="77" t="str">
+      <c r="P60" s="110" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="79" t="str">
+      <c r="Q60" s="112" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2679,61 +2679,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="86"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="121"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="81" t="str">
+      <c r="K61" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="82"/>
-      <c r="M61" s="81" t="str">
+      <c r="L61" s="115"/>
+      <c r="M61" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="82"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="80"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="85"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="120"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="75" t="str">
+      <c r="K62" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="76"/>
-      <c r="M62" s="75" t="str">
+      <c r="L62" s="109"/>
+      <c r="M62" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="76"/>
-      <c r="O62" s="77" t="str">
+      <c r="N62" s="109"/>
+      <c r="O62" s="110" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="77" t="str">
+      <c r="P62" s="110" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="79" t="str">
+      <c r="Q62" s="112" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2742,61 +2742,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="86"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="121"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="87" t="str">
+      <c r="K63" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="87" t="str">
+      <c r="L63" s="122"/>
+      <c r="M63" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="88"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="80"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="85"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="120"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="75" t="str">
+      <c r="K64" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="76"/>
-      <c r="M64" s="75" t="str">
+      <c r="L64" s="109"/>
+      <c r="M64" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="76"/>
-      <c r="O64" s="77" t="str">
+      <c r="N64" s="109"/>
+      <c r="O64" s="110" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="77" t="str">
+      <c r="P64" s="110" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="79" t="str">
+      <c r="Q64" s="112" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2805,28 +2805,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="86"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="121"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="81" t="str">
+      <c r="K65" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="82"/>
-      <c r="M65" s="81" t="str">
+      <c r="L65" s="115"/>
+      <c r="M65" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="82"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="80"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2834,34 +2834,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="85"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="120"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="75" t="str">
+      <c r="K66" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="76"/>
-      <c r="M66" s="75" t="str">
+      <c r="L66" s="109"/>
+      <c r="M66" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="76"/>
-      <c r="O66" s="77" t="str">
+      <c r="N66" s="109"/>
+      <c r="O66" s="110" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="77" t="str">
+      <c r="P66" s="110" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="79" t="str">
+      <c r="Q66" s="112" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2872,61 +2872,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="86"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="121"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="81" t="str">
+      <c r="K67" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="82"/>
-      <c r="M67" s="81" t="str">
+      <c r="L67" s="115"/>
+      <c r="M67" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="82"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="80"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="85"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="120"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="75" t="str">
+      <c r="K68" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="76"/>
-      <c r="M68" s="75" t="str">
+      <c r="L68" s="109"/>
+      <c r="M68" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="76"/>
-      <c r="O68" s="77" t="str">
+      <c r="N68" s="109"/>
+      <c r="O68" s="110" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="77" t="str">
+      <c r="P68" s="110" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="79" t="str">
+      <c r="Q68" s="112" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2935,43 +2935,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="81"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="86"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="121"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="81" t="str">
+      <c r="K69" s="114"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="82"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="80"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="113"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="125"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3005,12 +3005,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="74" t="s">
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="74"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3020,12 +3020,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="74" t="s">
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="74"/>
+      <c r="P72" s="92"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3063,11 +3063,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="68">
+      <c r="D74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3077,11 +3077,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="69"/>
+      <c r="N74" s="106"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3111,19 +3111,224 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3140,226 +3345,21 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -574,84 +574,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -661,71 +649,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,15 +1033,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="51" zoomScaleNormal="48" zoomScaleSheetLayoutView="51" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="48" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
@@ -1050,7 +1050,7 @@
     <col min="9" max="9" width="1" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
@@ -1076,16 +1076,16 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1109,25 +1109,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1137,25 +1137,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="74" t="str">
+      <c r="L4" s="125" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1194,11 +1194,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="69" t="str">
+      <c r="K6" s="123" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1207,7 +1207,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1230,33 +1230,33 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71">
+      <c r="L8" s="105"/>
+      <c r="M8" s="120">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1279,33 +1279,33 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71">
+      <c r="L10" s="105"/>
+      <c r="M10" s="120">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1331,37 +1331,37 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="120" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="71" t="str">
+      <c r="O12" s="120" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="71"/>
+      <c r="P12" s="120"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1384,14 +1384,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="117"/>
+      <c r="D14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1403,14 +1403,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="76" t="s">
+      <c r="L14" s="117"/>
+      <c r="M14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1438,10 +1438,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1454,25 +1454,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="83">
+      <c r="K16" s="113">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83">
+      <c r="L16" s="114"/>
+      <c r="M16" s="113">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="84"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1481,78 +1481,78 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="80">
+      <c r="K19" s="110">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80">
+      <c r="L19" s="110"/>
+      <c r="M19" s="110">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="80"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1586,10 +1586,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1601,7 +1601,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1624,33 +1624,33 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="86">
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="103">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1673,101 +1673,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88" t="str">
+      <c r="L25" s="108"/>
+      <c r="M25" s="109" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="86" t="str">
+      <c r="K27" s="103" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="86" t="str">
+      <c r="K28" s="103" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1820,157 +1820,157 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="89">
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="107">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="86">
+      <c r="K32" s="103">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="86">
+      <c r="K33" s="103">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="86">
+      <c r="K34" s="103">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="86" t="str">
+      <c r="K35" s="103" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="86" t="str">
+      <c r="K36" s="103" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2022,12 +2022,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="70" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2037,13 +2037,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100" t="str">
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="106" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="100"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2081,11 +2081,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2095,18 +2095,18 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="105">
+      <c r="M41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="106"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="37"/>
@@ -2127,7 +2127,7 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -2191,10 +2191,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="90" t="s">
+      <c r="P45" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="91"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2214,54 +2214,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="92" t="s">
+      <c r="P46" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="93"/>
+      <c r="Q46" s="97"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96" t="str">
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="94" t="s">
+      <c r="K47" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="97" t="str">
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="101" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="98"/>
+      <c r="Q47" s="102"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="104"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2273,14 +2273,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="101" t="s">
+      <c r="K48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="103" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2308,10 +2308,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="102"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="92"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2324,34 +2324,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="120"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="107" t="str">
+      <c r="K50" s="75" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="107" t="str">
+      <c r="L50" s="89"/>
+      <c r="M50" s="75" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="109"/>
-      <c r="O50" s="110" t="str">
+      <c r="N50" s="76"/>
+      <c r="O50" s="77" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="110" t="str">
+      <c r="P50" s="77" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="112" t="str">
+      <c r="Q50" s="79" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2360,61 +2360,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="121"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="116" t="str">
+      <c r="K51" s="87" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="117"/>
-      <c r="M51" s="114" t="str">
+      <c r="L51" s="90"/>
+      <c r="M51" s="81" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="115"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="113"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="120"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="107" t="str">
+      <c r="K52" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="109"/>
-      <c r="M52" s="107" t="str">
+      <c r="L52" s="76"/>
+      <c r="M52" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="109"/>
-      <c r="O52" s="110" t="str">
+      <c r="N52" s="76"/>
+      <c r="O52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="110" t="str">
+      <c r="P52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="112" t="str">
+      <c r="Q52" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2423,61 +2423,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="121"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="114" t="str">
+      <c r="K53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="115"/>
-      <c r="M53" s="114" t="str">
+      <c r="L53" s="82"/>
+      <c r="M53" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="115"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="113"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="120"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="107" t="str">
+      <c r="K54" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="109"/>
-      <c r="M54" s="107" t="str">
+      <c r="L54" s="76"/>
+      <c r="M54" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="109"/>
-      <c r="O54" s="110" t="str">
+      <c r="N54" s="76"/>
+      <c r="O54" s="77" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="110" t="str">
+      <c r="P54" s="77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="112" t="str">
+      <c r="Q54" s="79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2486,61 +2486,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="121"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="86"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="114" t="str">
+      <c r="K55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116" t="str">
+      <c r="L55" s="82"/>
+      <c r="M55" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="122"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="113"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="120"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="85"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="107" t="str">
+      <c r="K56" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="107" t="str">
+      <c r="L56" s="89"/>
+      <c r="M56" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="109"/>
-      <c r="O56" s="110" t="str">
+      <c r="N56" s="76"/>
+      <c r="O56" s="77" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="110" t="str">
+      <c r="P56" s="77" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="112" t="str">
+      <c r="Q56" s="79" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2549,28 +2549,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="121"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="116" t="str">
+      <c r="K57" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="117"/>
-      <c r="M57" s="114" t="str">
+      <c r="L57" s="90"/>
+      <c r="M57" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="115"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="113"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2578,34 +2578,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="120"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="107" t="str">
+      <c r="K58" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="109"/>
-      <c r="M58" s="107" t="str">
+      <c r="L58" s="76"/>
+      <c r="M58" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="109"/>
-      <c r="O58" s="110" t="str">
+      <c r="N58" s="76"/>
+      <c r="O58" s="77" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="110" t="str">
+      <c r="P58" s="77" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="112" t="str">
+      <c r="Q58" s="79" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2616,61 +2616,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="121"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="86"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="114" t="str">
+      <c r="K59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="115"/>
-      <c r="M59" s="114" t="str">
+      <c r="L59" s="82"/>
+      <c r="M59" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="115"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="113"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="120"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="85"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="107" t="str">
+      <c r="K60" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="109"/>
-      <c r="M60" s="107" t="str">
+      <c r="L60" s="76"/>
+      <c r="M60" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="109"/>
-      <c r="O60" s="110" t="str">
+      <c r="N60" s="76"/>
+      <c r="O60" s="77" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="110" t="str">
+      <c r="P60" s="77" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="112" t="str">
+      <c r="Q60" s="79" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2679,61 +2679,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="114" t="str">
+      <c r="K61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="115"/>
-      <c r="M61" s="114" t="str">
+      <c r="L61" s="82"/>
+      <c r="M61" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="115"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="113"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="120"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="107" t="str">
+      <c r="K62" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="109"/>
-      <c r="M62" s="107" t="str">
+      <c r="L62" s="76"/>
+      <c r="M62" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="109"/>
-      <c r="O62" s="110" t="str">
+      <c r="N62" s="76"/>
+      <c r="O62" s="77" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="110" t="str">
+      <c r="P62" s="77" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="112" t="str">
+      <c r="Q62" s="79" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2742,61 +2742,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="121"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="116" t="str">
+      <c r="K63" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="122"/>
-      <c r="M63" s="116" t="str">
+      <c r="L63" s="88"/>
+      <c r="M63" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="122"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="113"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="120"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="107" t="str">
+      <c r="K64" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="109"/>
-      <c r="M64" s="107" t="str">
+      <c r="L64" s="76"/>
+      <c r="M64" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="109"/>
-      <c r="O64" s="110" t="str">
+      <c r="N64" s="76"/>
+      <c r="O64" s="77" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="110" t="str">
+      <c r="P64" s="77" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="112" t="str">
+      <c r="Q64" s="79" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2805,28 +2805,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="121"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="114" t="str">
+      <c r="K65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="115"/>
-      <c r="M65" s="114" t="str">
+      <c r="L65" s="82"/>
+      <c r="M65" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="115"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="113"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2834,34 +2834,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="120"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="85"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="107" t="str">
+      <c r="K66" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="109"/>
-      <c r="M66" s="107" t="str">
+      <c r="L66" s="76"/>
+      <c r="M66" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="109"/>
-      <c r="O66" s="110" t="str">
+      <c r="N66" s="76"/>
+      <c r="O66" s="77" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="110" t="str">
+      <c r="P66" s="77" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="112" t="str">
+      <c r="Q66" s="79" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2872,61 +2872,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="121"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="114" t="str">
+      <c r="K67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="115"/>
-      <c r="M67" s="114" t="str">
+      <c r="L67" s="82"/>
+      <c r="M67" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="113"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="120"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="107" t="str">
+      <c r="K68" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="109"/>
-      <c r="M68" s="107" t="str">
+      <c r="L68" s="76"/>
+      <c r="M68" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="109"/>
-      <c r="O68" s="110" t="str">
+      <c r="N68" s="76"/>
+      <c r="O68" s="77" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="110" t="str">
+      <c r="P68" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="112" t="str">
+      <c r="Q68" s="79" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2935,43 +2935,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="121"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="114" t="str">
+      <c r="K69" s="81"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="113"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
-      <c r="N70" s="125"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3005,12 +3005,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="92" t="s">
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="92"/>
+      <c r="G72" s="74"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3020,12 +3020,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="92" t="s">
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="92"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3063,11 +3063,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="106"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3077,11 +3077,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="105">
+      <c r="M74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="106"/>
+      <c r="N74" s="69"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3111,224 +3111,19 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3345,21 +3140,226 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -574,72 +574,84 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,83 +661,71 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="48" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="48" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,18 +1046,18 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
     <col min="10" max="10" width="0.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" customWidth="1"/>
-    <col min="19" max="19" width="0.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0.140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="0.42578125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0.5703125" hidden="1" customWidth="1"/>
   </cols>
@@ -1076,13 +1076,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="124" t="s">
+      <c r="N1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="117"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,25 +1109,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1137,25 +1137,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="125" t="str">
+      <c r="L4" s="74" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1194,11 +1194,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="123" t="str">
+      <c r="K6" s="69" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="123"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1230,27 +1230,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="120">
+      <c r="L8" s="70"/>
+      <c r="M8" s="71">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1279,27 +1279,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="120">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1331,32 +1331,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="120" t="str">
+      <c r="L12" s="71" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="120"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="120" t="str">
+      <c r="O12" s="71" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="120"/>
+      <c r="P12" s="71"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1384,14 +1384,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="116" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1403,14 +1403,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="116" t="s">
+      <c r="K14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1438,10 +1438,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1454,25 +1454,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="113">
+      <c r="K16" s="83">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="113">
+      <c r="L16" s="84"/>
+      <c r="M16" s="83">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="114"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1481,71 +1481,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="115" t="s">
+      <c r="K17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="110">
+      <c r="K19" s="80">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110">
+      <c r="L19" s="80"/>
+      <c r="M19" s="80">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="80"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1586,10 +1586,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="111"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1624,29 +1624,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="105" t="s">
+      <c r="K23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="103">
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="86">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1673,101 +1673,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109" t="str">
+      <c r="L25" s="87"/>
+      <c r="M25" s="88" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="105" t="s">
+      <c r="K26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="103" t="str">
+      <c r="K27" s="86" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="86" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1820,153 +1820,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="107">
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="89">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="103">
+      <c r="K32" s="86">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="103">
+      <c r="K33" s="86">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="103">
+      <c r="K34" s="86">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="103" t="str">
+      <c r="K35" s="86" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="103" t="str">
+      <c r="K36" s="86" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2022,12 +2022,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105" t="s">
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="70"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2037,13 +2037,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="106" t="str">
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="100" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="106"/>
+      <c r="P39" s="100"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2081,11 +2081,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2095,11 +2095,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="69"/>
+      <c r="N41" s="106"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2191,10 +2191,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="95" t="s">
+      <c r="P45" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="96"/>
+      <c r="Q45" s="91"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2214,54 +2214,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="74" t="s">
+      <c r="P46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="97"/>
+      <c r="Q46" s="93"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100" t="str">
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="100"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="98" t="s">
+      <c r="K47" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="101" t="str">
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="97" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="102"/>
+      <c r="Q47" s="98"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2273,14 +2273,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="91" t="s">
+      <c r="K48" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="92"/>
-      <c r="M48" s="93" t="s">
+      <c r="L48" s="102"/>
+      <c r="M48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="94"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2308,10 +2308,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="92"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2324,34 +2324,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="85"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="120"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="75" t="str">
+      <c r="K50" s="107" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="89"/>
-      <c r="M50" s="75" t="str">
+      <c r="L50" s="108"/>
+      <c r="M50" s="107" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="77" t="str">
+      <c r="N50" s="109"/>
+      <c r="O50" s="110" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="77" t="str">
+      <c r="P50" s="110" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="79" t="str">
+      <c r="Q50" s="112" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2360,61 +2360,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="86"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="121"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="87" t="str">
+      <c r="K51" s="116" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="90"/>
-      <c r="M51" s="81" t="str">
+      <c r="L51" s="117"/>
+      <c r="M51" s="114" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="82"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="80"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="113"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="85"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="120"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="75" t="str">
+      <c r="K52" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="76"/>
-      <c r="M52" s="75" t="str">
+      <c r="L52" s="109"/>
+      <c r="M52" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="76"/>
-      <c r="O52" s="77" t="str">
+      <c r="N52" s="109"/>
+      <c r="O52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="77" t="str">
+      <c r="P52" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="79" t="str">
+      <c r="Q52" s="112" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2423,61 +2423,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="86"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="121"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="81" t="str">
+      <c r="K53" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="82"/>
-      <c r="M53" s="81" t="str">
+      <c r="L53" s="115"/>
+      <c r="M53" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="82"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="80"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="113"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="85"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="120"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="75" t="str">
+      <c r="K54" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="76"/>
-      <c r="M54" s="75" t="str">
+      <c r="L54" s="109"/>
+      <c r="M54" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="76"/>
-      <c r="O54" s="77" t="str">
+      <c r="N54" s="109"/>
+      <c r="O54" s="110" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="77" t="str">
+      <c r="P54" s="110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="79" t="str">
+      <c r="Q54" s="112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2486,61 +2486,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="86"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="121"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="81" t="str">
+      <c r="K55" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="82"/>
-      <c r="M55" s="87" t="str">
+      <c r="L55" s="115"/>
+      <c r="M55" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="88"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="80"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="113"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="85"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="120"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="75" t="str">
+      <c r="K56" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="89"/>
-      <c r="M56" s="75" t="str">
+      <c r="L56" s="108"/>
+      <c r="M56" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="77" t="str">
+      <c r="N56" s="109"/>
+      <c r="O56" s="110" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="77" t="str">
+      <c r="P56" s="110" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="79" t="str">
+      <c r="Q56" s="112" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2549,28 +2549,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="86"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="121"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="87" t="str">
+      <c r="K57" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="90"/>
-      <c r="M57" s="81" t="str">
+      <c r="L57" s="117"/>
+      <c r="M57" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="82"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="80"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="113"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2578,34 +2578,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="85"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="120"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="75" t="str">
+      <c r="K58" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="75" t="str">
+      <c r="L58" s="109"/>
+      <c r="M58" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="76"/>
-      <c r="O58" s="77" t="str">
+      <c r="N58" s="109"/>
+      <c r="O58" s="110" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="77" t="str">
+      <c r="P58" s="110" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="79" t="str">
+      <c r="Q58" s="112" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2616,61 +2616,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="86"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="121"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="81" t="str">
+      <c r="K59" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="81" t="str">
+      <c r="L59" s="115"/>
+      <c r="M59" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="82"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="80"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="113"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="85"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="120"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="75" t="str">
+      <c r="K60" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="76"/>
-      <c r="M60" s="75" t="str">
+      <c r="L60" s="109"/>
+      <c r="M60" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="76"/>
-      <c r="O60" s="77" t="str">
+      <c r="N60" s="109"/>
+      <c r="O60" s="110" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="77" t="str">
+      <c r="P60" s="110" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="79" t="str">
+      <c r="Q60" s="112" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2679,61 +2679,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="86"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="121"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="81" t="str">
+      <c r="K61" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="82"/>
-      <c r="M61" s="81" t="str">
+      <c r="L61" s="115"/>
+      <c r="M61" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="82"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="80"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="85"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="120"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="75" t="str">
+      <c r="K62" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="76"/>
-      <c r="M62" s="75" t="str">
+      <c r="L62" s="109"/>
+      <c r="M62" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="76"/>
-      <c r="O62" s="77" t="str">
+      <c r="N62" s="109"/>
+      <c r="O62" s="110" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="77" t="str">
+      <c r="P62" s="110" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="79" t="str">
+      <c r="Q62" s="112" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2742,61 +2742,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="86"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="121"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="87" t="str">
+      <c r="K63" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="87" t="str">
+      <c r="L63" s="122"/>
+      <c r="M63" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="88"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="80"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="85"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="120"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="75" t="str">
+      <c r="K64" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="76"/>
-      <c r="M64" s="75" t="str">
+      <c r="L64" s="109"/>
+      <c r="M64" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="76"/>
-      <c r="O64" s="77" t="str">
+      <c r="N64" s="109"/>
+      <c r="O64" s="110" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="77" t="str">
+      <c r="P64" s="110" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="79" t="str">
+      <c r="Q64" s="112" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2805,28 +2805,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="86"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="121"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="81" t="str">
+      <c r="K65" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="82"/>
-      <c r="M65" s="81" t="str">
+      <c r="L65" s="115"/>
+      <c r="M65" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="82"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="80"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2834,34 +2834,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="85"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="120"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="75" t="str">
+      <c r="K66" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="76"/>
-      <c r="M66" s="75" t="str">
+      <c r="L66" s="109"/>
+      <c r="M66" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="76"/>
-      <c r="O66" s="77" t="str">
+      <c r="N66" s="109"/>
+      <c r="O66" s="110" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="77" t="str">
+      <c r="P66" s="110" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="79" t="str">
+      <c r="Q66" s="112" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2872,61 +2872,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="86"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="121"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="81" t="str">
+      <c r="K67" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="82"/>
-      <c r="M67" s="81" t="str">
+      <c r="L67" s="115"/>
+      <c r="M67" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="82"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="80"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="85"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="120"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="75" t="str">
+      <c r="K68" s="107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="76"/>
-      <c r="M68" s="75" t="str">
+      <c r="L68" s="109"/>
+      <c r="M68" s="107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="76"/>
-      <c r="O68" s="77" t="str">
+      <c r="N68" s="109"/>
+      <c r="O68" s="110" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="77" t="str">
+      <c r="P68" s="110" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="79" t="str">
+      <c r="Q68" s="112" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2935,43 +2935,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="81"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="86"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="121"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="81" t="str">
+      <c r="K69" s="114"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="82"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="80"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="113"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="125"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3005,12 +3005,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="74" t="s">
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="74"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3020,12 +3020,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="74" t="s">
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="74"/>
+      <c r="P72" s="92"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3063,11 +3063,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="68">
+      <c r="D74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3077,11 +3077,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="105">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="69"/>
+      <c r="N74" s="106"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3111,19 +3111,224 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3140,226 +3345,21 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.93640350877192979" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -574,84 +574,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -661,71 +649,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="48" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="37" zoomScaleNormal="48" zoomScaleSheetLayoutView="37" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,13 +1076,13 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,25 +1109,25 @@
     <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="7" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1137,25 +1137,25 @@
     <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="74" t="str">
+      <c r="L4" s="125" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1194,11 +1194,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="69" t="str">
+      <c r="K6" s="123" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
@@ -1230,27 +1230,27 @@
     </row>
     <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71">
+      <c r="L8" s="105"/>
+      <c r="M8" s="120">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1279,27 +1279,27 @@
     </row>
     <row r="10" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71">
+      <c r="L10" s="105"/>
+      <c r="M10" s="120">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1331,32 +1331,32 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="120" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="71" t="str">
+      <c r="O12" s="120" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="71"/>
+      <c r="P12" s="120"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1384,14 +1384,14 @@
     </row>
     <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="117"/>
+      <c r="D14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1403,14 +1403,14 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="76" t="s">
+      <c r="L14" s="117"/>
+      <c r="M14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="22" t="s">
         <v>11</v>
       </c>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1438,10 +1438,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
       <c r="O15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1454,25 +1454,25 @@
     </row>
     <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="83">
+      <c r="K16" s="113">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83">
+      <c r="L16" s="114"/>
+      <c r="M16" s="113">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="84"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1481,71 +1481,71 @@
     </row>
     <row r="17" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="80">
+      <c r="K19" s="110">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80">
+      <c r="L19" s="110"/>
+      <c r="M19" s="110">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="80"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -1586,10 +1586,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="27">
         <f>D21</f>
         <v>0</v>
@@ -1624,29 +1624,29 @@
     </row>
     <row r="23" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="86">
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="103">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
@@ -1673,101 +1673,101 @@
     </row>
     <row r="25" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88" t="str">
+      <c r="L25" s="108"/>
+      <c r="M25" s="109" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="86" t="str">
+      <c r="K27" s="103" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="86" t="str">
+      <c r="K28" s="103" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1820,153 +1820,153 @@
     </row>
     <row r="31" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="89">
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="107">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="86">
+      <c r="K32" s="103">
         <f>B32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="86">
+      <c r="K33" s="103">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="86">
+      <c r="K34" s="103">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="86" t="str">
+      <c r="K35" s="103" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="86" t="str">
+      <c r="K36" s="103" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
@@ -2022,12 +2022,12 @@
       <c r="C39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="70" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2037,13 +2037,13 @@
       <c r="L39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100" t="str">
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="106" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="100"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="5" t="s">
         <v>29</v>
       </c>
@@ -2081,11 +2081,11 @@
       <c r="C41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2095,11 +2095,11 @@
       <c r="L41" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="105">
+      <c r="M41" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="106"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2191,10 +2191,10 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="90" t="s">
+      <c r="P45" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="91"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
     </row>
@@ -2214,54 +2214,54 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="92" t="s">
+      <c r="P46" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="93"/>
+      <c r="Q46" s="97"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96" t="str">
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="94" t="s">
+      <c r="K47" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="97" t="str">
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="101" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="98"/>
+      <c r="Q47" s="102"/>
       <c r="R47" s="41"/>
       <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="104"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2273,14 +2273,14 @@
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="101" t="s">
+      <c r="K48" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="103" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="52" t="s">
         <v>11</v>
       </c>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2308,10 +2308,10 @@
       <c r="H49" s="55"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="102"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="92"/>
       <c r="O49" s="54" t="s">
         <v>14</v>
       </c>
@@ -2324,34 +2324,34 @@
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="120"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="107" t="str">
+      <c r="K50" s="75" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="107" t="str">
+      <c r="L50" s="89"/>
+      <c r="M50" s="75" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="109"/>
-      <c r="O50" s="110" t="str">
+      <c r="N50" s="76"/>
+      <c r="O50" s="77" t="str">
         <f t="shared" ref="O50:Q52" si="0">REPT(F50,1)</f>
         <v/>
       </c>
-      <c r="P50" s="110" t="str">
+      <c r="P50" s="77" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="112" t="str">
+      <c r="Q50" s="79" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2360,61 +2360,61 @@
     </row>
     <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="121"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="56"/>
-      <c r="K51" s="116" t="str">
+      <c r="K51" s="87" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="117"/>
-      <c r="M51" s="114" t="str">
+      <c r="L51" s="90"/>
+      <c r="M51" s="81" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="115"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="113"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="120"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="107" t="str">
+      <c r="K52" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="109"/>
-      <c r="M52" s="107" t="str">
+      <c r="L52" s="76"/>
+      <c r="M52" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="109"/>
-      <c r="O52" s="110" t="str">
+      <c r="N52" s="76"/>
+      <c r="O52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="110" t="str">
+      <c r="P52" s="77" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="112" t="str">
+      <c r="Q52" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2423,61 +2423,61 @@
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="121"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="114" t="str">
+      <c r="K53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="115"/>
-      <c r="M53" s="114" t="str">
+      <c r="L53" s="82"/>
+      <c r="M53" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="115"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="113"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="120"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="107" t="str">
+      <c r="K54" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="109"/>
-      <c r="M54" s="107" t="str">
+      <c r="L54" s="76"/>
+      <c r="M54" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="109"/>
-      <c r="O54" s="110" t="str">
+      <c r="N54" s="76"/>
+      <c r="O54" s="77" t="str">
         <f t="shared" ref="O54:Q54" si="3">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="110" t="str">
+      <c r="P54" s="77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q54" s="112" t="str">
+      <c r="Q54" s="79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2486,61 +2486,61 @@
     </row>
     <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="121"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="86"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="114" t="str">
+      <c r="K55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116" t="str">
+      <c r="L55" s="82"/>
+      <c r="M55" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="122"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="113"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="120"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="85"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="107" t="str">
+      <c r="K56" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="107" t="str">
+      <c r="L56" s="89"/>
+      <c r="M56" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="109"/>
-      <c r="O56" s="110" t="str">
+      <c r="N56" s="76"/>
+      <c r="O56" s="77" t="str">
         <f t="shared" ref="O56:Q56" si="4">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="110" t="str">
+      <c r="P56" s="77" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q56" s="112" t="str">
+      <c r="Q56" s="79" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2549,28 +2549,28 @@
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="121"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="56"/>
-      <c r="K57" s="116" t="str">
+      <c r="K57" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="117"/>
-      <c r="M57" s="114" t="str">
+      <c r="L57" s="90"/>
+      <c r="M57" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="115"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="113"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
     </row>
@@ -2578,34 +2578,34 @@
       <c r="A58" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="120"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="56"/>
-      <c r="K58" s="107" t="str">
+      <c r="K58" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="109"/>
-      <c r="M58" s="107" t="str">
+      <c r="L58" s="76"/>
+      <c r="M58" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="109"/>
-      <c r="O58" s="110" t="str">
+      <c r="N58" s="76"/>
+      <c r="O58" s="77" t="str">
         <f t="shared" ref="O58:Q58" si="5">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="110" t="str">
+      <c r="P58" s="77" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q58" s="112" t="str">
+      <c r="Q58" s="79" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2616,61 +2616,61 @@
       <c r="A59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="121"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="86"/>
       <c r="J59" s="56"/>
-      <c r="K59" s="114" t="str">
+      <c r="K59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="115"/>
-      <c r="M59" s="114" t="str">
+      <c r="L59" s="82"/>
+      <c r="M59" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="115"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="113"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="120"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="85"/>
       <c r="J60" s="56"/>
-      <c r="K60" s="107" t="str">
+      <c r="K60" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="109"/>
-      <c r="M60" s="107" t="str">
+      <c r="L60" s="76"/>
+      <c r="M60" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="109"/>
-      <c r="O60" s="110" t="str">
+      <c r="N60" s="76"/>
+      <c r="O60" s="77" t="str">
         <f t="shared" ref="O60:Q60" si="6">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="110" t="str">
+      <c r="P60" s="77" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q60" s="112" t="str">
+      <c r="Q60" s="79" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2679,61 +2679,61 @@
     </row>
     <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="56"/>
-      <c r="K61" s="114" t="str">
+      <c r="K61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="115"/>
-      <c r="M61" s="114" t="str">
+      <c r="L61" s="82"/>
+      <c r="M61" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="115"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="113"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="120"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="107" t="str">
+      <c r="K62" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="109"/>
-      <c r="M62" s="107" t="str">
+      <c r="L62" s="76"/>
+      <c r="M62" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="109"/>
-      <c r="O62" s="110" t="str">
+      <c r="N62" s="76"/>
+      <c r="O62" s="77" t="str">
         <f t="shared" ref="O62:Q62" si="7">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="110" t="str">
+      <c r="P62" s="77" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q62" s="112" t="str">
+      <c r="Q62" s="79" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -2742,61 +2742,61 @@
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="121"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="116" t="str">
+      <c r="K63" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="122"/>
-      <c r="M63" s="116" t="str">
+      <c r="L63" s="88"/>
+      <c r="M63" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="122"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="113"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
     </row>
     <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="120"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="56"/>
-      <c r="K64" s="107" t="str">
+      <c r="K64" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="109"/>
-      <c r="M64" s="107" t="str">
+      <c r="L64" s="76"/>
+      <c r="M64" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="109"/>
-      <c r="O64" s="110" t="str">
+      <c r="N64" s="76"/>
+      <c r="O64" s="77" t="str">
         <f t="shared" ref="O64:Q64" si="8">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="110" t="str">
+      <c r="P64" s="77" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q64" s="112" t="str">
+      <c r="Q64" s="79" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -2805,28 +2805,28 @@
     </row>
     <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="121"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="56"/>
-      <c r="K65" s="114" t="str">
+      <c r="K65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="115"/>
-      <c r="M65" s="114" t="str">
+      <c r="L65" s="82"/>
+      <c r="M65" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="115"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="113"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="41"/>
       <c r="S65" s="41"/>
     </row>
@@ -2834,34 +2834,34 @@
       <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="120"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="85"/>
       <c r="J66" s="56"/>
-      <c r="K66" s="107" t="str">
+      <c r="K66" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="109"/>
-      <c r="M66" s="107" t="str">
+      <c r="L66" s="76"/>
+      <c r="M66" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="109"/>
-      <c r="O66" s="110" t="str">
+      <c r="N66" s="76"/>
+      <c r="O66" s="77" t="str">
         <f t="shared" ref="O66:Q66" si="9">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="110" t="str">
+      <c r="P66" s="77" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q66" s="112" t="str">
+      <c r="Q66" s="79" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2872,61 +2872,61 @@
       <c r="A67" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="121"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="56"/>
-      <c r="K67" s="114" t="str">
+      <c r="K67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="115"/>
-      <c r="M67" s="114" t="str">
+      <c r="L67" s="82"/>
+      <c r="M67" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="113"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="41"/>
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="120"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="56"/>
-      <c r="K68" s="107" t="str">
+      <c r="K68" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="109"/>
-      <c r="M68" s="107" t="str">
+      <c r="L68" s="76"/>
+      <c r="M68" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="109"/>
-      <c r="O68" s="110" t="str">
+      <c r="N68" s="76"/>
+      <c r="O68" s="77" t="str">
         <f t="shared" ref="O68:Q68" si="10">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="110" t="str">
+      <c r="P68" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q68" s="112" t="str">
+      <c r="Q68" s="79" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -2935,43 +2935,43 @@
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="121"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="114" t="str">
+      <c r="K69" s="81"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="113"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="41"/>
       <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
-      <c r="N70" s="125"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="60"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="61"/>
@@ -3005,12 +3005,12 @@
       <c r="C72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="92" t="s">
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="92"/>
+      <c r="G72" s="74"/>
       <c r="H72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3020,12 +3020,12 @@
       <c r="L72" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="92" t="s">
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="92"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="49" t="s">
         <v>36</v>
       </c>
@@ -3063,11 +3063,11 @@
       <c r="C74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="106"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="6"/>
@@ -3077,11 +3077,11 @@
       <c r="L74" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="105">
+      <c r="M74" s="68">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="106"/>
+      <c r="N74" s="69"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="6"/>
@@ -3111,224 +3111,19 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:L14"/>
@@ -3345,21 +3140,226 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.93640350877192979" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$U$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -627,162 +627,162 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -820,7 +820,7 @@
         <xdr:cNvPr id="1104" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
         <xdr:cNvPr id="1105" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -924,7 +924,7 @@
         <xdr:cNvPr id="1106" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,7 +976,7 @@
         <xdr:cNvPr id="1107" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,7 +1028,7 @@
         <xdr:cNvPr id="1108" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1080,7 @@
         <xdr:cNvPr id="1109" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1132,7 @@
         <xdr:cNvPr id="1110" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1184,7 @@
         <xdr:cNvPr id="1111" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="28" zoomScaleNormal="75" zoomScaleSheetLayoutView="28" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="39" zoomScaleNormal="75" zoomScaleSheetLayoutView="39" workbookViewId="0">
       <selection activeCell="O12" sqref="O12:P12"/>
     </sheetView>
   </sheetViews>
@@ -1552,13 +1552,13 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="78"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="116"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
     </row>
@@ -1587,30 +1587,30 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="88" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="88" t="str">
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="119" t="str">
         <f>REPT(F3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="10" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1621,25 +1621,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="86" t="str">
+      <c r="L4" s="117" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
       <c r="S4" s="9"/>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
       <c r="F6" s="58"/>
@@ -1680,11 +1680,11 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="90" t="str">
+      <c r="K6" s="121" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="90"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="66">
         <f>D6</f>
         <v>0</v>
@@ -1720,29 +1720,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="79" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="79" t="str">
+      <c r="L8" s="82"/>
+      <c r="M8" s="110" t="str">
         <f>REPT(D8,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
@@ -1773,29 +1773,29 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="79" t="str">
+      <c r="L10" s="82"/>
+      <c r="M10" s="110" t="str">
         <f>REPT(D10,1)</f>
         <v>США</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="9"/>
@@ -1829,36 +1829,36 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="95"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="15"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="str">
+      <c r="L12" s="110" t="str">
         <f>REPT(C12,1)</f>
         <v>04/05/2019</v>
       </c>
-      <c r="M12" s="79"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="79" t="str">
+      <c r="O12" s="110" t="str">
         <f>REPT(F12,1)</f>
         <v>16/05/2019</v>
       </c>
-      <c r="P12" s="79"/>
+      <c r="P12" s="110"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1888,14 +1888,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="77" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="77" t="s">
+      <c r="L14" s="116"/>
+      <c r="M14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="78"/>
+      <c r="N14" s="116"/>
       <c r="O14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1943,10 +1943,10 @@
       <c r="H15" s="17"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
       <c r="O15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1960,19 +1960,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -1982,67 +1982,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="55" t="s">
         <v>39</v>
       </c>
@@ -2087,10 +2087,10 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="93" t="s">
+      <c r="K21" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="93"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="55" t="s">
         <v>39</v>
       </c>
@@ -2126,31 +2126,31 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="91" t="s">
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="80" t="s">
+      <c r="K23" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="91" t="str">
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="81" t="str">
         <f>REPT(F23,1)</f>
         <v>Санкт-Петербург, Москва</v>
       </c>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
@@ -2179,56 +2179,56 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="92" t="s">
+      <c r="C25" s="113"/>
+      <c r="D25" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="94" t="s">
+      <c r="K25" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="94"/>
-      <c r="M25" s="92" t="str">
+      <c r="L25" s="113"/>
+      <c r="M25" s="80" t="str">
         <f>REPT(D25,1)</f>
         <v>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</v>
       </c>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
@@ -2236,26 +2236,26 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="91" t="str">
+      <c r="K27" s="81" t="str">
         <f>REPT(B27,1)</f>
         <v>Туристическая компания "МИР", 190000, Россия,</v>
       </c>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -2263,26 +2263,26 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="91" t="str">
+      <c r="K28" s="81" t="str">
         <f>REPT(B28,1)</f>
         <v>Санкт-Петербург, улица Большая Морская 31</v>
       </c>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -2342,166 +2342,166 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="122" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="122" t="str">
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="91" t="str">
+      <c r="K32" s="81" t="str">
         <f>REPT(B32,1)</f>
         <v>предоставляется  размещение и питание  на борту теплохода</v>
       </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="91" t="str">
+      <c r="K33" s="81" t="str">
         <f>REPT(B33,1)</f>
         <v xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </v>
       </c>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="91" t="str">
+      <c r="K34" s="81" t="str">
         <f>REPT(B34,1)</f>
         <v>Москва, Санкт-Петербург</v>
       </c>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="91" t="str">
+      <c r="K35" s="81" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="9"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="91" t="str">
+      <c r="K36" s="81" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
@@ -2560,12 +2560,12 @@
       <c r="C39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="80" t="s">
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="80"/>
+      <c r="G39" s="82"/>
       <c r="H39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2575,13 +2575,13 @@
       <c r="L39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="124" t="str">
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="85" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="124"/>
+      <c r="P39" s="85"/>
       <c r="Q39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2621,11 +2621,11 @@
       <c r="C41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="114">
+      <c r="D41" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="115"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2635,11 +2635,11 @@
       <c r="L41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="114">
+      <c r="M41" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="115"/>
+      <c r="N41" s="95"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2691,7 +2691,7 @@
       <c r="S43" s="27"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2735,10 +2735,10 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="125" t="s">
+      <c r="P45" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="Q45" s="126"/>
+      <c r="Q45" s="91"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2759,56 +2759,56 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="127"/>
+      <c r="Q46" s="93"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="121" t="str">
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98" t="str">
         <f>REPT(F3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="H47" s="121"/>
+      <c r="H47" s="98"/>
       <c r="I47" s="24"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="105" t="s">
+      <c r="K47" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="107" t="str">
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="104" t="str">
         <f>REPT(O3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="Q47" s="108"/>
+      <c r="Q47" s="105"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="101"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="32" t="s">
         <v>16</v>
       </c>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="98" t="s">
+      <c r="K48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="99"/>
-      <c r="M48" s="100" t="s">
+      <c r="L48" s="69"/>
+      <c r="M48" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="101"/>
+      <c r="N48" s="87"/>
       <c r="O48" s="32" t="s">
         <v>16</v>
       </c>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="99"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="34" t="s">
         <v>19</v>
       </c>
@@ -2856,10 +2856,10 @@
       <c r="H49" s="37"/>
       <c r="I49" s="24"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="99"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="69"/>
       <c r="O49" s="34" t="s">
         <v>19</v>
       </c>
@@ -2873,36 +2873,36 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="102" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="102"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="109"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="70" t="str">
+      <c r="K50" s="76" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="72"/>
-      <c r="M50" s="70" t="str">
+      <c r="L50" s="109"/>
+      <c r="M50" s="76" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="102" t="str">
+      <c r="N50" s="77"/>
+      <c r="O50" s="70" t="str">
         <f t="shared" ref="O50:O52" si="0">REPT(F50,1)</f>
         <v>07/03/1977</v>
       </c>
-      <c r="P50" s="102" t="str">
+      <c r="P50" s="70" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="96" t="str">
+      <c r="Q50" s="88" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2912,62 +2912,62 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="110"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="73" t="str">
+      <c r="K51" s="106" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="104"/>
-      <c r="M51" s="68" t="str">
+      <c r="L51" s="108"/>
+      <c r="M51" s="78" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="69"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="97"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="89"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="109"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="70" t="str">
+      <c r="K52" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="70" t="str">
+      <c r="L52" s="77"/>
+      <c r="M52" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="102" t="str">
+      <c r="N52" s="77"/>
+      <c r="O52" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="102" t="str">
+      <c r="P52" s="70" t="str">
         <f t="shared" ref="P52" si="3">REPT(G52,1)</f>
         <v/>
       </c>
-      <c r="Q52" s="96" t="str">
+      <c r="Q52" s="88" t="str">
         <f t="shared" ref="Q52" si="4">REPT(H52,1)</f>
         <v/>
       </c>
@@ -2977,62 +2977,62 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="110"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="75"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="68" t="str">
+      <c r="K53" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="69"/>
-      <c r="M53" s="68" t="str">
+      <c r="L53" s="79"/>
+      <c r="M53" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="69"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="97"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="89"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="109"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="70" t="str">
+      <c r="K54" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="70" t="str">
+      <c r="L54" s="77"/>
+      <c r="M54" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="71"/>
-      <c r="O54" s="102" t="str">
+      <c r="N54" s="77"/>
+      <c r="O54" s="70" t="str">
         <f t="shared" ref="O54" si="5">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="102" t="str">
+      <c r="P54" s="70" t="str">
         <f t="shared" ref="P54" si="6">REPT(G54,1)</f>
         <v/>
       </c>
-      <c r="Q54" s="96" t="str">
+      <c r="Q54" s="88" t="str">
         <f t="shared" ref="Q54" si="7">REPT(H54,1)</f>
         <v/>
       </c>
@@ -3042,62 +3042,62 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="110"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="75"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="68" t="str">
+      <c r="K55" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="69"/>
-      <c r="M55" s="73" t="str">
+      <c r="L55" s="79"/>
+      <c r="M55" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="74"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="97"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="89"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="109"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="38"/>
-      <c r="K56" s="70" t="str">
+      <c r="K56" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="72"/>
-      <c r="M56" s="70" t="str">
+      <c r="L56" s="109"/>
+      <c r="M56" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="71"/>
-      <c r="O56" s="102" t="str">
+      <c r="N56" s="77"/>
+      <c r="O56" s="70" t="str">
         <f t="shared" ref="O56" si="8">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="102" t="str">
+      <c r="P56" s="70" t="str">
         <f t="shared" ref="P56" si="9">REPT(G56,1)</f>
         <v/>
       </c>
-      <c r="Q56" s="96" t="str">
+      <c r="Q56" s="88" t="str">
         <f t="shared" ref="Q56" si="10">REPT(H56,1)</f>
         <v/>
       </c>
@@ -3107,28 +3107,28 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="110"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="75"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="73" t="str">
+      <c r="K57" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="104"/>
-      <c r="M57" s="68" t="str">
+      <c r="L57" s="108"/>
+      <c r="M57" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="69"/>
-      <c r="O57" s="103"/>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="97"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="89"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3137,34 +3137,34 @@
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="109"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="74"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="70" t="str">
+      <c r="K58" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="71"/>
-      <c r="M58" s="70" t="str">
+      <c r="L58" s="77"/>
+      <c r="M58" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="71"/>
-      <c r="O58" s="102" t="str">
+      <c r="N58" s="77"/>
+      <c r="O58" s="70" t="str">
         <f t="shared" ref="O58" si="11">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="102" t="str">
+      <c r="P58" s="70" t="str">
         <f t="shared" ref="P58" si="12">REPT(G58,1)</f>
         <v/>
       </c>
-      <c r="Q58" s="96" t="str">
+      <c r="Q58" s="88" t="str">
         <f t="shared" ref="Q58" si="13">REPT(H58,1)</f>
         <v/>
       </c>
@@ -3176,62 +3176,62 @@
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="110"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="75"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="68" t="str">
+      <c r="K59" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="69"/>
-      <c r="M59" s="68" t="str">
+      <c r="L59" s="79"/>
+      <c r="M59" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="69"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="97"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="89"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="109"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="70" t="str">
+      <c r="K60" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="71"/>
-      <c r="M60" s="70" t="str">
+      <c r="L60" s="77"/>
+      <c r="M60" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="71"/>
-      <c r="O60" s="102" t="str">
+      <c r="N60" s="77"/>
+      <c r="O60" s="70" t="str">
         <f t="shared" ref="O60" si="14">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="102" t="str">
+      <c r="P60" s="70" t="str">
         <f t="shared" ref="P60" si="15">REPT(G60,1)</f>
         <v/>
       </c>
-      <c r="Q60" s="96" t="str">
+      <c r="Q60" s="88" t="str">
         <f t="shared" ref="Q60" si="16">REPT(H60,1)</f>
         <v/>
       </c>
@@ -3241,62 +3241,62 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="110"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="75"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="68" t="str">
+      <c r="K61" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="69"/>
-      <c r="M61" s="68" t="str">
+      <c r="L61" s="79"/>
+      <c r="M61" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="69"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="97"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="89"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="109"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="74"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="70" t="str">
+      <c r="K62" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="71"/>
-      <c r="M62" s="70" t="str">
+      <c r="L62" s="77"/>
+      <c r="M62" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="71"/>
-      <c r="O62" s="102" t="str">
+      <c r="N62" s="77"/>
+      <c r="O62" s="70" t="str">
         <f t="shared" ref="O62" si="17">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="102" t="str">
+      <c r="P62" s="70" t="str">
         <f t="shared" ref="P62" si="18">REPT(G62,1)</f>
         <v/>
       </c>
-      <c r="Q62" s="96" t="str">
+      <c r="Q62" s="88" t="str">
         <f t="shared" ref="Q62" si="19">REPT(H62,1)</f>
         <v/>
       </c>
@@ -3306,62 +3306,62 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="110"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="75"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="73" t="str">
+      <c r="K63" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="74"/>
-      <c r="M63" s="73" t="str">
+      <c r="L63" s="107"/>
+      <c r="M63" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="74"/>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="97"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="89"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="109"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="70" t="str">
+      <c r="K64" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="71"/>
-      <c r="M64" s="70" t="str">
+      <c r="L64" s="77"/>
+      <c r="M64" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="71"/>
-      <c r="O64" s="102" t="str">
+      <c r="N64" s="77"/>
+      <c r="O64" s="70" t="str">
         <f t="shared" ref="O64" si="20">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="102" t="str">
+      <c r="P64" s="70" t="str">
         <f t="shared" ref="P64" si="21">REPT(G64,1)</f>
         <v/>
       </c>
-      <c r="Q64" s="96" t="str">
+      <c r="Q64" s="88" t="str">
         <f t="shared" ref="Q64" si="22">REPT(H64,1)</f>
         <v/>
       </c>
@@ -3371,28 +3371,28 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="110"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="75"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="68" t="str">
+      <c r="K65" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="69"/>
-      <c r="M65" s="68" t="str">
+      <c r="L65" s="79"/>
+      <c r="M65" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="69"/>
-      <c r="O65" s="103"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="97"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="89"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3401,34 +3401,34 @@
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="109"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="70" t="str">
+      <c r="K66" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="71"/>
-      <c r="M66" s="70" t="str">
+      <c r="L66" s="77"/>
+      <c r="M66" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="71"/>
-      <c r="O66" s="102" t="str">
+      <c r="N66" s="77"/>
+      <c r="O66" s="70" t="str">
         <f t="shared" ref="O66" si="23">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="102" t="str">
+      <c r="P66" s="70" t="str">
         <f t="shared" ref="P66" si="24">REPT(G66,1)</f>
         <v/>
       </c>
-      <c r="Q66" s="96" t="str">
+      <c r="Q66" s="88" t="str">
         <f t="shared" ref="Q66" si="25">REPT(H66,1)</f>
         <v/>
       </c>
@@ -3440,62 +3440,62 @@
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="68"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="110"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="75"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="68" t="str">
+      <c r="K67" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="69"/>
-      <c r="M67" s="68" t="str">
+      <c r="L67" s="79"/>
+      <c r="M67" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="69"/>
-      <c r="O67" s="103"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="97"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="89"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="109"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="70" t="str">
+      <c r="K68" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="71"/>
-      <c r="M68" s="70" t="str">
+      <c r="L68" s="77"/>
+      <c r="M68" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="71"/>
-      <c r="O68" s="102" t="str">
+      <c r="N68" s="77"/>
+      <c r="O68" s="70" t="str">
         <f t="shared" ref="O68" si="26">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="102" t="str">
+      <c r="P68" s="70" t="str">
         <f t="shared" ref="P68" si="27">REPT(G68,1)</f>
         <v/>
       </c>
-      <c r="Q68" s="96" t="str">
+      <c r="Q68" s="88" t="str">
         <f t="shared" ref="Q68" si="28">REPT(H68,1)</f>
         <v/>
       </c>
@@ -3505,44 +3505,44 @@
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="110"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="75"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="68" t="str">
+      <c r="K69" s="78"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="69"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="97"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="89"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="45"/>
       <c r="H70" s="47"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
+      <c r="N70" s="102"/>
       <c r="O70" s="44"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="39"/>
@@ -3578,12 +3578,12 @@
       <c r="C72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="119"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="120" t="s">
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="120"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3593,12 +3593,12 @@
       <c r="L72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="119"/>
-      <c r="N72" s="119"/>
-      <c r="O72" s="120" t="s">
+      <c r="M72" s="103"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="P72" s="120"/>
+      <c r="P72" s="92"/>
       <c r="Q72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3638,11 +3638,11 @@
       <c r="C74" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="114">
+      <c r="D74" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="115"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
@@ -3652,11 +3652,11 @@
       <c r="L74" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M74" s="114">
+      <c r="M74" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="115"/>
+      <c r="N74" s="95"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="9"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="I101" s="113"/>
+      <c r="I101" s="99"/>
       <c r="J101" s="43"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="I102" s="113"/>
+      <c r="I102" s="99"/>
       <c r="J102" s="43"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4425,6 +4425,230 @@
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="F56:F57"/>
@@ -4449,235 +4673,11 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.38" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Дополнительные сведения:</t>
-  </si>
-  <si>
-    <t>Вышеуказанному туристу</t>
   </si>
   <si>
     <t>М.П.</t>
@@ -137,49 +134,16 @@
     <t>вого отдела)</t>
   </si>
   <si>
-    <t>предоставляется  размещение и питание  на борту теплохода</t>
-  </si>
-  <si>
     <t>Цель поездки</t>
   </si>
   <si>
     <t>ТУРИЗМ</t>
   </si>
   <si>
-    <t>016290</t>
-  </si>
-  <si>
-    <t>Туристическая компания "МИР", 190000, Россия,</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург, улица Большая Морская 31</t>
-  </si>
-  <si>
-    <t>Москва, Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург, Москва</t>
-  </si>
-  <si>
-    <t>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </t>
-  </si>
-  <si>
-    <t>130319 -               USA 04/05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Реестровый № </t>
   </si>
   <si>
     <t>Реестровый №</t>
-  </si>
-  <si>
-    <t>04/05/2019</t>
-  </si>
-  <si>
-    <t>16/05/2019</t>
   </si>
   <si>
     <t xml:space="preserve">визовое приглашение № </t>
@@ -627,25 +591,11 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,95 +603,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -750,39 +663,90 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -798,427 +762,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1216025</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1104" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2047875" y="15878175"/>
-          <a:ext cx="2073275" cy="1647825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1105" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9950450" y="15878175"/>
-          <a:ext cx="2076450" cy="1647825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1106" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9420225" y="8610600"/>
-          <a:ext cx="2085975" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1107" name="Изображение 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1962150" y="8591550"/>
-          <a:ext cx="2076450" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1108" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="127000" y="15132050"/>
-          <a:ext cx="2397125" cy="2533650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1109" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8061325" y="15227300"/>
-          <a:ext cx="2403475" cy="2533650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1110" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8172450"/>
-          <a:ext cx="2390775" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1111" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6991350" y="8191500"/>
-          <a:ext cx="2400300" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,7 +1054,7 @@
   <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="39" zoomScaleNormal="75" zoomScaleSheetLayoutView="39" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:P12"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1536,6 +1079,8 @@
     <col min="18" max="18" width="0.85546875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="0.42578125" customWidth="1"/>
     <col min="20" max="20" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
@@ -1552,13 +1097,13 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="118" t="s">
+      <c r="N1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="116"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="78"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
     </row>
@@ -1587,30 +1132,28 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="117" t="s">
+      <c r="L3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="119" t="str">
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="88" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 04/05</v>
-      </c>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+        <v/>
+      </c>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
       <c r="R3" s="10" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1621,25 +1164,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="C4" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="117" t="str">
+      <c r="L4" s="86" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
       <c r="S4" s="9"/>
@@ -1669,10 +1212,10 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="120"/>
+      <c r="B6" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="89"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
       <c r="F6" s="58"/>
@@ -1680,11 +1223,11 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="121" t="str">
+      <c r="K6" s="90" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="121"/>
+      <c r="L6" s="90"/>
       <c r="M6" s="66">
         <f>D6</f>
         <v>0</v>
@@ -1720,29 +1263,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="110" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="110" t="str">
+      <c r="L8" s="80"/>
+      <c r="M8" s="79" t="str">
         <f>REPT(D8,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
@@ -1773,29 +1316,29 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="110" t="str">
+      <c r="L10" s="80"/>
+      <c r="M10" s="79" t="str">
         <f>REPT(D10,1)</f>
         <v>США</v>
       </c>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="9"/>
@@ -1829,36 +1372,32 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="114"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="114"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="15"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="110" t="str">
+      <c r="L12" s="79" t="str">
         <f>REPT(C12,1)</f>
-        <v>04/05/2019</v>
-      </c>
-      <c r="M12" s="110"/>
+        <v/>
+      </c>
+      <c r="M12" s="79"/>
       <c r="N12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="110" t="str">
+      <c r="O12" s="79" t="str">
         <f>REPT(F12,1)</f>
-        <v>16/05/2019</v>
-      </c>
-      <c r="P12" s="110"/>
+        <v/>
+      </c>
+      <c r="P12" s="79"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1888,41 +1427,41 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="116"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="78"/>
       <c r="F14" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="115" t="s">
+      <c r="K14" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="116"/>
-      <c r="M14" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="116"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="78"/>
       <c r="O14" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -1930,28 +1469,28 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="9"/>
@@ -1960,19 +1499,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -1982,67 +1521,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="B17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
+      <c r="K17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -2074,25 +1613,23 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="11"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="112"/>
+      <c r="K21" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="93"/>
       <c r="M21" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="7"/>
@@ -2126,31 +1663,29 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="81" t="str">
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="91" t="str">
         <f>REPT(F23,1)</f>
-        <v>Санкт-Петербург, Москва</v>
-      </c>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
+        <v/>
+      </c>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
@@ -2179,56 +1714,54 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="113" t="s">
+      <c r="K25" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="80" t="str">
+      <c r="L25" s="94"/>
+      <c r="M25" s="92" t="str">
         <f>REPT(D25,1)</f>
-        <v>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</v>
-      </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
+        <v/>
+      </c>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="82" t="s">
+      <c r="K26" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
@@ -2236,26 +1769,24 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="81" t="str">
+      <c r="K27" s="91" t="str">
         <f>REPT(B27,1)</f>
-        <v>Туристическая компания "МИР", 190000, Россия,</v>
-      </c>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
+        <v/>
+      </c>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -2263,26 +1794,24 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="81" t="str">
+      <c r="K28" s="91" t="str">
         <f>REPT(B28,1)</f>
-        <v>Санкт-Петербург, улица Большая Морская 31</v>
-      </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
+        <v/>
+      </c>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -2291,12 +1820,10 @@
     <row r="29" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="49" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C29" s="50"/>
-      <c r="D29" s="64" t="s">
-        <v>40</v>
-      </c>
+      <c r="D29" s="64"/>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -2304,12 +1831,10 @@
       <c r="I29" s="52"/>
       <c r="J29" s="53"/>
       <c r="K29" s="49" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L29" s="50"/>
-      <c r="M29" s="64" t="s">
-        <v>40</v>
-      </c>
+      <c r="M29" s="64"/>
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
       <c r="P29" s="51"/>
@@ -2342,166 +1867,158 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="83" t="str">
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="122" t="str">
         <f>REPT(E31,1)</f>
-        <v>Вышеуказанному туристу</v>
-      </c>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
+        <v/>
+      </c>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="81" t="str">
+      <c r="K32" s="91" t="str">
         <f>REPT(B32,1)</f>
-        <v>предоставляется  размещение и питание  на борту теплохода</v>
-      </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
+        <v/>
+      </c>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="81" t="str">
+      <c r="K33" s="91" t="str">
         <f>REPT(B33,1)</f>
-        <v xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </v>
-      </c>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
+        <v/>
+      </c>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="81" t="str">
+      <c r="K34" s="91" t="str">
         <f>REPT(B34,1)</f>
-        <v>Москва, Санкт-Петербург</v>
-      </c>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
+        <v/>
+      </c>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="81" t="str">
+      <c r="K35" s="91" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
+      <c r="B36" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="9"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="81" t="str">
+      <c r="K36" s="91" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
@@ -2531,7 +2048,7 @@
     <row r="38" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2542,7 +2059,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="8"/>
       <c r="K38" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -2558,32 +2075,32 @@
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="82"/>
+        <v>14</v>
+      </c>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="80"/>
       <c r="H39" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="8"/>
       <c r="K39" s="7"/>
       <c r="L39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="85" t="str">
+        <v>14</v>
+      </c>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="124" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="85"/>
+      <c r="P39" s="124"/>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
@@ -2598,7 +2115,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="8"/>
@@ -2609,7 +2126,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
@@ -2619,13 +2136,13 @@
       <c r="A41" s="8"/>
       <c r="B41" s="7"/>
       <c r="C41" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="94">
+        <v>15</v>
+      </c>
+      <c r="D41" s="114">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="115"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2633,13 +2150,13 @@
       <c r="J41" s="8"/>
       <c r="K41" s="7"/>
       <c r="L41" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="94">
+        <v>15</v>
+      </c>
+      <c r="M41" s="114">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="95"/>
+      <c r="N41" s="115"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2691,7 +2208,7 @@
       <c r="S43" s="27"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2735,10 +2252,10 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" s="91"/>
+      <c r="P45" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="126"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2759,83 +2276,83 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="93"/>
+      <c r="P46" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" s="127"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98" t="str">
+      <c r="B47" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="121" t="str">
         <f>REPT(F3,1)</f>
-        <v>130319 -               USA 04/05</v>
-      </c>
-      <c r="H47" s="98"/>
+        <v/>
+      </c>
+      <c r="H47" s="121"/>
       <c r="I47" s="24"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="104" t="str">
+      <c r="K47" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="107" t="str">
         <f>REPT(O3,1)</f>
-        <v>130319 -               USA 04/05</v>
-      </c>
-      <c r="Q47" s="105"/>
+        <v/>
+      </c>
+      <c r="Q47" s="108"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="87"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="101"/>
       <c r="F48" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="68" t="s">
+      <c r="K48" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="69"/>
-      <c r="M48" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="87"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="101"/>
       <c r="O48" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -2843,28 +2360,28 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="69"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="99"/>
       <c r="F49" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="24"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="69"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="99"/>
       <c r="O49" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P49" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="34"/>
       <c r="R49" s="1"/>
@@ -2873,36 +2390,36 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="74"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="102"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="109"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="76" t="str">
+      <c r="K50" s="70" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="109"/>
-      <c r="M50" s="76" t="str">
+      <c r="L50" s="72"/>
+      <c r="M50" s="70" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="77"/>
-      <c r="O50" s="70" t="str">
+      <c r="N50" s="71"/>
+      <c r="O50" s="102" t="str">
         <f t="shared" ref="O50:O52" si="0">REPT(F50,1)</f>
         <v>07/03/1977</v>
       </c>
-      <c r="P50" s="70" t="str">
+      <c r="P50" s="102" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="88" t="str">
+      <c r="Q50" s="96" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2912,62 +2429,62 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="75"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="110"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="106" t="str">
+      <c r="K51" s="73" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="108"/>
-      <c r="M51" s="78" t="str">
+      <c r="L51" s="104"/>
+      <c r="M51" s="68" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="79"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="89"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="97"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="74"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="109"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="76" t="str">
+      <c r="K52" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="77"/>
-      <c r="M52" s="76" t="str">
+      <c r="L52" s="71"/>
+      <c r="M52" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="70" t="str">
+      <c r="N52" s="71"/>
+      <c r="O52" s="102" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="70" t="str">
+      <c r="P52" s="102" t="str">
         <f t="shared" ref="P52" si="3">REPT(G52,1)</f>
         <v/>
       </c>
-      <c r="Q52" s="88" t="str">
+      <c r="Q52" s="96" t="str">
         <f t="shared" ref="Q52" si="4">REPT(H52,1)</f>
         <v/>
       </c>
@@ -2977,62 +2494,62 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="75"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="110"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="78" t="str">
+      <c r="K53" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="79"/>
-      <c r="M53" s="78" t="str">
+      <c r="L53" s="69"/>
+      <c r="M53" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="79"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="89"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="103"/>
+      <c r="Q53" s="97"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="74"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="109"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="76" t="str">
+      <c r="K54" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76" t="str">
+      <c r="L54" s="71"/>
+      <c r="M54" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="77"/>
-      <c r="O54" s="70" t="str">
+      <c r="N54" s="71"/>
+      <c r="O54" s="102" t="str">
         <f t="shared" ref="O54" si="5">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="70" t="str">
+      <c r="P54" s="102" t="str">
         <f t="shared" ref="P54" si="6">REPT(G54,1)</f>
         <v/>
       </c>
-      <c r="Q54" s="88" t="str">
+      <c r="Q54" s="96" t="str">
         <f t="shared" ref="Q54" si="7">REPT(H54,1)</f>
         <v/>
       </c>
@@ -3042,62 +2559,62 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="75"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="110"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="78" t="str">
+      <c r="K55" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="79"/>
-      <c r="M55" s="106" t="str">
+      <c r="L55" s="69"/>
+      <c r="M55" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="107"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="89"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="103"/>
+      <c r="P55" s="103"/>
+      <c r="Q55" s="97"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="74"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="109"/>
       <c r="J56" s="38"/>
-      <c r="K56" s="76" t="str">
+      <c r="K56" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="109"/>
-      <c r="M56" s="76" t="str">
+      <c r="L56" s="72"/>
+      <c r="M56" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="77"/>
-      <c r="O56" s="70" t="str">
+      <c r="N56" s="71"/>
+      <c r="O56" s="102" t="str">
         <f t="shared" ref="O56" si="8">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="70" t="str">
+      <c r="P56" s="102" t="str">
         <f t="shared" ref="P56" si="9">REPT(G56,1)</f>
         <v/>
       </c>
-      <c r="Q56" s="88" t="str">
+      <c r="Q56" s="96" t="str">
         <f t="shared" ref="Q56" si="10">REPT(H56,1)</f>
         <v/>
       </c>
@@ -3107,64 +2624,64 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="75"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="110"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="106" t="str">
+      <c r="K57" s="73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="108"/>
-      <c r="M57" s="78" t="str">
+      <c r="L57" s="104"/>
+      <c r="M57" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="79"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="89"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="103"/>
+      <c r="P57" s="103"/>
+      <c r="Q57" s="97"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="74"/>
+        <v>27</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="109"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="76" t="str">
+      <c r="K58" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="77"/>
-      <c r="M58" s="76" t="str">
+      <c r="L58" s="71"/>
+      <c r="M58" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="77"/>
-      <c r="O58" s="70" t="str">
+      <c r="N58" s="71"/>
+      <c r="O58" s="102" t="str">
         <f t="shared" ref="O58" si="11">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="70" t="str">
+      <c r="P58" s="102" t="str">
         <f t="shared" ref="P58" si="12">REPT(G58,1)</f>
         <v/>
       </c>
-      <c r="Q58" s="88" t="str">
+      <c r="Q58" s="96" t="str">
         <f t="shared" ref="Q58" si="13">REPT(H58,1)</f>
         <v/>
       </c>
@@ -3174,64 +2691,64 @@
     </row>
     <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="75"/>
+        <v>27</v>
+      </c>
+      <c r="B59" s="68"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="110"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="78" t="str">
+      <c r="K59" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="79"/>
-      <c r="M59" s="78" t="str">
+      <c r="L59" s="69"/>
+      <c r="M59" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="79"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="89"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="97"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="74"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="109"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="76" t="str">
+      <c r="K60" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="77"/>
-      <c r="M60" s="76" t="str">
+      <c r="L60" s="71"/>
+      <c r="M60" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="77"/>
-      <c r="O60" s="70" t="str">
+      <c r="N60" s="71"/>
+      <c r="O60" s="102" t="str">
         <f t="shared" ref="O60" si="14">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="70" t="str">
+      <c r="P60" s="102" t="str">
         <f t="shared" ref="P60" si="15">REPT(G60,1)</f>
         <v/>
       </c>
-      <c r="Q60" s="88" t="str">
+      <c r="Q60" s="96" t="str">
         <f t="shared" ref="Q60" si="16">REPT(H60,1)</f>
         <v/>
       </c>
@@ -3241,62 +2758,62 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="75"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="110"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="78" t="str">
+      <c r="K61" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="79"/>
-      <c r="M61" s="78" t="str">
+      <c r="L61" s="69"/>
+      <c r="M61" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="79"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="89"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="97"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="74"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="109"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="76" t="str">
+      <c r="K62" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="77"/>
-      <c r="M62" s="76" t="str">
+      <c r="L62" s="71"/>
+      <c r="M62" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="77"/>
-      <c r="O62" s="70" t="str">
+      <c r="N62" s="71"/>
+      <c r="O62" s="102" t="str">
         <f t="shared" ref="O62" si="17">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="70" t="str">
+      <c r="P62" s="102" t="str">
         <f t="shared" ref="P62" si="18">REPT(G62,1)</f>
         <v/>
       </c>
-      <c r="Q62" s="88" t="str">
+      <c r="Q62" s="96" t="str">
         <f t="shared" ref="Q62" si="19">REPT(H62,1)</f>
         <v/>
       </c>
@@ -3306,62 +2823,62 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="75"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="112"/>
+      <c r="I63" s="110"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="106" t="str">
+      <c r="K63" s="73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="107"/>
-      <c r="M63" s="106" t="str">
+      <c r="L63" s="74"/>
+      <c r="M63" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="107"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="89"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="103"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="97"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="74"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="109"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="76" t="str">
+      <c r="K64" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="77"/>
-      <c r="M64" s="76" t="str">
+      <c r="L64" s="71"/>
+      <c r="M64" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="77"/>
-      <c r="O64" s="70" t="str">
+      <c r="N64" s="71"/>
+      <c r="O64" s="102" t="str">
         <f t="shared" ref="O64" si="20">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="70" t="str">
+      <c r="P64" s="102" t="str">
         <f t="shared" ref="P64" si="21">REPT(G64,1)</f>
         <v/>
       </c>
-      <c r="Q64" s="88" t="str">
+      <c r="Q64" s="96" t="str">
         <f t="shared" ref="Q64" si="22">REPT(H64,1)</f>
         <v/>
       </c>
@@ -3371,64 +2888,64 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="75"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="110"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="78" t="str">
+      <c r="K65" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="79"/>
-      <c r="M65" s="78" t="str">
+      <c r="L65" s="69"/>
+      <c r="M65" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="79"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="89"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="103"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="97"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="74"/>
+        <v>27</v>
+      </c>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="109"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="76" t="str">
+      <c r="K66" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="77"/>
-      <c r="M66" s="76" t="str">
+      <c r="L66" s="71"/>
+      <c r="M66" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="77"/>
-      <c r="O66" s="70" t="str">
+      <c r="N66" s="71"/>
+      <c r="O66" s="102" t="str">
         <f t="shared" ref="O66" si="23">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="70" t="str">
+      <c r="P66" s="102" t="str">
         <f t="shared" ref="P66" si="24">REPT(G66,1)</f>
         <v/>
       </c>
-      <c r="Q66" s="88" t="str">
+      <c r="Q66" s="96" t="str">
         <f t="shared" ref="Q66" si="25">REPT(H66,1)</f>
         <v/>
       </c>
@@ -3438,64 +2955,64 @@
     </row>
     <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="78"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="75"/>
+        <v>27</v>
+      </c>
+      <c r="B67" s="68"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="110"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="78" t="str">
+      <c r="K67" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="79"/>
-      <c r="M67" s="78" t="str">
+      <c r="L67" s="69"/>
+      <c r="M67" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="79"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="89"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="103"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="97"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="74"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="109"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="76" t="str">
+      <c r="K68" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="77"/>
-      <c r="M68" s="76" t="str">
+      <c r="L68" s="71"/>
+      <c r="M68" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="77"/>
-      <c r="O68" s="70" t="str">
+      <c r="N68" s="71"/>
+      <c r="O68" s="102" t="str">
         <f t="shared" ref="O68" si="26">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="70" t="str">
+      <c r="P68" s="102" t="str">
         <f t="shared" ref="P68" si="27">REPT(G68,1)</f>
         <v/>
       </c>
-      <c r="Q68" s="88" t="str">
+      <c r="Q68" s="96" t="str">
         <f t="shared" ref="Q68" si="28">REPT(H68,1)</f>
         <v/>
       </c>
@@ -3505,44 +3022,44 @@
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="75"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="110"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="78" t="str">
+      <c r="K69" s="68"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="79"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="89"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="97"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
       <c r="G70" s="45"/>
       <c r="H70" s="47"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="102"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="118"/>
+      <c r="M70" s="118"/>
+      <c r="N70" s="118"/>
       <c r="O70" s="44"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="39"/>
@@ -3576,31 +3093,31 @@
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="D72" s="119"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="120"/>
       <c r="H72" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I72" s="43"/>
       <c r="J72" s="43"/>
       <c r="K72" s="1"/>
       <c r="L72" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="P72" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="M72" s="119"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="120"/>
       <c r="Q72" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -3615,7 +3132,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I73" s="43"/>
       <c r="J73" s="43"/>
@@ -3626,7 +3143,7 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -3636,13 +3153,13 @@
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="94">
+        <v>15</v>
+      </c>
+      <c r="D74" s="114">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="95"/>
+      <c r="E74" s="115"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
@@ -3650,13 +3167,13 @@
       <c r="J74" s="43"/>
       <c r="K74" s="1"/>
       <c r="L74" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="94">
+        <v>15</v>
+      </c>
+      <c r="M74" s="114">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="95"/>
+      <c r="N74" s="115"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="9"/>
@@ -3889,7 +3406,7 @@
     </row>
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="I101" s="99"/>
+      <c r="I101" s="113"/>
       <c r="J101" s="43"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3897,7 +3414,7 @@
     </row>
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="I102" s="99"/>
+      <c r="I102" s="113"/>
       <c r="J102" s="43"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4425,86 +3942,150 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="K10:L10"/>
@@ -4529,157 +4110,92 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.38" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/static/xlsx/2.xlsx
+++ b/static/xlsx/2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>США</t>
   </si>
   <si>
     <t>Васив Д.М.</t>
@@ -591,162 +588,162 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1053,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="39" zoomScaleNormal="75" zoomScaleSheetLayoutView="39" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="64" zoomScaleNormal="75" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1068,18 +1065,18 @@
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="1" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
     <col min="18" max="18" width="0.85546875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="0.42578125" customWidth="1"/>
-    <col min="20" max="20" width="0.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="1.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1097,13 +1094,13 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="78"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="116"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
     </row>
@@ -1132,28 +1129,28 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="88" t="str">
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="119" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="10" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1164,25 +1161,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="86" t="str">
+      <c r="L4" s="117" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
       <c r="S4" s="9"/>
@@ -1212,10 +1209,10 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="89"/>
+      <c r="B6" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="120"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
       <c r="F6" s="58"/>
@@ -1223,11 +1220,11 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="90" t="str">
+      <c r="K6" s="121" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="90"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="66">
         <f>D6</f>
         <v>0</v>
@@ -1263,29 +1260,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="79" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="79" t="str">
+      <c r="L8" s="82"/>
+      <c r="M8" s="110" t="str">
         <f>REPT(D8,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
@@ -1316,29 +1313,27 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="79" t="str">
+      <c r="L10" s="82"/>
+      <c r="M10" s="110" t="str">
         <f>REPT(D10,1)</f>
-        <v>США</v>
-      </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
+        <v/>
+      </c>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="9"/>
@@ -1372,32 +1367,32 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="15"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="str">
+      <c r="L12" s="110" t="str">
         <f>REPT(C12,1)</f>
         <v/>
       </c>
-      <c r="M12" s="79"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="79" t="str">
+      <c r="O12" s="110" t="str">
         <f>REPT(F12,1)</f>
         <v/>
       </c>
-      <c r="P12" s="79"/>
+      <c r="P12" s="110"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1427,14 +1422,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="77" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1446,14 +1441,14 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="77" t="s">
+      <c r="L14" s="116"/>
+      <c r="M14" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="78"/>
+      <c r="N14" s="116"/>
       <c r="O14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1469,10 +1464,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="17" t="s">
         <v>18</v>
       </c>
@@ -1482,10 +1477,10 @@
       <c r="H15" s="17"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
       <c r="O15" s="17" t="s">
         <v>18</v>
       </c>
@@ -1499,19 +1494,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -1521,67 +1516,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -1613,10 +1608,10 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="93"/>
+      <c r="B21" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="112"/>
       <c r="D21" s="55"/>
       <c r="E21" s="11"/>
       <c r="F21" s="7"/>
@@ -1624,12 +1619,12 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="93" t="s">
+      <c r="K21" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="112"/>
+      <c r="M21" s="55" t="s">
         <v>36</v>
-      </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="55" t="s">
-        <v>37</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="7"/>
@@ -1663,29 +1658,29 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="80" t="s">
+      <c r="K23" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="91" t="str">
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="81" t="str">
         <f>REPT(F23,1)</f>
         <v/>
       </c>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
@@ -1714,54 +1709,54 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="94" t="s">
+      <c r="K25" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="94"/>
-      <c r="M25" s="92" t="str">
+      <c r="L25" s="113"/>
+      <c r="M25" s="80" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
@@ -1769,24 +1764,24 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="91" t="str">
+      <c r="K27" s="81" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -1794,24 +1789,24 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="91" t="str">
+      <c r="K28" s="81" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -1820,7 +1815,7 @@
     <row r="29" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="64"/>
@@ -1831,7 +1826,7 @@
       <c r="I29" s="52"/>
       <c r="J29" s="53"/>
       <c r="K29" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="50"/>
       <c r="M29" s="64"/>
@@ -1867,158 +1862,158 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="122" t="str">
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="91" t="str">
+      <c r="K32" s="81" t="str">
         <f>REPT(B32,1)</f>
         <v/>
       </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="91" t="str">
+      <c r="K33" s="81" t="str">
         <f>REPT(B33,1)</f>
         <v/>
       </c>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="91" t="str">
+      <c r="K34" s="81" t="str">
         <f>REPT(B34,1)</f>
         <v/>
       </c>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
+      <c r="B35" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="91" t="str">
+      <c r="K35" s="81" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
+      <c r="B36" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="9"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="91" t="str">
+      <c r="K36" s="81" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
@@ -2077,14 +2072,14 @@
       <c r="C39" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="80"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="82"/>
       <c r="H39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="8"/>
@@ -2092,15 +2087,15 @@
       <c r="L39" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="124" t="str">
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="85" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="124"/>
+      <c r="P39" s="85"/>
       <c r="Q39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
@@ -2115,7 +2110,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="8"/>
@@ -2126,7 +2121,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
@@ -2138,11 +2133,11 @@
       <c r="C41" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="114">
+      <c r="D41" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="115"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2152,11 +2147,11 @@
       <c r="L41" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="114">
+      <c r="M41" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="115"/>
+      <c r="N41" s="95"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2252,10 +2247,10 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="125" t="s">
+      <c r="P45" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="126"/>
+      <c r="Q45" s="91"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2276,56 +2271,56 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="Q46" s="127"/>
+      <c r="Q46" s="93"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="121" t="str">
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98" t="str">
         <f>REPT(F3,1)</f>
         <v/>
       </c>
-      <c r="H47" s="121"/>
+      <c r="H47" s="98"/>
       <c r="I47" s="24"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="105" t="s">
+      <c r="K47" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="107" t="str">
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="104" t="str">
         <f>REPT(O3,1)</f>
         <v/>
       </c>
-      <c r="Q47" s="108"/>
+      <c r="Q47" s="105"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="101"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="32" t="s">
         <v>15</v>
       </c>
@@ -2337,14 +2332,14 @@
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="98" t="s">
+      <c r="K48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="99"/>
-      <c r="M48" s="100" t="s">
+      <c r="L48" s="69"/>
+      <c r="M48" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="101"/>
+      <c r="N48" s="87"/>
       <c r="O48" s="32" t="s">
         <v>15</v>
       </c>
@@ -2360,10 +2355,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="99"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="34" t="s">
         <v>18</v>
       </c>
@@ -2373,10 +2368,10 @@
       <c r="H49" s="37"/>
       <c r="I49" s="24"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="99"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="69"/>
       <c r="O49" s="34" t="s">
         <v>18</v>
       </c>
@@ -2390,36 +2385,36 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="102"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="109"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="70"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="70" t="str">
+      <c r="K50" s="76" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="72"/>
-      <c r="M50" s="70" t="str">
+      <c r="L50" s="109"/>
+      <c r="M50" s="76" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="102" t="str">
+      <c r="N50" s="77"/>
+      <c r="O50" s="70" t="str">
         <f t="shared" ref="O50:O52" si="0">REPT(F50,1)</f>
         <v>07/03/1977</v>
       </c>
-      <c r="P50" s="102" t="str">
+      <c r="P50" s="70" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="96" t="str">
+      <c r="Q50" s="88" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2429,62 +2424,62 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="110"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="73" t="str">
+      <c r="K51" s="106" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="104"/>
-      <c r="M51" s="68" t="str">
+      <c r="L51" s="108"/>
+      <c r="M51" s="78" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="69"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="97"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="89"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="109"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="70" t="str">
+      <c r="K52" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="70" t="str">
+      <c r="L52" s="77"/>
+      <c r="M52" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="102" t="str">
+      <c r="N52" s="77"/>
+      <c r="O52" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="102" t="str">
+      <c r="P52" s="70" t="str">
         <f t="shared" ref="P52" si="3">REPT(G52,1)</f>
         <v/>
       </c>
-      <c r="Q52" s="96" t="str">
+      <c r="Q52" s="88" t="str">
         <f t="shared" ref="Q52" si="4">REPT(H52,1)</f>
         <v/>
       </c>
@@ -2494,62 +2489,62 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="110"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="75"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="68" t="str">
+      <c r="K53" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="69"/>
-      <c r="M53" s="68" t="str">
+      <c r="L53" s="79"/>
+      <c r="M53" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="69"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="97"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="89"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="109"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="70" t="str">
+      <c r="K54" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="70" t="str">
+      <c r="L54" s="77"/>
+      <c r="M54" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="71"/>
-      <c r="O54" s="102" t="str">
+      <c r="N54" s="77"/>
+      <c r="O54" s="70" t="str">
         <f t="shared" ref="O54" si="5">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="102" t="str">
+      <c r="P54" s="70" t="str">
         <f t="shared" ref="P54" si="6">REPT(G54,1)</f>
         <v/>
       </c>
-      <c r="Q54" s="96" t="str">
+      <c r="Q54" s="88" t="str">
         <f t="shared" ref="Q54" si="7">REPT(H54,1)</f>
         <v/>
       </c>
@@ -2559,62 +2554,62 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="110"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="75"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="68" t="str">
+      <c r="K55" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="69"/>
-      <c r="M55" s="73" t="str">
+      <c r="L55" s="79"/>
+      <c r="M55" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="74"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="97"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="89"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="109"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="38"/>
-      <c r="K56" s="70" t="str">
+      <c r="K56" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="72"/>
-      <c r="M56" s="70" t="str">
+      <c r="L56" s="109"/>
+      <c r="M56" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="71"/>
-      <c r="O56" s="102" t="str">
+      <c r="N56" s="77"/>
+      <c r="O56" s="70" t="str">
         <f t="shared" ref="O56" si="8">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="102" t="str">
+      <c r="P56" s="70" t="str">
         <f t="shared" ref="P56" si="9">REPT(G56,1)</f>
         <v/>
       </c>
-      <c r="Q56" s="96" t="str">
+      <c r="Q56" s="88" t="str">
         <f t="shared" ref="Q56" si="10">REPT(H56,1)</f>
         <v/>
       </c>
@@ -2624,28 +2619,28 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="110"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="75"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="73" t="str">
+      <c r="K57" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="104"/>
-      <c r="M57" s="68" t="str">
+      <c r="L57" s="108"/>
+      <c r="M57" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="69"/>
-      <c r="O57" s="103"/>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="97"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="89"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -2654,34 +2649,34 @@
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="109"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="74"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="70" t="str">
+      <c r="K58" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="71"/>
-      <c r="M58" s="70" t="str">
+      <c r="L58" s="77"/>
+      <c r="M58" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="71"/>
-      <c r="O58" s="102" t="str">
+      <c r="N58" s="77"/>
+      <c r="O58" s="70" t="str">
         <f t="shared" ref="O58" si="11">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="102" t="str">
+      <c r="P58" s="70" t="str">
         <f t="shared" ref="P58" si="12">REPT(G58,1)</f>
         <v/>
       </c>
-      <c r="Q58" s="96" t="str">
+      <c r="Q58" s="88" t="str">
         <f t="shared" ref="Q58" si="13">REPT(H58,1)</f>
         <v/>
       </c>
@@ -2693,62 +2688,62 @@
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="110"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="75"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="68" t="str">
+      <c r="K59" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="69"/>
-      <c r="M59" s="68" t="str">
+      <c r="L59" s="79"/>
+      <c r="M59" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="69"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="97"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="89"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="109"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="70" t="str">
+      <c r="K60" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="71"/>
-      <c r="M60" s="70" t="str">
+      <c r="L60" s="77"/>
+      <c r="M60" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="71"/>
-      <c r="O60" s="102" t="str">
+      <c r="N60" s="77"/>
+      <c r="O60" s="70" t="str">
         <f t="shared" ref="O60" si="14">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="102" t="str">
+      <c r="P60" s="70" t="str">
         <f t="shared" ref="P60" si="15">REPT(G60,1)</f>
         <v/>
       </c>
-      <c r="Q60" s="96" t="str">
+      <c r="Q60" s="88" t="str">
         <f t="shared" ref="Q60" si="16">REPT(H60,1)</f>
         <v/>
       </c>
@@ -2758,62 +2753,62 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="110"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="75"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="68" t="str">
+      <c r="K61" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="69"/>
-      <c r="M61" s="68" t="str">
+      <c r="L61" s="79"/>
+      <c r="M61" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="69"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="97"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="89"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="109"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="74"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="70" t="str">
+      <c r="K62" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="71"/>
-      <c r="M62" s="70" t="str">
+      <c r="L62" s="77"/>
+      <c r="M62" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="71"/>
-      <c r="O62" s="102" t="str">
+      <c r="N62" s="77"/>
+      <c r="O62" s="70" t="str">
         <f t="shared" ref="O62" si="17">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="102" t="str">
+      <c r="P62" s="70" t="str">
         <f t="shared" ref="P62" si="18">REPT(G62,1)</f>
         <v/>
       </c>
-      <c r="Q62" s="96" t="str">
+      <c r="Q62" s="88" t="str">
         <f t="shared" ref="Q62" si="19">REPT(H62,1)</f>
         <v/>
       </c>
@@ -2823,62 +2818,62 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="110"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="75"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="73" t="str">
+      <c r="K63" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="74"/>
-      <c r="M63" s="73" t="str">
+      <c r="L63" s="107"/>
+      <c r="M63" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="74"/>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="97"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="89"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="109"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="70" t="str">
+      <c r="K64" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="71"/>
-      <c r="M64" s="70" t="str">
+      <c r="L64" s="77"/>
+      <c r="M64" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="71"/>
-      <c r="O64" s="102" t="str">
+      <c r="N64" s="77"/>
+      <c r="O64" s="70" t="str">
         <f t="shared" ref="O64" si="20">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="102" t="str">
+      <c r="P64" s="70" t="str">
         <f t="shared" ref="P64" si="21">REPT(G64,1)</f>
         <v/>
       </c>
-      <c r="Q64" s="96" t="str">
+      <c r="Q64" s="88" t="str">
         <f t="shared" ref="Q64" si="22">REPT(H64,1)</f>
         <v/>
       </c>
@@ -2888,28 +2883,28 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="110"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="75"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="68" t="str">
+      <c r="K65" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="69"/>
-      <c r="M65" s="68" t="str">
+      <c r="L65" s="79"/>
+      <c r="M65" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="69"/>
-      <c r="O65" s="103"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="97"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="89"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -2918,34 +2913,34 @@
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="109"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="70" t="str">
+      <c r="K66" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="71"/>
-      <c r="M66" s="70" t="str">
+      <c r="L66" s="77"/>
+      <c r="M66" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="71"/>
-      <c r="O66" s="102" t="str">
+      <c r="N66" s="77"/>
+      <c r="O66" s="70" t="str">
         <f t="shared" ref="O66" si="23">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="102" t="str">
+      <c r="P66" s="70" t="str">
         <f t="shared" ref="P66" si="24">REPT(G66,1)</f>
         <v/>
       </c>
-      <c r="Q66" s="96" t="str">
+      <c r="Q66" s="88" t="str">
         <f t="shared" ref="Q66" si="25">REPT(H66,1)</f>
         <v/>
       </c>
@@ -2957,62 +2952,62 @@
       <c r="A67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="68"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="110"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="75"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="68" t="str">
+      <c r="K67" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="69"/>
-      <c r="M67" s="68" t="str">
+      <c r="L67" s="79"/>
+      <c r="M67" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="69"/>
-      <c r="O67" s="103"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="97"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="89"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="109"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="70" t="str">
+      <c r="K68" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="71"/>
-      <c r="M68" s="70" t="str">
+      <c r="L68" s="77"/>
+      <c r="M68" s="76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="71"/>
-      <c r="O68" s="102" t="str">
+      <c r="N68" s="77"/>
+      <c r="O68" s="70" t="str">
         <f t="shared" ref="O68" si="26">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="102" t="str">
+      <c r="P68" s="70" t="str">
         <f t="shared" ref="P68" si="27">REPT(G68,1)</f>
         <v/>
       </c>
-      <c r="Q68" s="96" t="str">
+      <c r="Q68" s="88" t="str">
         <f t="shared" ref="Q68" si="28">REPT(H68,1)</f>
         <v/>
       </c>
@@ -3022,44 +3017,44 @@
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="110"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="75"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="68" t="str">
+      <c r="K69" s="78"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="69"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="97"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="89"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="45"/>
       <c r="H70" s="47"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
+      <c r="N70" s="102"/>
       <c r="O70" s="44"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="39"/>
@@ -3095,14 +3090,14 @@
       <c r="C72" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="119"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="120"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="92"/>
       <c r="H72" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I72" s="43"/>
       <c r="J72" s="43"/>
@@ -3110,14 +3105,14 @@
       <c r="L72" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M72" s="119"/>
-      <c r="N72" s="119"/>
-      <c r="O72" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="P72" s="120"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="92"/>
       <c r="Q72" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -3132,7 +3127,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73" s="43"/>
       <c r="J73" s="43"/>
@@ -3143,7 +3138,7 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -3155,11 +3150,11 @@
       <c r="C74" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="114">
+      <c r="D74" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="115"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
@@ -3169,11 +3164,11 @@
       <c r="L74" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="114">
+      <c r="M74" s="94">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="115"/>
+      <c r="N74" s="95"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="9"/>
@@ -3406,7 +3401,7 @@
     </row>
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="I101" s="113"/>
+      <c r="I101" s="99"/>
       <c r="J101" s="43"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3414,7 +3409,7 @@
     </row>
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="I102" s="113"/>
+      <c r="I102" s="99"/>
       <c r="J102" s="43"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -3942,6 +3937,230 @@
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="F56:F57"/>
@@ -3966,235 +4185,11 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.38" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
